--- a/data/MASTER Xenon Literature Review.xlsx
+++ b/data/MASTER Xenon Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23076523_student_uwa_edu_au/Documents/MPE Engineering Research Project GENG5511.2/TOTAL LIT DATA REVIEWS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59E5045F-5941-4AA7-9786-2847BE5F6DE2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F734CECE-B7E6-4E4B-8629-7736254A249C}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="2" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="6" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="176">
   <si>
     <t>XENON</t>
   </si>
@@ -1000,9 +1000,6 @@
     <t>Ferreira</t>
   </si>
   <si>
-    <t>Schwalbe</t>
-  </si>
-  <si>
     <t>Pollack</t>
   </si>
   <si>
@@ -1520,8 +1517,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1994,27 +1991,27 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.08203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="18" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.125" customWidth="1"/>
+    <col min="26" max="26" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75">
+    <row r="1" spans="1:26">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2045,7 @@
       <c r="Y1" s="20"/>
       <c r="Z1" s="20"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75">
+    <row r="2" spans="1:26">
       <c r="A2" s="5"/>
       <c r="B2" s="72" t="s">
         <v>3</v>
@@ -2083,7 +2080,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75">
+    <row r="3" spans="1:26">
       <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2142,7 @@
       </c>
       <c r="Z3" s="62"/>
     </row>
-    <row r="4" spans="1:26" ht="18">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -2195,7 +2192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="18" thickBot="1">
+    <row r="5" spans="1:26" ht="17" thickBot="1">
       <c r="A5" s="69"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -2253,7 +2250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75">
+    <row r="6" spans="1:26">
       <c r="A6" s="64" t="s">
         <v>30</v>
       </c>
@@ -2304,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75">
+    <row r="7" spans="1:26">
       <c r="A7" s="65"/>
       <c r="B7" s="28" t="s">
         <v>31</v>
@@ -3178,7 +3175,7 @@
         <v>255.12962188902395</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75">
+    <row r="27" spans="1:26">
       <c r="A27" s="30" t="s">
         <v>42</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>253.05958225900798</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75">
+    <row r="35" spans="1:26">
       <c r="A35" s="30" t="s">
         <v>42</v>
       </c>
@@ -4095,7 +4092,7 @@
         <v>247.21200921708098</v>
       </c>
     </row>
-    <row r="52" spans="2:26" ht="15.75">
+    <row r="52" spans="2:26">
       <c r="B52" t="s">
         <v>51</v>
       </c>
@@ -4300,7 +4297,7 @@
         <v>253.359762034933</v>
       </c>
     </row>
-    <row r="59" spans="2:26" ht="15.75">
+    <row r="59" spans="2:26">
       <c r="C59">
         <v>1981</v>
       </c>
@@ -5700,7 +5697,7 @@
         <v>67.125</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15.75">
+    <row r="89" spans="1:26">
       <c r="A89" s="34">
         <v>1964</v>
       </c>
@@ -5747,7 +5744,7 @@
         <v>66.932000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15.75">
+    <row r="90" spans="1:26">
       <c r="A90" s="32"/>
       <c r="B90" s="34" t="s">
         <v>63</v>
@@ -10671,7 +10668,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="228" spans="14:30" ht="15.75">
+    <row r="228" spans="14:30">
       <c r="O228" s="35">
         <v>1980</v>
       </c>
@@ -10818,7 +10815,7 @@
         <v>45.095319794501997</v>
       </c>
     </row>
-    <row r="233" spans="14:30" ht="15.75">
+    <row r="233" spans="14:30">
       <c r="O233" s="35">
         <v>2022</v>
       </c>
@@ -15796,17 +15793,17 @@
       <selection pane="bottomLeft" activeCell="F7" sqref="F7:F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="15.75">
+    <row r="1" spans="1:9" s="20" customFormat="1">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -15819,7 +15816,7 @@
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
       <c r="B2" s="72" t="s">
         <v>3</v>
@@ -15845,7 +15842,7 @@
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="4" spans="1:9" s="3" customFormat="1">
       <c r="A4" s="68"/>
       <c r="B4" s="62" t="s">
         <v>5</v>
@@ -15866,7 +15863,7 @@
       <c r="H4" s="62"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="68"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -15885,7 +15882,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="17.25" thickBot="1">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="17" thickBot="1">
       <c r="A6" s="69"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -17046,25 +17043,25 @@
       <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="15.75">
+    <row r="1" spans="1:18" s="20" customFormat="1">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -17077,7 +17074,7 @@
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
     </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="15.75">
+    <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
       <c r="B2" s="76" t="s">
         <v>3</v>
@@ -17090,7 +17087,7 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -17133,7 +17130,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -17158,7 +17155,7 @@
       <c r="P4" s="62"/>
       <c r="Q4" s="62"/>
     </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" ht="19.5" thickBot="1">
+    <row r="5" spans="1:18" s="17" customFormat="1" ht="18" thickBot="1">
       <c r="A5" s="69"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -18328,18 +18325,18 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.875" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="18"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" style="18"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.875" style="18"/>
+    <col min="8" max="10" width="6.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -18353,7 +18350,7 @@
       <c r="I1" s="71"/>
       <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10">
       <c r="A2" s="14"/>
       <c r="B2" s="76" t="s">
         <v>3</v>
@@ -18367,7 +18364,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -18389,7 +18386,7 @@
       <c r="I3" s="62"/>
       <c r="J3" s="62"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:10">
       <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -20943,7 +20940,7 @@
         <v>609.86</v>
       </c>
     </row>
-    <row r="148" spans="2:7" customFormat="1">
+    <row r="148" spans="2:7" customFormat="1" ht="28">
       <c r="B148" s="47" t="s">
         <v>122</v>
       </c>
@@ -22026,7 +22023,7 @@
         <v>137.59</v>
       </c>
     </row>
-    <row r="208" spans="2:7" customFormat="1" ht="29.25">
+    <row r="208" spans="2:7" customFormat="1" ht="29">
       <c r="B208" s="48" t="s">
         <v>123</v>
       </c>
@@ -22047,7 +22044,7 @@
         <v>612.61</v>
       </c>
     </row>
-    <row r="209" spans="2:8" customFormat="1" ht="15.75">
+    <row r="209" spans="2:8" customFormat="1">
       <c r="B209" s="30" t="s">
         <v>125</v>
       </c>
@@ -22248,7 +22245,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="220" spans="2:8" customFormat="1" ht="15.75">
+    <row r="220" spans="2:8" customFormat="1">
       <c r="B220" s="30" t="s">
         <v>127</v>
       </c>
@@ -25588,25 +25585,25 @@
       <selection pane="bottomLeft" activeCell="F118" sqref="F118:F136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="15.75">
+    <row r="1" spans="1:18" s="20" customFormat="1">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -25619,7 +25616,7 @@
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
     </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" ht="15.75">
+    <row r="2" spans="1:18" s="14" customFormat="1">
       <c r="B2" s="76" t="s">
         <v>3</v>
       </c>
@@ -25631,7 +25628,7 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
       <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -25663,7 +25660,7 @@
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -28120,18 +28117,18 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.875" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="18"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" style="18"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.875" style="18"/>
+    <col min="8" max="10" width="6.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -28145,7 +28142,7 @@
       <c r="I1" s="71"/>
       <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11">
       <c r="A2" s="14"/>
       <c r="B2" s="76" t="s">
         <v>3</v>
@@ -28159,7 +28156,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11">
       <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -28185,7 +28182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11">
       <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -30066,7 +30063,7 @@
       <c r="B208" s="48"/>
       <c r="E208" s="45"/>
     </row>
-    <row r="209" spans="2:5" customFormat="1" ht="15.75">
+    <row r="209" spans="2:5" customFormat="1">
       <c r="B209" s="30"/>
       <c r="E209" s="45"/>
     </row>
@@ -30100,7 +30097,7 @@
     <row r="219" spans="2:5" customFormat="1">
       <c r="E219" s="45"/>
     </row>
-    <row r="220" spans="2:5" customFormat="1" ht="15.75">
+    <row r="220" spans="2:5" customFormat="1">
       <c r="B220" s="30"/>
       <c r="E220" s="45"/>
     </row>
@@ -31198,32 +31195,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5FF47D-C774-6B45-AE66-2A4B51DD47F5}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="143" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="143" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="C6:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="15.75">
+    <row r="1" spans="1:18" s="20" customFormat="1">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -31236,7 +31233,7 @@
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
     </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="15.75">
+    <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
       <c r="B2" s="76" t="s">
         <v>3</v>
@@ -31249,7 +31246,7 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -31276,7 +31273,7 @@
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -31334,96 +31331,96 @@
     <row r="6" spans="1:18">
       <c r="B6" s="19"/>
       <c r="C6" s="40">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E6" s="40">
-        <v>161.39099999999999</v>
+        <v>143</v>
       </c>
       <c r="F6" s="40">
-        <f>G6/1000</f>
-        <v>15.02</v>
+        <f t="shared" ref="F6:F24" si="0">G6/1000</f>
+        <v>15.260999999999999</v>
       </c>
       <c r="G6" s="40">
-        <v>15020</v>
+        <v>15261</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="19"/>
       <c r="C7" s="40">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E7" s="40">
-        <v>161.39099999999999</v>
+        <v>144</v>
       </c>
       <c r="F7" s="40">
-        <f t="shared" ref="F7:F33" si="0">G7/1000</f>
-        <v>14.989000000000001</v>
+        <f t="shared" si="0"/>
+        <v>15.253</v>
       </c>
       <c r="G7" s="40">
-        <v>14989</v>
+        <v>15253</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="19"/>
       <c r="C8" s="40">
-        <v>1964</v>
+        <v>1978</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>173</v>
       </c>
       <c r="E8" s="40">
-        <v>161.39099999999999</v>
+        <v>145</v>
       </c>
       <c r="F8" s="40">
         <f t="shared" si="0"/>
-        <v>15.039</v>
+        <v>15.243</v>
       </c>
       <c r="G8" s="40">
-        <v>15039</v>
+        <v>15243</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="19"/>
       <c r="C9" s="40">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="E9" s="40">
-        <v>56.6</v>
+        <v>146</v>
       </c>
       <c r="F9" s="40">
         <f t="shared" si="0"/>
-        <v>14.22</v>
+        <v>15.234</v>
       </c>
       <c r="G9" s="40">
-        <v>14220</v>
+        <v>15234</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="19"/>
       <c r="C10" s="40">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="E10" s="40">
-        <v>53.5</v>
+        <v>147</v>
       </c>
       <c r="F10" s="40">
         <f t="shared" si="0"/>
-        <v>15.79</v>
+        <v>15.223000000000001</v>
       </c>
       <c r="G10" s="40">
-        <v>15790</v>
+        <v>15223</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -31432,17 +31429,17 @@
         <v>1978</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="40">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F11" s="40">
         <f t="shared" si="0"/>
-        <v>15.260999999999999</v>
+        <v>15.212</v>
       </c>
       <c r="G11" s="40">
-        <v>15261</v>
+        <v>15212</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -31451,17 +31448,17 @@
         <v>1978</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="40">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F12" s="40">
         <f t="shared" si="0"/>
-        <v>15.253</v>
+        <v>15.2</v>
       </c>
       <c r="G12" s="40">
-        <v>15253</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -31470,343 +31467,248 @@
         <v>1978</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="40">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F13" s="40">
         <f t="shared" si="0"/>
-        <v>15.243</v>
+        <v>15.188000000000001</v>
       </c>
       <c r="G13" s="40">
-        <v>15243</v>
+        <v>15188</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="19"/>
       <c r="C14" s="40">
         <v>1978</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="40">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F14" s="40">
         <f t="shared" si="0"/>
-        <v>15.234</v>
+        <v>15.175000000000001</v>
       </c>
       <c r="G14" s="40">
-        <v>15234</v>
+        <v>15175</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="19"/>
       <c r="C15" s="40">
         <v>1978</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="40">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F15" s="40">
         <f t="shared" si="0"/>
-        <v>15.223000000000001</v>
+        <v>15.161</v>
       </c>
       <c r="G15" s="40">
-        <v>15223</v>
+        <v>15161</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="19"/>
       <c r="C16" s="40">
         <v>1978</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="40">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F16" s="40">
         <f t="shared" si="0"/>
-        <v>15.212</v>
+        <v>15.146000000000001</v>
       </c>
       <c r="G16" s="40">
-        <v>15212</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="19"/>
+        <v>15146</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="40">
         <v>1978</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="40">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F17" s="40">
         <f t="shared" si="0"/>
-        <v>15.2</v>
+        <v>15.131</v>
       </c>
       <c r="G17" s="40">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="19"/>
+        <v>15131</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="40">
         <v>1978</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="40">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F18" s="40">
         <f t="shared" si="0"/>
-        <v>15.188000000000001</v>
+        <v>15.115</v>
       </c>
       <c r="G18" s="40">
-        <v>15188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>15115</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="40">
         <v>1978</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="40">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F19" s="40">
         <f t="shared" si="0"/>
-        <v>15.175000000000001</v>
+        <v>15.098000000000001</v>
       </c>
       <c r="G19" s="40">
-        <v>15175</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>15098</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="40">
         <v>1978</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="40">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F20" s="40">
         <f t="shared" si="0"/>
-        <v>15.161</v>
+        <v>15.08</v>
       </c>
       <c r="G20" s="40">
-        <v>15161</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>15080</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="40">
         <v>1978</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="40">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F21" s="40">
         <f t="shared" si="0"/>
-        <v>15.146000000000001</v>
+        <v>15.061</v>
       </c>
       <c r="G21" s="40">
-        <v>15146</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>15061</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="40">
         <v>1978</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="40">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F22" s="40">
         <f t="shared" si="0"/>
-        <v>15.131</v>
+        <v>15.041</v>
       </c>
       <c r="G22" s="40">
-        <v>15131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>15041</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
       <c r="C23" s="40">
         <v>1978</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="40">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F23" s="40">
         <f t="shared" si="0"/>
-        <v>15.115</v>
+        <v>15.02</v>
       </c>
       <c r="G23" s="40">
-        <v>15115</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>15020</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
       <c r="C24" s="40">
         <v>1978</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="40">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F24" s="40">
         <f t="shared" si="0"/>
-        <v>15.098000000000001</v>
+        <v>14.999000000000001</v>
       </c>
       <c r="G24" s="40">
-        <v>15098</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="C25" s="40">
-        <v>1978</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="40">
-        <v>157</v>
-      </c>
-      <c r="F25" s="40">
-        <f t="shared" si="0"/>
-        <v>15.08</v>
-      </c>
-      <c r="G25" s="40">
-        <v>15080</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="C26" s="40">
-        <v>1978</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="40">
-        <v>158</v>
-      </c>
-      <c r="F26" s="40">
-        <f t="shared" si="0"/>
-        <v>15.061</v>
-      </c>
-      <c r="G26" s="40">
-        <v>15061</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="C27" s="40">
-        <v>1978</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="40">
-        <v>159</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" si="0"/>
-        <v>15.041</v>
-      </c>
-      <c r="G27" s="40">
-        <v>15041</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="C28" s="40">
-        <v>1978</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="40">
-        <v>160</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="0"/>
-        <v>15.02</v>
-      </c>
-      <c r="G28" s="40">
-        <v>15020</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="C29" s="40">
-        <v>1978</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="40">
-        <v>161</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="0"/>
-        <v>14.999000000000001</v>
-      </c>
-      <c r="G29" s="40">
         <v>14999</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+    <row r="25" spans="3:8">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -31837,25 +31739,25 @@
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="15.75">
+    <row r="1" spans="1:18" s="20" customFormat="1">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -31868,7 +31770,7 @@
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
     </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" ht="15.75">
+    <row r="2" spans="1:18" s="14" customFormat="1">
       <c r="B2" s="76" t="s">
         <v>3</v>
       </c>
@@ -31880,7 +31782,7 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
       <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -31903,7 +31805,7 @@
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -31934,10 +31836,10 @@
         <v>167</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>169</v>
@@ -32149,7 +32051,7 @@
         <v>1977</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="40">
         <v>161.39099999999999</v>

--- a/data/MASTER Xenon Literature Review.xlsx
+++ b/data/MASTER Xenon Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F734CECE-B7E6-4E4B-8629-7736254A249C}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926AA0DC-7035-4B31-90F4-A233872BCBFA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="6" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -1464,13 +1464,28 @@
     <xf numFmtId="4" fontId="23" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1487,21 +1502,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1986,20 +1986,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F513A9-1C82-3E45-A361-2C7180831D5E}">
   <dimension ref="A1:AE373"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A212" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AC231" sqref="AC231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="7" width="17.08203125" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.9140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.08203125" bestFit="1" customWidth="1"/>
@@ -2012,18 +2014,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
@@ -2047,17 +2049,17 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="5"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="2">
         <f>6.02214076*10^23</f>
         <v>6.0221407599999999E+23</v>
@@ -2081,7 +2083,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -2109,7 +2111,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="64" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="62" t="s">
@@ -2143,7 +2145,7 @@
       <c r="Z3" s="62"/>
     </row>
     <row r="4" spans="1:26" ht="16.5">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -2153,10 +2155,10 @@
       <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="63"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +2167,7 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="68"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
       <c r="P4" s="62"/>
@@ -2178,12 +2180,12 @@
       <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
         <v>17</v>
@@ -2193,10 +2195,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="17" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2217,10 +2219,10 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
       <c r="Q5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2251,7 +2253,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -2278,7 +2280,7 @@
         <f>I6^3</f>
         <v>242.97062400000002</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="71" t="s">
         <v>33</v>
       </c>
       <c r="O6" s="21">
@@ -2302,7 +2304,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="65"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +2329,7 @@
         <f>I7^3</f>
         <v>236.02903199999997</v>
       </c>
-      <c r="N7" s="67"/>
+      <c r="N7" s="72"/>
       <c r="O7" s="22">
         <v>1962</v>
       </c>
@@ -2349,7 +2351,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C8">
@@ -2373,7 +2375,7 @@
         <f t="shared" ref="J8:J26" si="2">I8^3</f>
         <v>236.60238162499996</v>
       </c>
-      <c r="N8" s="67"/>
+      <c r="N8" s="72"/>
       <c r="O8" s="22">
         <v>1962</v>
       </c>
@@ -2395,7 +2397,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="61"/>
+      <c r="B9" s="67"/>
       <c r="C9">
         <v>1957</v>
       </c>
@@ -2417,7 +2419,7 @@
         <f t="shared" si="2"/>
         <v>239.02058981600004</v>
       </c>
-      <c r="N9" s="67"/>
+      <c r="N9" s="72"/>
       <c r="O9" s="22">
         <v>1962</v>
       </c>
@@ -2439,7 +2441,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="61"/>
+      <c r="B10" s="67"/>
       <c r="C10">
         <v>1957</v>
       </c>
@@ -2461,7 +2463,7 @@
         <f t="shared" si="2"/>
         <v>240.17788569600003</v>
       </c>
-      <c r="N10" s="67"/>
+      <c r="N10" s="72"/>
       <c r="O10" s="22">
         <v>1962</v>
       </c>
@@ -2483,7 +2485,7 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C11">
@@ -2506,7 +2508,7 @@
         <f t="shared" si="2"/>
         <v>230.53809234201302</v>
       </c>
-      <c r="N11" s="67"/>
+      <c r="N11" s="72"/>
       <c r="O11" s="22">
         <v>1962</v>
       </c>
@@ -2528,7 +2530,7 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="61"/>
+      <c r="B12" s="67"/>
       <c r="C12">
         <v>1962</v>
       </c>
@@ -2549,7 +2551,7 @@
         <f t="shared" si="2"/>
         <v>230.54937184943202</v>
       </c>
-      <c r="N12" s="67"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="22">
         <v>1962</v>
       </c>
@@ -2571,7 +2573,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="61"/>
+      <c r="B13" s="67"/>
       <c r="C13">
         <v>1962</v>
       </c>
@@ -2592,7 +2594,7 @@
         <f t="shared" si="2"/>
         <v>230.62833870312502</v>
       </c>
-      <c r="N13" s="67"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="22">
         <v>1962</v>
       </c>
@@ -2614,7 +2616,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="B14" s="61"/>
+      <c r="B14" s="67"/>
       <c r="C14">
         <v>1962</v>
       </c>
@@ -2635,7 +2637,7 @@
         <f t="shared" si="2"/>
         <v>230.79761410400002</v>
       </c>
-      <c r="N14" s="67"/>
+      <c r="N14" s="72"/>
       <c r="O14" s="22">
         <v>1962</v>
       </c>
@@ -2657,7 +2659,7 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="B15" s="61"/>
+      <c r="B15" s="67"/>
       <c r="C15">
         <v>1962</v>
       </c>
@@ -2678,7 +2680,7 @@
         <f t="shared" si="2"/>
         <v>231.068626996544</v>
       </c>
-      <c r="N15" s="67"/>
+      <c r="N15" s="72"/>
       <c r="O15" s="22">
         <v>1962</v>
       </c>
@@ -2700,7 +2702,7 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="B16" s="61"/>
+      <c r="B16" s="67"/>
       <c r="C16">
         <v>1962</v>
       </c>
@@ -2746,7 +2748,7 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="B17" s="61"/>
+      <c r="B17" s="67"/>
       <c r="C17">
         <v>1962</v>
       </c>
@@ -2789,7 +2791,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="B18" s="61"/>
+      <c r="B18" s="67"/>
       <c r="C18">
         <v>1962</v>
       </c>
@@ -2832,7 +2834,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="B19" s="61"/>
+      <c r="B19" s="67"/>
       <c r="C19">
         <v>1962</v>
       </c>
@@ -2875,7 +2877,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="B20" s="61"/>
+      <c r="B20" s="67"/>
       <c r="C20">
         <v>1962</v>
       </c>
@@ -2918,7 +2920,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="B21" s="61"/>
+      <c r="B21" s="67"/>
       <c r="C21">
         <v>1962</v>
       </c>
@@ -2961,7 +2963,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="B22" s="61"/>
+      <c r="B22" s="67"/>
       <c r="C22">
         <v>1962</v>
       </c>
@@ -3004,7 +3006,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="B23" s="61"/>
+      <c r="B23" s="67"/>
       <c r="C23">
         <v>1962</v>
       </c>
@@ -3047,7 +3049,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="B24" s="61"/>
+      <c r="B24" s="67"/>
       <c r="C24">
         <v>1962</v>
       </c>
@@ -3090,7 +3092,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="B25" s="61"/>
+      <c r="B25" s="67"/>
       <c r="C25">
         <v>1962</v>
       </c>
@@ -3133,7 +3135,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="B26" s="61"/>
+      <c r="B26" s="67"/>
       <c r="C26">
         <v>1962</v>
       </c>
@@ -3217,10 +3219,10 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="67" t="s">
         <v>45</v>
       </c>
       <c r="C28">
@@ -3261,8 +3263,8 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
       <c r="C29">
         <v>1960</v>
       </c>
@@ -3301,8 +3303,8 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
       <c r="C30">
         <v>1960</v>
       </c>
@@ -3341,8 +3343,8 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
       <c r="C31">
         <v>1960</v>
       </c>
@@ -3381,8 +3383,8 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
       <c r="C32">
         <v>1960</v>
       </c>
@@ -3421,8 +3423,8 @@
       </c>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
       <c r="C33">
         <v>1960</v>
       </c>
@@ -15743,14 +15745,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="Y3:Z3"/>
@@ -15765,6 +15759,14 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{C197F492-C155-453C-9706-9BEC01725253}"/>
@@ -15789,8 +15791,8 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F85"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16"/>
@@ -15818,16 +15820,16 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="75" t="s">
@@ -15843,7 +15845,7 @@
       <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
@@ -15864,7 +15866,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A5" s="68"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -15874,19 +15876,19 @@
       <c r="F5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="68" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
@@ -17088,7 +17090,7 @@
       <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -17131,7 +17133,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -17156,10 +17158,10 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="18" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -17175,9 +17177,9 @@
       <c r="I5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
       <c r="O5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18337,17 +18339,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10">
@@ -18365,7 +18367,7 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -18387,26 +18389,26 @@
       <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18419,8 +18421,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="25" t="s">
@@ -25581,7 +25583,7 @@
   <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="5" topLeftCell="A120" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F118" sqref="F118:F136"/>
     </sheetView>
   </sheetViews>
@@ -25629,7 +25631,7 @@
       <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -25661,7 +25663,7 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -25691,10 +25693,10 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -25707,9 +25709,9 @@
       <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -28088,6 +28090,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:H3"/>
@@ -28096,12 +28104,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -28129,17 +28131,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11">
@@ -28157,7 +28159,7 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -28183,26 +28185,26 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -28215,8 +28217,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="6" t="s">
         <v>160</v>
       </c>
@@ -31197,7 +31199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5FF47D-C774-6B45-AE66-2A4B51DD47F5}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="143" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="C6:D8"/>
     </sheetView>
@@ -31247,7 +31249,7 @@
       <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -31274,7 +31276,7 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -31301,10 +31303,10 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31320,9 +31322,9 @@
       <c r="I5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
@@ -31712,6 +31714,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -31719,11 +31726,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -31783,7 +31785,7 @@
       <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="68"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -31806,7 +31808,7 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -31825,10 +31827,10 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31844,9 +31846,9 @@
       <c r="I5" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -32068,17 +32070,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/MASTER Xenon Literature Review.xlsx
+++ b/data/MASTER Xenon Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926AA0DC-7035-4B31-90F4-A233872BCBFA}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9E9831-3A89-414D-86F2-5766B9BAE036}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -1234,7 +1234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,6 +1274,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFB4C6E7"/>
       </patternFill>
     </fill>
@@ -1337,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1464,28 +1482,13 @@
     <xf numFmtId="4" fontId="23" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1503,6 +1506,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,6 +1533,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1986,46 +2012,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F513A9-1C82-3E45-A361-2C7180831D5E}">
   <dimension ref="A1:AE373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A212" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AC231" sqref="AC231"/>
+    <sheetView zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="7" width="17.08203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" customWidth="1"/>
-    <col min="11" max="11" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.08203125" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
       <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
@@ -2049,17 +2075,17 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="5"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="2">
         <f>6.02214076*10^23</f>
         <v>6.0221407599999999E+23</v>
@@ -2083,7 +2109,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -2111,7 +2137,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="68" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="62" t="s">
@@ -2144,8 +2170,8 @@
       </c>
       <c r="Z3" s="62"/>
     </row>
-    <row r="4" spans="1:26" ht="16.5">
-      <c r="A4" s="64"/>
+    <row r="4" spans="1:26" ht="18">
+      <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -2155,10 +2181,10 @@
       <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
@@ -2167,7 +2193,7 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="64"/>
+      <c r="M4" s="68"/>
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
       <c r="P4" s="62"/>
@@ -2180,12 +2206,12 @@
       <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="68" t="s">
+      <c r="T4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
         <v>17</v>
@@ -2194,11 +2220,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="17" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+    <row r="5" spans="1:26" ht="17.25" thickBot="1">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2219,10 +2245,10 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
       <c r="Q5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2253,7 +2279,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -2280,7 +2306,7 @@
         <f>I6^3</f>
         <v>242.97062400000002</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="66" t="s">
         <v>33</v>
       </c>
       <c r="O6" s="21">
@@ -2304,7 +2330,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="70"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
@@ -2329,7 +2355,7 @@
         <f>I7^3</f>
         <v>236.02903199999997</v>
       </c>
-      <c r="N7" s="72"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="22">
         <v>1962</v>
       </c>
@@ -2351,7 +2377,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="61" t="s">
         <v>36</v>
       </c>
       <c r="C8">
@@ -2375,7 +2401,7 @@
         <f t="shared" ref="J8:J26" si="2">I8^3</f>
         <v>236.60238162499996</v>
       </c>
-      <c r="N8" s="72"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="22">
         <v>1962</v>
       </c>
@@ -2397,7 +2423,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="67"/>
+      <c r="B9" s="61"/>
       <c r="C9">
         <v>1957</v>
       </c>
@@ -2419,7 +2445,7 @@
         <f t="shared" si="2"/>
         <v>239.02058981600004</v>
       </c>
-      <c r="N9" s="72"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="22">
         <v>1962</v>
       </c>
@@ -2441,7 +2467,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="67"/>
+      <c r="B10" s="61"/>
       <c r="C10">
         <v>1957</v>
       </c>
@@ -2463,7 +2489,7 @@
         <f t="shared" si="2"/>
         <v>240.17788569600003</v>
       </c>
-      <c r="N10" s="72"/>
+      <c r="N10" s="67"/>
       <c r="O10" s="22">
         <v>1962</v>
       </c>
@@ -2485,19 +2511,19 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="78">
         <v>1962</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="78">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="78">
         <v>34.72</v>
       </c>
       <c r="H11" s="29"/>
@@ -2508,7 +2534,7 @@
         <f t="shared" si="2"/>
         <v>230.53809234201302</v>
       </c>
-      <c r="N11" s="72"/>
+      <c r="N11" s="67"/>
       <c r="O11" s="22">
         <v>1962</v>
       </c>
@@ -2530,7 +2556,7 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="67"/>
+      <c r="B12" s="61"/>
       <c r="C12">
         <v>1962</v>
       </c>
@@ -2551,7 +2577,7 @@
         <f t="shared" si="2"/>
         <v>230.54937184943202</v>
       </c>
-      <c r="N12" s="72"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="22">
         <v>1962</v>
       </c>
@@ -2573,7 +2599,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="67"/>
+      <c r="B13" s="61"/>
       <c r="C13">
         <v>1962</v>
       </c>
@@ -2594,7 +2620,7 @@
         <f t="shared" si="2"/>
         <v>230.62833870312502</v>
       </c>
-      <c r="N13" s="72"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="22">
         <v>1962</v>
       </c>
@@ -2616,7 +2642,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="B14" s="67"/>
+      <c r="B14" s="61"/>
       <c r="C14">
         <v>1962</v>
       </c>
@@ -2637,7 +2663,7 @@
         <f t="shared" si="2"/>
         <v>230.79761410400002</v>
       </c>
-      <c r="N14" s="72"/>
+      <c r="N14" s="67"/>
       <c r="O14" s="22">
         <v>1962</v>
       </c>
@@ -2659,7 +2685,7 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="B15" s="67"/>
+      <c r="B15" s="61"/>
       <c r="C15">
         <v>1962</v>
       </c>
@@ -2680,7 +2706,7 @@
         <f t="shared" si="2"/>
         <v>231.068626996544</v>
       </c>
-      <c r="N15" s="72"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="22">
         <v>1962</v>
       </c>
@@ -2702,7 +2728,7 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="B16" s="67"/>
+      <c r="B16" s="61"/>
       <c r="C16">
         <v>1962</v>
       </c>
@@ -2748,7 +2774,7 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="B17" s="67"/>
+      <c r="B17" s="61"/>
       <c r="C17">
         <v>1962</v>
       </c>
@@ -2791,7 +2817,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="B18" s="67"/>
+      <c r="B18" s="61"/>
       <c r="C18">
         <v>1962</v>
       </c>
@@ -2834,7 +2860,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="B19" s="67"/>
+      <c r="B19" s="61"/>
       <c r="C19">
         <v>1962</v>
       </c>
@@ -2877,7 +2903,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="B20" s="67"/>
+      <c r="B20" s="61"/>
       <c r="C20">
         <v>1962</v>
       </c>
@@ -2920,7 +2946,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="B21" s="67"/>
+      <c r="B21" s="61"/>
       <c r="C21">
         <v>1962</v>
       </c>
@@ -2963,7 +2989,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="B22" s="67"/>
+      <c r="B22" s="61"/>
       <c r="C22">
         <v>1962</v>
       </c>
@@ -3006,7 +3032,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="B23" s="67"/>
+      <c r="B23" s="61"/>
       <c r="C23">
         <v>1962</v>
       </c>
@@ -3049,7 +3075,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="B24" s="67"/>
+      <c r="B24" s="61"/>
       <c r="C24">
         <v>1962</v>
       </c>
@@ -3092,7 +3118,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="B25" s="67"/>
+      <c r="B25" s="61"/>
       <c r="C25">
         <v>1962</v>
       </c>
@@ -3135,7 +3161,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="B26" s="67"/>
+      <c r="B26" s="61"/>
       <c r="C26">
         <v>1962</v>
       </c>
@@ -3219,10 +3245,10 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="61" t="s">
         <v>45</v>
       </c>
       <c r="C28">
@@ -3263,8 +3289,8 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29">
         <v>1960</v>
       </c>
@@ -3303,8 +3329,8 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
       <c r="C30">
         <v>1960</v>
       </c>
@@ -3343,8 +3369,8 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
       <c r="C31">
         <v>1960</v>
       </c>
@@ -3383,8 +3409,8 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="66"/>
-      <c r="B32" s="67"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
       <c r="C32">
         <v>1960</v>
       </c>
@@ -3423,8 +3449,8 @@
       </c>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
       <c r="C33">
         <v>1960</v>
       </c>
@@ -3517,16 +3543,16 @@
       <c r="B35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="78">
         <v>1963</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="78">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="78">
         <v>34.700000000000003</v>
       </c>
       <c r="O35">
@@ -4098,12 +4124,14 @@
       <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="77">
         <v>1969</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="77" t="s">
         <v>52</v>
       </c>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
       <c r="O52">
         <v>1981</v>
       </c>
@@ -7948,16 +7976,16 @@
       </c>
     </row>
     <row r="137" spans="3:26">
-      <c r="C137">
+      <c r="C137" s="78">
         <v>2024</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="78">
         <v>0</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="78">
         <v>35.200000000000003</v>
       </c>
       <c r="I137">
@@ -7996,16 +8024,16 @@
       </c>
     </row>
     <row r="138" spans="3:26">
-      <c r="C138">
+      <c r="C138" s="78">
         <v>1975</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="78">
         <v>0</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="78">
         <v>34.74</v>
       </c>
       <c r="I138">
@@ -8044,16 +8072,16 @@
       </c>
     </row>
     <row r="139" spans="3:26">
-      <c r="C139">
+      <c r="C139" s="78">
         <v>2022</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="78">
         <v>0</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="78">
         <v>35.4</v>
       </c>
       <c r="I139">
@@ -8092,16 +8120,16 @@
       </c>
     </row>
     <row r="140" spans="3:26">
-      <c r="C140">
+      <c r="C140" s="78">
         <v>2012</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="78">
         <v>0</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="78">
         <v>35.19</v>
       </c>
       <c r="I140">
@@ -8140,16 +8168,16 @@
       </c>
     </row>
     <row r="141" spans="3:26">
-      <c r="C141">
+      <c r="C141" s="79">
         <v>1998</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="79">
         <v>4</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="79">
         <v>34.74</v>
       </c>
       <c r="I141">
@@ -15745,6 +15773,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="Y3:Z3"/>
@@ -15759,14 +15795,6 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{C197F492-C155-453C-9706-9BEC01725253}"/>
@@ -15790,19 +15818,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34482523-6132-7E48-BEBF-BE687D0AD34C}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="25.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="20" customFormat="1">
@@ -15820,16 +15848,16 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="75" t="s">
@@ -15845,7 +15873,7 @@
       <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1">
-      <c r="A4" s="64"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
@@ -15865,8 +15893,8 @@
       <c r="H4" s="62"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A5" s="64"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="68"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -15876,19 +15904,19 @@
       <c r="F5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="63" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
@@ -16627,16 +16655,16 @@
       </c>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="18">
+      <c r="C58" s="80">
         <v>1963</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E58" s="82">
         <v>0</v>
       </c>
-      <c r="F58" s="39">
+      <c r="F58" s="82">
         <v>0</v>
       </c>
     </row>
@@ -17040,25 +17068,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855DA3B9-8C38-4A4E-B8C1-649E45A85AE6}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6:P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
@@ -17089,8 +17117,8 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="64"/>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -17132,8 +17160,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="64"/>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -17157,11 +17185,11 @@
       <c r="P4" s="62"/>
       <c r="Q4" s="62"/>
     </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" ht="18" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+    <row r="5" spans="1:18" s="17" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -17177,9 +17205,9 @@
       <c r="I5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18327,29 +18355,29 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.83203125" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="18"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.875" style="18"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.83203125" style="18"/>
+    <col min="8" max="10" width="6.875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10">
@@ -18367,7 +18395,7 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="64"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -18389,26 +18417,26 @@
       <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="64"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18421,8 +18449,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="25" t="s">
@@ -20942,7 +20970,7 @@
         <v>609.86</v>
       </c>
     </row>
-    <row r="148" spans="2:7" customFormat="1" ht="28">
+    <row r="148" spans="2:7" customFormat="1" ht="28.5">
       <c r="B148" s="47" t="s">
         <v>122</v>
       </c>
@@ -22025,7 +22053,7 @@
         <v>137.59</v>
       </c>
     </row>
-    <row r="208" spans="2:7" customFormat="1" ht="29">
+    <row r="208" spans="2:7" customFormat="1" ht="30">
       <c r="B208" s="48" t="s">
         <v>123</v>
       </c>
@@ -25583,24 +25611,24 @@
   <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A120" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F118" sqref="F118:F136"/>
+      <pane ySplit="5" topLeftCell="A147" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
@@ -25630,8 +25658,8 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="64"/>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -25662,8 +25690,8 @@
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="64"/>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -25693,10 +25721,10 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -25709,29 +25737,29 @@
       <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="19"/>
-      <c r="C6" s="18">
+      <c r="C6" s="80">
         <v>1967</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="81">
         <v>0</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="80">
         <f>4.184*G6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="81">
         <v>0</v>
       </c>
     </row>
@@ -28090,12 +28118,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A3:A5"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:H3"/>
@@ -28104,6 +28126,12 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -28119,29 +28147,29 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.83203125" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="18"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.875" style="18"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.83203125" style="18"/>
+    <col min="8" max="10" width="6.875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11">
@@ -28159,7 +28187,7 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="64"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -28185,26 +28213,26 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="64"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -28217,8 +28245,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="6" t="s">
         <v>160</v>
       </c>
@@ -31204,20 +31232,20 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="C6:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
@@ -31248,8 +31276,8 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="64"/>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -31275,8 +31303,8 @@
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="64"/>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -31303,10 +31331,10 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31322,9 +31350,9 @@
       <c r="I5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
@@ -31714,11 +31742,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -31726,6 +31749,11 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -31741,20 +31769,20 @@
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
@@ -31784,8 +31812,8 @@
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="64"/>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="68"/>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
@@ -31807,8 +31835,8 @@
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="64"/>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="68"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -31827,10 +31855,10 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31846,9 +31874,9 @@
       <c r="I5" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -32070,17 +32098,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/MASTER Xenon Literature Review.xlsx
+++ b/data/MASTER Xenon Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9E9831-3A89-414D-86F2-5766B9BAE036}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C464A4-8E66-4C88-9A29-9BEB07CC39BC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="7" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -1482,13 +1482,35 @@
     <xf numFmtId="4" fontId="23" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1506,21 +1528,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,14 +1540,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2017,41 +2017,41 @@
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.08203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="18" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.125" customWidth="1"/>
+    <col min="26" max="26" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
@@ -2075,17 +2075,17 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="5"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="2">
         <f>6.02214076*10^23</f>
         <v>6.0221407599999999E+23</v>
@@ -2109,16 +2109,16 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2127,26 +2127,26 @@
       <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="62"/>
+      <c r="J3" s="67"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -2158,33 +2158,33 @@
       <c r="S3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="62" t="s">
+      <c r="Y3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="62"/>
-    </row>
-    <row r="4" spans="1:26" ht="18">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="Z3" s="67"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="63"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
@@ -2193,10 +2193,10 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
       <c r="Q4" s="6" t="s">
         <v>14</v>
       </c>
@@ -2206,12 +2206,12 @@
       <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
         <v>17</v>
@@ -2220,11 +2220,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+    <row r="5" spans="1:26" ht="17" thickBot="1">
+      <c r="A5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2245,10 +2245,10 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
       <c r="Q5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="74" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -2306,7 +2306,7 @@
         <f>I6^3</f>
         <v>242.97062400000002</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="76" t="s">
         <v>33</v>
       </c>
       <c r="O6" s="21">
@@ -2330,7 +2330,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="65"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
@@ -2355,7 +2355,7 @@
         <f>I7^3</f>
         <v>236.02903199999997</v>
       </c>
-      <c r="N7" s="67"/>
+      <c r="N7" s="77"/>
       <c r="O7" s="22">
         <v>1962</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="72" t="s">
         <v>36</v>
       </c>
       <c r="C8">
@@ -2401,7 +2401,7 @@
         <f t="shared" ref="J8:J26" si="2">I8^3</f>
         <v>236.60238162499996</v>
       </c>
-      <c r="N8" s="67"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="22">
         <v>1962</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="61"/>
+      <c r="B9" s="72"/>
       <c r="C9">
         <v>1957</v>
       </c>
@@ -2445,7 +2445,7 @@
         <f t="shared" si="2"/>
         <v>239.02058981600004</v>
       </c>
-      <c r="N9" s="67"/>
+      <c r="N9" s="77"/>
       <c r="O9" s="22">
         <v>1962</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="61"/>
+      <c r="B10" s="72"/>
       <c r="C10">
         <v>1957</v>
       </c>
@@ -2489,7 +2489,7 @@
         <f t="shared" si="2"/>
         <v>240.17788569600003</v>
       </c>
-      <c r="N10" s="67"/>
+      <c r="N10" s="77"/>
       <c r="O10" s="22">
         <v>1962</v>
       </c>
@@ -2511,19 +2511,19 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="61">
         <v>1962</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="61">
         <v>0</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="61">
         <v>34.72</v>
       </c>
       <c r="H11" s="29"/>
@@ -2534,7 +2534,7 @@
         <f t="shared" si="2"/>
         <v>230.53809234201302</v>
       </c>
-      <c r="N11" s="67"/>
+      <c r="N11" s="77"/>
       <c r="O11" s="22">
         <v>1962</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="61"/>
+      <c r="B12" s="72"/>
       <c r="C12">
         <v>1962</v>
       </c>
@@ -2577,7 +2577,7 @@
         <f t="shared" si="2"/>
         <v>230.54937184943202</v>
       </c>
-      <c r="N12" s="67"/>
+      <c r="N12" s="77"/>
       <c r="O12" s="22">
         <v>1962</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="61"/>
+      <c r="B13" s="72"/>
       <c r="C13">
         <v>1962</v>
       </c>
@@ -2620,7 +2620,7 @@
         <f t="shared" si="2"/>
         <v>230.62833870312502</v>
       </c>
-      <c r="N13" s="67"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="22">
         <v>1962</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="B14" s="61"/>
+      <c r="B14" s="72"/>
       <c r="C14">
         <v>1962</v>
       </c>
@@ -2663,7 +2663,7 @@
         <f t="shared" si="2"/>
         <v>230.79761410400002</v>
       </c>
-      <c r="N14" s="67"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="22">
         <v>1962</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="B15" s="61"/>
+      <c r="B15" s="72"/>
       <c r="C15">
         <v>1962</v>
       </c>
@@ -2706,7 +2706,7 @@
         <f t="shared" si="2"/>
         <v>231.068626996544</v>
       </c>
-      <c r="N15" s="67"/>
+      <c r="N15" s="77"/>
       <c r="O15" s="22">
         <v>1962</v>
       </c>
@@ -2728,7 +2728,7 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="B16" s="61"/>
+      <c r="B16" s="72"/>
       <c r="C16">
         <v>1962</v>
       </c>
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="B17" s="61"/>
+      <c r="B17" s="72"/>
       <c r="C17">
         <v>1962</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="B18" s="61"/>
+      <c r="B18" s="72"/>
       <c r="C18">
         <v>1962</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="B19" s="61"/>
+      <c r="B19" s="72"/>
       <c r="C19">
         <v>1962</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="B20" s="61"/>
+      <c r="B20" s="72"/>
       <c r="C20">
         <v>1962</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="B21" s="61"/>
+      <c r="B21" s="72"/>
       <c r="C21">
         <v>1962</v>
       </c>
@@ -2989,7 +2989,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="B22" s="61"/>
+      <c r="B22" s="72"/>
       <c r="C22">
         <v>1962</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="B23" s="61"/>
+      <c r="B23" s="72"/>
       <c r="C23">
         <v>1962</v>
       </c>
@@ -3075,7 +3075,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="B24" s="61"/>
+      <c r="B24" s="72"/>
       <c r="C24">
         <v>1962</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="B25" s="61"/>
+      <c r="B25" s="72"/>
       <c r="C25">
         <v>1962</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="B26" s="61"/>
+      <c r="B26" s="72"/>
       <c r="C26">
         <v>1962</v>
       </c>
@@ -3245,10 +3245,10 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="72" t="s">
         <v>45</v>
       </c>
       <c r="C28">
@@ -3289,8 +3289,8 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
       <c r="C29">
         <v>1960</v>
       </c>
@@ -3329,8 +3329,8 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
       <c r="C30">
         <v>1960</v>
       </c>
@@ -3369,8 +3369,8 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
       <c r="C31">
         <v>1960</v>
       </c>
@@ -3409,8 +3409,8 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
       <c r="C32">
         <v>1960</v>
       </c>
@@ -3449,8 +3449,8 @@
       </c>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="72"/>
       <c r="C33">
         <v>1960</v>
       </c>
@@ -3543,16 +3543,16 @@
       <c r="B35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="78">
+      <c r="C35" s="61">
         <v>1963</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="61">
         <v>0</v>
       </c>
-      <c r="F35" s="78">
+      <c r="F35" s="61">
         <v>34.700000000000003</v>
       </c>
       <c r="O35">
@@ -4124,14 +4124,14 @@
       <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="77">
+      <c r="C52" s="60">
         <v>1969</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
       <c r="O52">
         <v>1981</v>
       </c>
@@ -7976,16 +7976,16 @@
       </c>
     </row>
     <row r="137" spans="3:26">
-      <c r="C137" s="78">
+      <c r="C137" s="61">
         <v>2024</v>
       </c>
-      <c r="D137" s="78" t="s">
+      <c r="D137" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E137" s="78">
+      <c r="E137" s="61">
         <v>0</v>
       </c>
-      <c r="F137" s="78">
+      <c r="F137" s="61">
         <v>35.200000000000003</v>
       </c>
       <c r="I137">
@@ -8024,16 +8024,16 @@
       </c>
     </row>
     <row r="138" spans="3:26">
-      <c r="C138" s="78">
+      <c r="C138" s="61">
         <v>1975</v>
       </c>
-      <c r="D138" s="78" t="s">
+      <c r="D138" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E138" s="78">
+      <c r="E138" s="61">
         <v>0</v>
       </c>
-      <c r="F138" s="78">
+      <c r="F138" s="61">
         <v>34.74</v>
       </c>
       <c r="I138">
@@ -8072,16 +8072,16 @@
       </c>
     </row>
     <row r="139" spans="3:26">
-      <c r="C139" s="78">
+      <c r="C139" s="61">
         <v>2022</v>
       </c>
-      <c r="D139" s="78" t="s">
+      <c r="D139" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E139" s="78">
+      <c r="E139" s="61">
         <v>0</v>
       </c>
-      <c r="F139" s="78">
+      <c r="F139" s="61">
         <v>35.4</v>
       </c>
       <c r="I139">
@@ -8120,16 +8120,16 @@
       </c>
     </row>
     <row r="140" spans="3:26">
-      <c r="C140" s="78">
+      <c r="C140" s="61">
         <v>2012</v>
       </c>
-      <c r="D140" s="78" t="s">
+      <c r="D140" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E140" s="78">
+      <c r="E140" s="61">
         <v>0</v>
       </c>
-      <c r="F140" s="78">
+      <c r="F140" s="61">
         <v>35.19</v>
       </c>
       <c r="I140">
@@ -8168,16 +8168,16 @@
       </c>
     </row>
     <row r="141" spans="3:26">
-      <c r="C141" s="79">
+      <c r="C141">
         <v>1998</v>
       </c>
-      <c r="D141" s="79" t="s">
+      <c r="D141" t="s">
         <v>57</v>
       </c>
-      <c r="E141" s="79">
+      <c r="E141">
         <v>4</v>
       </c>
-      <c r="F141" s="79">
+      <c r="F141">
         <v>34.74</v>
       </c>
       <c r="I141">
@@ -15773,14 +15773,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="Y3:Z3"/>
@@ -15795,6 +15787,14 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{C197F492-C155-453C-9706-9BEC01725253}"/>
@@ -15818,113 +15818,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34482523-6132-7E48-BEBF-BE687D0AD34C}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C58" sqref="C58:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="20" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.149999999999999" customHeight="1">
+      <c r="A5" s="69"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="73" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A6" s="70"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
@@ -16655,16 +16655,16 @@
       </c>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="80">
+      <c r="C58" s="62">
         <v>1963</v>
       </c>
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="82">
+      <c r="E58" s="64">
         <v>0</v>
       </c>
-      <c r="F58" s="82">
+      <c r="F58" s="64">
         <v>0</v>
       </c>
     </row>
@@ -17073,123 +17073,123 @@
       <selection pane="bottomLeft" activeCell="M6" sqref="M6:P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="62" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="67" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
       <c r="O4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-    </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+    </row>
+    <row r="5" spans="1:18" s="17" customFormat="1" ht="18" thickBot="1">
+      <c r="A5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -17205,9 +17205,9 @@
       <c r="I5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
       <c r="O5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18355,88 +18355,88 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.875" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="18"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" style="18"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.875" style="18"/>
+    <col min="8" max="10" width="6.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="14"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="68"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18449,8 +18449,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="25" t="s">
@@ -20970,7 +20970,7 @@
         <v>609.86</v>
       </c>
     </row>
-    <row r="148" spans="2:7" customFormat="1" ht="28.5">
+    <row r="148" spans="2:7" customFormat="1" ht="28">
       <c r="B148" s="47" t="s">
         <v>122</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>137.59</v>
       </c>
     </row>
-    <row r="208" spans="2:7" customFormat="1" ht="30">
+    <row r="208" spans="2:7" customFormat="1" ht="29">
       <c r="B208" s="48" t="s">
         <v>123</v>
       </c>
@@ -25615,93 +25615,93 @@
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="62" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-    </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="6" t="s">
         <v>153</v>
       </c>
@@ -25714,17 +25714,17 @@
       <c r="K4" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -25737,29 +25737,29 @@
       <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="19"/>
-      <c r="C6" s="80">
+      <c r="C6" s="62">
         <v>1967</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="63">
         <v>0</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="62">
         <f>4.184*G6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="63">
         <v>0</v>
       </c>
     </row>
@@ -28118,6 +28118,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:H3"/>
@@ -28126,12 +28132,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -28147,92 +28147,92 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.875" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="18"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" style="18"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.875" style="18"/>
+    <col min="8" max="10" width="6.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="68"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="67" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -28245,8 +28245,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="6" t="s">
         <v>160</v>
       </c>
@@ -31229,85 +31229,85 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="C6:D8"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="62" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
@@ -31323,18 +31323,18 @@
       <c r="I4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31350,9 +31350,9 @@
       <c r="I5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
@@ -31742,6 +31742,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -31749,11 +31754,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -31764,63 +31764,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E72F4D-3F4B-D946-96F8-0C48CECE6608}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="62" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -31829,17 +31829,17 @@
       <c r="F3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-    </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
@@ -31848,17 +31848,17 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31874,25 +31874,25 @@
       <c r="I5" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="19"/>
-      <c r="C6" s="40">
+      <c r="C6" s="82">
         <v>1962</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="82">
         <v>161.5</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="82">
         <v>2.5230000000000001</v>
       </c>
       <c r="I6" s="40">
@@ -31901,16 +31901,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="19"/>
-      <c r="C7" s="40">
+      <c r="C7" s="82">
         <v>1962</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="82">
         <v>198</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="82">
         <v>2.77</v>
       </c>
       <c r="I7" s="40">
@@ -31919,16 +31919,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="19"/>
-      <c r="C8" s="40">
+      <c r="C8" s="82">
         <v>1962</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="82">
         <v>231</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="82">
         <v>2.887</v>
       </c>
       <c r="I8" s="40">
@@ -31937,16 +31937,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="19"/>
-      <c r="C9" s="40">
+      <c r="C9" s="82">
         <v>1962</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="82">
         <v>262</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="82">
         <v>2.891</v>
       </c>
       <c r="I9" s="40">
@@ -32061,19 +32061,21 @@
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="19"/>
-      <c r="C16" s="40">
+      <c r="C16" s="82">
         <v>2008</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="82">
         <v>170.6</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="82">
         <v>2.37</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="19"/>
@@ -32098,17 +32100,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/MASTER Xenon Literature Review.xlsx
+++ b/data/MASTER Xenon Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C464A4-8E66-4C88-9A29-9BEB07CC39BC}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B770502B-9C47-4766-A0A3-97D124F9E850}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="7" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -1489,28 +1489,14 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1528,6 +1514,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,7 +1541,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2012,46 +2012,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F513A9-1C82-3E45-A361-2C7180831D5E}">
   <dimension ref="A1:AE373"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="7" width="17.08203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" customWidth="1"/>
-    <col min="11" max="11" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.08203125" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
       <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
@@ -2075,17 +2075,17 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="5"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="2">
         <f>6.02214076*10^23</f>
         <v>6.0221407599999999E+23</v>
@@ -2109,16 +2109,16 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2127,26 +2127,26 @@
       <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -2158,33 +2158,33 @@
       <c r="S3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="67" t="s">
+      <c r="T3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="67" t="s">
+      <c r="Y3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="67"/>
-    </row>
-    <row r="4" spans="1:26" ht="16.5">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="Z3" s="68"/>
+    </row>
+    <row r="4" spans="1:26" ht="18">
+      <c r="A4" s="74"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="73"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
@@ -2193,10 +2193,10 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
       <c r="Q4" s="6" t="s">
         <v>14</v>
       </c>
@@ -2206,12 +2206,12 @@
       <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="73" t="s">
+      <c r="T4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
         <v>17</v>
@@ -2220,11 +2220,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="17" thickBot="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+    <row r="5" spans="1:26" ht="17.25" thickBot="1">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2245,10 +2245,10 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -2306,7 +2306,7 @@
         <f>I6^3</f>
         <v>242.97062400000002</v>
       </c>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="72" t="s">
         <v>33</v>
       </c>
       <c r="O6" s="21">
@@ -2330,20 +2330,20 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="75"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="61">
         <v>1930</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="61">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="61">
         <f>(J7*10^-30)*$K$2*(1*10^6)/4</f>
         <v>35.535001353763604</v>
       </c>
@@ -2355,7 +2355,7 @@
         <f>I7^3</f>
         <v>236.02903199999997</v>
       </c>
-      <c r="N7" s="77"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="22">
         <v>1962</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C8">
@@ -2401,7 +2401,7 @@
         <f t="shared" ref="J8:J26" si="2">I8^3</f>
         <v>236.60238162499996</v>
       </c>
-      <c r="N8" s="77"/>
+      <c r="N8" s="73"/>
       <c r="O8" s="22">
         <v>1962</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="72"/>
+      <c r="B9" s="67"/>
       <c r="C9">
         <v>1957</v>
       </c>
@@ -2445,7 +2445,7 @@
         <f t="shared" si="2"/>
         <v>239.02058981600004</v>
       </c>
-      <c r="N9" s="77"/>
+      <c r="N9" s="73"/>
       <c r="O9" s="22">
         <v>1962</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="72"/>
+      <c r="B10" s="67"/>
       <c r="C10">
         <v>1957</v>
       </c>
@@ -2489,7 +2489,7 @@
         <f t="shared" si="2"/>
         <v>240.17788569600003</v>
       </c>
-      <c r="N10" s="77"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="22">
         <v>1962</v>
       </c>
@@ -2511,7 +2511,7 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="61">
@@ -2534,7 +2534,7 @@
         <f t="shared" si="2"/>
         <v>230.53809234201302</v>
       </c>
-      <c r="N11" s="77"/>
+      <c r="N11" s="73"/>
       <c r="O11" s="22">
         <v>1962</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="72"/>
+      <c r="B12" s="67"/>
       <c r="C12">
         <v>1962</v>
       </c>
@@ -2577,7 +2577,7 @@
         <f t="shared" si="2"/>
         <v>230.54937184943202</v>
       </c>
-      <c r="N12" s="77"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="22">
         <v>1962</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="72"/>
+      <c r="B13" s="67"/>
       <c r="C13">
         <v>1962</v>
       </c>
@@ -2620,7 +2620,7 @@
         <f t="shared" si="2"/>
         <v>230.62833870312502</v>
       </c>
-      <c r="N13" s="77"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="22">
         <v>1962</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="B14" s="72"/>
+      <c r="B14" s="67"/>
       <c r="C14">
         <v>1962</v>
       </c>
@@ -2663,7 +2663,7 @@
         <f t="shared" si="2"/>
         <v>230.79761410400002</v>
       </c>
-      <c r="N14" s="77"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="22">
         <v>1962</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="B15" s="72"/>
+      <c r="B15" s="67"/>
       <c r="C15">
         <v>1962</v>
       </c>
@@ -2706,7 +2706,7 @@
         <f t="shared" si="2"/>
         <v>231.068626996544</v>
       </c>
-      <c r="N15" s="77"/>
+      <c r="N15" s="73"/>
       <c r="O15" s="22">
         <v>1962</v>
       </c>
@@ -2728,7 +2728,7 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="B16" s="72"/>
+      <c r="B16" s="67"/>
       <c r="C16">
         <v>1962</v>
       </c>
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="B17" s="72"/>
+      <c r="B17" s="67"/>
       <c r="C17">
         <v>1962</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="B18" s="72"/>
+      <c r="B18" s="67"/>
       <c r="C18">
         <v>1962</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="B19" s="72"/>
+      <c r="B19" s="67"/>
       <c r="C19">
         <v>1962</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="B20" s="72"/>
+      <c r="B20" s="67"/>
       <c r="C20">
         <v>1962</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="B21" s="72"/>
+      <c r="B21" s="67"/>
       <c r="C21">
         <v>1962</v>
       </c>
@@ -2989,7 +2989,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="B22" s="72"/>
+      <c r="B22" s="67"/>
       <c r="C22">
         <v>1962</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="B23" s="72"/>
+      <c r="B23" s="67"/>
       <c r="C23">
         <v>1962</v>
       </c>
@@ -3075,7 +3075,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="B24" s="72"/>
+      <c r="B24" s="67"/>
       <c r="C24">
         <v>1962</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="B25" s="72"/>
+      <c r="B25" s="67"/>
       <c r="C25">
         <v>1962</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="B26" s="72"/>
+      <c r="B26" s="67"/>
       <c r="C26">
         <v>1962</v>
       </c>
@@ -3245,10 +3245,10 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="67" t="s">
         <v>45</v>
       </c>
       <c r="C28">
@@ -3289,8 +3289,8 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
       <c r="C29">
         <v>1960</v>
       </c>
@@ -3329,8 +3329,8 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="71"/>
-      <c r="B30" s="72"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
       <c r="C30">
         <v>1960</v>
       </c>
@@ -3369,8 +3369,8 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
       <c r="C31">
         <v>1960</v>
       </c>
@@ -3409,8 +3409,8 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="71"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
       <c r="C32">
         <v>1960</v>
       </c>
@@ -3449,8 +3449,8 @@
       </c>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
       <c r="C33">
         <v>1960</v>
       </c>
@@ -15773,6 +15773,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="Y3:Z3"/>
@@ -15787,14 +15795,6 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{C197F492-C155-453C-9706-9BEC01725253}"/>
@@ -15823,108 +15823,108 @@
       <selection pane="bottomLeft" activeCell="C58" sqref="C58:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="25.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="20" customFormat="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="68" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="74"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="69" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
@@ -17073,123 +17073,123 @@
       <selection pane="bottomLeft" activeCell="M6" sqref="M6:P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="67" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="67" t="s">
+      <c r="Q3" s="68" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-    </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" ht="18" thickBot="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+    </row>
+    <row r="5" spans="1:18" s="17" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -17205,9 +17205,9 @@
       <c r="I5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18355,88 +18355,88 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.83203125" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="18"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.875" style="18"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.83203125" style="18"/>
+    <col min="8" max="10" width="6.875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="14"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="69"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18449,8 +18449,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="25" t="s">
@@ -20970,7 +20970,7 @@
         <v>609.86</v>
       </c>
     </row>
-    <row r="148" spans="2:7" customFormat="1" ht="28">
+    <row r="148" spans="2:7" customFormat="1" ht="28.5">
       <c r="B148" s="47" t="s">
         <v>122</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>137.59</v>
       </c>
     </row>
-    <row r="208" spans="2:7" customFormat="1" ht="29">
+    <row r="208" spans="2:7" customFormat="1" ht="30">
       <c r="B208" s="48" t="s">
         <v>123</v>
       </c>
@@ -25615,93 +25615,93 @@
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="67" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-    </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="6" t="s">
         <v>153</v>
       </c>
@@ -25714,17 +25714,17 @@
       <c r="K4" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -25737,9 +25737,9 @@
       <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -28118,12 +28118,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A3:A5"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:H3"/>
@@ -28132,6 +28126,12 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -28147,92 +28147,92 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="6.83203125" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="18"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="6.875" style="18"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.83203125" style="18"/>
+    <col min="8" max="10" width="6.875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="69"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="68" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -28245,8 +28245,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="6" t="s">
         <v>160</v>
       </c>
@@ -31232,82 +31232,82 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="67" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
@@ -31323,18 +31323,18 @@
       <c r="I4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31350,9 +31350,9 @@
       <c r="I5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
@@ -31742,11 +31742,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -31754,6 +31749,11 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -31764,63 +31764,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E72F4D-3F4B-D946-96F8-0C48CECE6608}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
-    <col min="2" max="2" width="25.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
     <col min="3" max="4" width="10.75" style="18"/>
-    <col min="5" max="5" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="18" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="18" customWidth="1"/>
     <col min="10" max="14" width="10.75" style="18"/>
     <col min="15" max="15" width="11.75" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="18"/>
-    <col min="17" max="17" width="12.58203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="67" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -31829,17 +31829,17 @@
       <c r="F3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-    </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
@@ -31848,17 +31848,17 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31874,25 +31874,25 @@
       <c r="I5" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="19"/>
-      <c r="C6" s="82">
+      <c r="C6" s="65">
         <v>1962</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="65">
         <v>161.5</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="65">
         <v>2.5230000000000001</v>
       </c>
       <c r="I6" s="40">
@@ -31901,16 +31901,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="19"/>
-      <c r="C7" s="82">
+      <c r="C7" s="65">
         <v>1962</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="65">
         <v>198</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="65">
         <v>2.77</v>
       </c>
       <c r="I7" s="40">
@@ -31919,16 +31919,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="19"/>
-      <c r="C8" s="82">
+      <c r="C8" s="65">
         <v>1962</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="65">
         <v>231</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="65">
         <v>2.887</v>
       </c>
       <c r="I8" s="40">
@@ -31937,16 +31937,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="19"/>
-      <c r="C9" s="82">
+      <c r="C9" s="65">
         <v>1962</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="65">
         <v>262</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="65">
         <v>2.891</v>
       </c>
       <c r="I9" s="40">
@@ -32061,21 +32061,21 @@
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="19"/>
-      <c r="C16" s="82">
+      <c r="C16" s="65">
         <v>2008</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="65">
         <v>170.6</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="65">
         <v>2.37</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
-      <c r="I16" s="82"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="19"/>
@@ -32100,17 +32100,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/MASTER Xenon Literature Review.xlsx
+++ b/data/MASTER Xenon Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B770502B-9C47-4766-A0A3-97D124F9E850}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{262D6BEE-4B49-414C-8989-11032CF05A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{613062EE-D033-428F-A93E-C2CA3D2ACE97}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -1490,13 +1490,28 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1513,21 +1528,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2013,8 +2013,8 @@
   <dimension ref="A1:AE373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="5" topLeftCell="A62" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
@@ -2040,18 +2040,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
@@ -2075,17 +2075,17 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="5"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="2">
         <f>6.02214076*10^23</f>
         <v>6.0221407599999999E+23</v>
@@ -2109,7 +2109,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="70" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="68" t="s">
@@ -2137,7 +2137,7 @@
       <c r="J3" s="68"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="70" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="68" t="s">
@@ -2171,7 +2171,7 @@
       <c r="Z3" s="68"/>
     </row>
     <row r="4" spans="1:26" ht="18">
-      <c r="A4" s="74"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -2181,10 +2181,10 @@
       <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="74"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
       <c r="P4" s="68"/>
@@ -2206,12 +2206,12 @@
       <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="69" t="s">
+      <c r="T4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
         <v>17</v>
@@ -2221,10 +2221,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2245,10 +2245,10 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
       <c r="Q5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="75" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -2306,7 +2306,7 @@
         <f>I6^3</f>
         <v>242.97062400000002</v>
       </c>
-      <c r="N6" s="72" t="s">
+      <c r="N6" s="77" t="s">
         <v>33</v>
       </c>
       <c r="O6" s="21">
@@ -2330,7 +2330,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="71"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
@@ -2355,7 +2355,7 @@
         <f>I7^3</f>
         <v>236.02903199999997</v>
       </c>
-      <c r="N7" s="73"/>
+      <c r="N7" s="78"/>
       <c r="O7" s="22">
         <v>1962</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="73" t="s">
         <v>36</v>
       </c>
       <c r="C8">
@@ -2401,7 +2401,7 @@
         <f t="shared" ref="J8:J26" si="2">I8^3</f>
         <v>236.60238162499996</v>
       </c>
-      <c r="N8" s="73"/>
+      <c r="N8" s="78"/>
       <c r="O8" s="22">
         <v>1962</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="67"/>
+      <c r="B9" s="73"/>
       <c r="C9">
         <v>1957</v>
       </c>
@@ -2445,7 +2445,7 @@
         <f t="shared" si="2"/>
         <v>239.02058981600004</v>
       </c>
-      <c r="N9" s="73"/>
+      <c r="N9" s="78"/>
       <c r="O9" s="22">
         <v>1962</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="67"/>
+      <c r="B10" s="73"/>
       <c r="C10">
         <v>1957</v>
       </c>
@@ -2489,7 +2489,7 @@
         <f t="shared" si="2"/>
         <v>240.17788569600003</v>
       </c>
-      <c r="N10" s="73"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="22">
         <v>1962</v>
       </c>
@@ -2511,7 +2511,7 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="73" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="61">
@@ -2534,7 +2534,7 @@
         <f t="shared" si="2"/>
         <v>230.53809234201302</v>
       </c>
-      <c r="N11" s="73"/>
+      <c r="N11" s="78"/>
       <c r="O11" s="22">
         <v>1962</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="67"/>
+      <c r="B12" s="73"/>
       <c r="C12">
         <v>1962</v>
       </c>
@@ -2577,7 +2577,7 @@
         <f t="shared" si="2"/>
         <v>230.54937184943202</v>
       </c>
-      <c r="N12" s="73"/>
+      <c r="N12" s="78"/>
       <c r="O12" s="22">
         <v>1962</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="67"/>
+      <c r="B13" s="73"/>
       <c r="C13">
         <v>1962</v>
       </c>
@@ -2620,7 +2620,7 @@
         <f t="shared" si="2"/>
         <v>230.62833870312502</v>
       </c>
-      <c r="N13" s="73"/>
+      <c r="N13" s="78"/>
       <c r="O13" s="22">
         <v>1962</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="B14" s="67"/>
+      <c r="B14" s="73"/>
       <c r="C14">
         <v>1962</v>
       </c>
@@ -2663,7 +2663,7 @@
         <f t="shared" si="2"/>
         <v>230.79761410400002</v>
       </c>
-      <c r="N14" s="73"/>
+      <c r="N14" s="78"/>
       <c r="O14" s="22">
         <v>1962</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="B15" s="67"/>
+      <c r="B15" s="73"/>
       <c r="C15">
         <v>1962</v>
       </c>
@@ -2706,7 +2706,7 @@
         <f t="shared" si="2"/>
         <v>231.068626996544</v>
       </c>
-      <c r="N15" s="73"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="22">
         <v>1962</v>
       </c>
@@ -2728,7 +2728,7 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="B16" s="67"/>
+      <c r="B16" s="73"/>
       <c r="C16">
         <v>1962</v>
       </c>
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="B17" s="67"/>
+      <c r="B17" s="73"/>
       <c r="C17">
         <v>1962</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="B18" s="67"/>
+      <c r="B18" s="73"/>
       <c r="C18">
         <v>1962</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="B19" s="67"/>
+      <c r="B19" s="73"/>
       <c r="C19">
         <v>1962</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="B20" s="67"/>
+      <c r="B20" s="73"/>
       <c r="C20">
         <v>1962</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="B21" s="67"/>
+      <c r="B21" s="73"/>
       <c r="C21">
         <v>1962</v>
       </c>
@@ -2989,7 +2989,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="B22" s="67"/>
+      <c r="B22" s="73"/>
       <c r="C22">
         <v>1962</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="B23" s="67"/>
+      <c r="B23" s="73"/>
       <c r="C23">
         <v>1962</v>
       </c>
@@ -3075,7 +3075,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="B24" s="67"/>
+      <c r="B24" s="73"/>
       <c r="C24">
         <v>1962</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="B25" s="67"/>
+      <c r="B25" s="73"/>
       <c r="C25">
         <v>1962</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="B26" s="67"/>
+      <c r="B26" s="73"/>
       <c r="C26">
         <v>1962</v>
       </c>
@@ -3245,10 +3245,10 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="73" t="s">
         <v>45</v>
       </c>
       <c r="C28">
@@ -3289,8 +3289,8 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
       <c r="C29">
         <v>1960</v>
       </c>
@@ -3329,8 +3329,8 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="73"/>
       <c r="C30">
         <v>1960</v>
       </c>
@@ -3369,8 +3369,8 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="73"/>
       <c r="C31">
         <v>1960</v>
       </c>
@@ -3409,8 +3409,8 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="66"/>
-      <c r="B32" s="67"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="73"/>
       <c r="C32">
         <v>1960</v>
       </c>
@@ -3449,8 +3449,8 @@
       </c>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="73"/>
       <c r="C33">
         <v>1960</v>
       </c>
@@ -4969,31 +4969,35 @@
         <f t="shared" si="7"/>
         <v>248.43114122854405</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="61">
         <v>2024</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="61">
         <v>429</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="61">
         <f t="shared" si="10"/>
         <v>40.845419399999997</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="61">
         <f t="shared" si="8"/>
         <v>1.431</v>
       </c>
-      <c r="T73">
+      <c r="T73" s="61">
         <f t="shared" si="9"/>
         <v>1431</v>
       </c>
-      <c r="W73">
+      <c r="U73" s="61"/>
+      <c r="V73" s="61"/>
+      <c r="W73" s="61">
         <v>1.431</v>
       </c>
-      <c r="Z73">
+      <c r="X73" s="61"/>
+      <c r="Y73" s="61"/>
+      <c r="Z73" s="61">
         <v>67.826999999999998</v>
       </c>
     </row>
@@ -5018,31 +5022,35 @@
         <f t="shared" si="7"/>
         <v>247.53120088787205</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="61">
         <v>2024</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="61">
         <v>429</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="61">
         <f t="shared" si="10"/>
         <v>40.836386399999995</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="61">
         <f t="shared" si="8"/>
         <v>1.4710000000000001</v>
       </c>
-      <c r="T74">
+      <c r="T74" s="61">
         <f t="shared" si="9"/>
         <v>1471</v>
       </c>
-      <c r="W74">
+      <c r="U74" s="61"/>
+      <c r="V74" s="61"/>
+      <c r="W74" s="61">
         <v>1.4710000000000001</v>
       </c>
-      <c r="Z74">
+      <c r="X74" s="61"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61">
         <v>67.811999999999998</v>
       </c>
     </row>
@@ -5067,31 +5075,35 @@
         <f t="shared" si="7"/>
         <v>246.07932792962498</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="61">
         <v>2024</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="61">
         <v>429</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="61">
         <f t="shared" si="10"/>
         <v>40.821933599999994</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="61">
         <f t="shared" si="8"/>
         <v>1.5209999999999999</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="61">
         <f t="shared" si="9"/>
         <v>1521</v>
       </c>
-      <c r="W75">
+      <c r="U75" s="61"/>
+      <c r="V75" s="61"/>
+      <c r="W75" s="61">
         <v>1.5209999999999999</v>
       </c>
-      <c r="Z75">
+      <c r="X75" s="61"/>
+      <c r="Y75" s="61"/>
+      <c r="Z75" s="61">
         <v>67.787999999999997</v>
       </c>
     </row>
@@ -5116,31 +5128,35 @@
         <f t="shared" si="7"/>
         <v>244.96185659299996</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="61">
         <v>2024</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="61">
         <v>429</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="61">
         <f t="shared" si="10"/>
         <v>40.817718200000002</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="61">
         <f t="shared" si="8"/>
         <v>1.5409999999999999</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="61">
         <f t="shared" si="9"/>
         <v>1541</v>
       </c>
-      <c r="W76">
+      <c r="U76" s="61"/>
+      <c r="V76" s="61"/>
+      <c r="W76" s="61">
         <v>1.5409999999999999</v>
       </c>
-      <c r="Z76">
+      <c r="X76" s="61"/>
+      <c r="Y76" s="61"/>
+      <c r="Z76" s="61">
         <v>67.781000000000006</v>
       </c>
     </row>
@@ -5165,31 +5181,35 @@
         <f t="shared" si="7"/>
         <v>244.16406325000807</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="61">
         <v>2024</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" s="61">
         <v>429</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="61">
         <f t="shared" si="10"/>
         <v>40.808685199999999</v>
       </c>
-      <c r="S77">
+      <c r="S77" s="61">
         <f t="shared" si="8"/>
         <v>1.581</v>
       </c>
-      <c r="T77">
+      <c r="T77" s="61">
         <f t="shared" si="9"/>
         <v>1581</v>
       </c>
-      <c r="W77">
+      <c r="U77" s="61"/>
+      <c r="V77" s="61"/>
+      <c r="W77" s="61">
         <v>1.581</v>
       </c>
-      <c r="Z77">
+      <c r="X77" s="61"/>
+      <c r="Y77" s="61"/>
+      <c r="Z77" s="61">
         <v>67.766000000000005</v>
       </c>
     </row>
@@ -5214,31 +5234,35 @@
         <f t="shared" si="7"/>
         <v>250.67860204987699</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="61">
         <v>2024</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="61">
         <v>429</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="61">
         <f t="shared" si="10"/>
         <v>40.802060999999995</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="61">
         <f t="shared" si="8"/>
         <v>1.601</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="61">
         <f t="shared" si="9"/>
         <v>1601</v>
       </c>
-      <c r="W78">
+      <c r="U78" s="61"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="61">
         <v>1.601</v>
       </c>
-      <c r="Z78">
+      <c r="X78" s="61"/>
+      <c r="Y78" s="61"/>
+      <c r="Z78" s="61">
         <v>67.754999999999995</v>
       </c>
     </row>
@@ -5263,31 +5287,35 @@
         <f t="shared" si="7"/>
         <v>250.70245689137505</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="61">
         <v>2024</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P79" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="61">
         <v>429</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="61">
         <f t="shared" si="10"/>
         <v>40.773757599999996</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="61">
         <f t="shared" si="8"/>
         <v>1.7210000000000001</v>
       </c>
-      <c r="T79">
+      <c r="T79" s="61">
         <f t="shared" si="9"/>
         <v>1721</v>
       </c>
-      <c r="W79">
+      <c r="U79" s="61"/>
+      <c r="V79" s="61"/>
+      <c r="W79" s="61">
         <v>1.7210000000000001</v>
       </c>
-      <c r="Z79">
+      <c r="X79" s="61"/>
+      <c r="Y79" s="61"/>
+      <c r="Z79" s="61">
         <v>67.707999999999998</v>
       </c>
     </row>
@@ -5312,31 +5340,35 @@
         <f t="shared" si="7"/>
         <v>249.09564908799999</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="61">
         <v>2024</v>
       </c>
-      <c r="P80" t="s">
+      <c r="P80" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="61">
         <v>429</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="61">
         <f t="shared" si="10"/>
         <v>40.7201618</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="61">
         <f t="shared" si="8"/>
         <v>1.9410000000000001</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="61">
         <f t="shared" si="9"/>
         <v>1941</v>
       </c>
-      <c r="W80">
+      <c r="U80" s="61"/>
+      <c r="V80" s="61"/>
+      <c r="W80" s="61">
         <v>1.9410000000000001</v>
       </c>
-      <c r="Z80">
+      <c r="X80" s="61"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="61">
         <v>67.619</v>
       </c>
     </row>
@@ -5361,31 +5393,35 @@
         <f t="shared" si="7"/>
         <v>249.08377249755901</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="61">
         <v>2024</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="61">
         <v>429</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="61">
         <f t="shared" si="10"/>
         <v>40.711128799999997</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="61">
         <f t="shared" si="8"/>
         <v>1.98</v>
       </c>
-      <c r="T81">
+      <c r="T81" s="61">
         <f t="shared" si="9"/>
         <v>1980</v>
       </c>
-      <c r="W81">
+      <c r="U81" s="61"/>
+      <c r="V81" s="61"/>
+      <c r="W81" s="61">
         <v>1.98</v>
       </c>
-      <c r="Z81">
+      <c r="X81" s="61"/>
+      <c r="Y81" s="61"/>
+      <c r="Z81" s="61">
         <v>67.603999999999999</v>
       </c>
     </row>
@@ -5410,31 +5446,35 @@
         <f t="shared" si="7"/>
         <v>246.82225885235201</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="61">
         <v>2024</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" s="61">
         <v>429</v>
       </c>
-      <c r="R82">
+      <c r="R82" s="61">
         <f t="shared" si="10"/>
         <v>40.706311200000002</v>
       </c>
-      <c r="S82">
+      <c r="S82" s="61">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="T82">
+      <c r="T82" s="61">
         <f t="shared" si="9"/>
         <v>2000</v>
       </c>
-      <c r="W82">
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="61">
         <v>2</v>
       </c>
-      <c r="Z82">
+      <c r="X82" s="61"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="61">
         <v>67.596000000000004</v>
       </c>
     </row>
@@ -5459,31 +5499,35 @@
         <f t="shared" si="7"/>
         <v>246.62163833143097</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="61">
         <v>2024</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" s="61">
         <v>429</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="61">
         <f t="shared" si="10"/>
         <v>40.640069199999999</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="61">
         <f t="shared" si="8"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T83">
+      <c r="T83" s="61">
         <f t="shared" si="9"/>
         <v>2300</v>
       </c>
-      <c r="W83">
+      <c r="U83" s="61"/>
+      <c r="V83" s="61"/>
+      <c r="W83" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Z83">
+      <c r="X83" s="61"/>
+      <c r="Y83" s="61"/>
+      <c r="Z83" s="61">
         <v>67.486000000000004</v>
       </c>
     </row>
@@ -5508,31 +5552,35 @@
         <f t="shared" si="7"/>
         <v>242.73707327200006</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="61">
         <v>2024</v>
       </c>
-      <c r="P84" t="s">
+      <c r="P84" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" s="61">
         <v>429</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="61">
         <f t="shared" si="10"/>
         <v>40.617185599999992</v>
       </c>
-      <c r="S84">
+      <c r="S84" s="61">
         <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
-      <c r="T84">
+      <c r="T84" s="61">
         <f t="shared" si="9"/>
         <v>2400</v>
       </c>
-      <c r="W84">
+      <c r="U84" s="61"/>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61">
         <v>2.4</v>
       </c>
-      <c r="Z84">
+      <c r="X84" s="61"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="61">
         <v>67.447999999999993</v>
       </c>
     </row>
@@ -5557,31 +5605,35 @@
         <f t="shared" si="7"/>
         <v>241.22264062499994</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="61">
         <v>2024</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="61">
         <v>429</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="61">
         <f t="shared" si="10"/>
         <v>40.573827199999997</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="61">
         <f t="shared" si="8"/>
         <v>2.6</v>
       </c>
-      <c r="T85">
+      <c r="T85" s="61">
         <f t="shared" si="9"/>
         <v>2600</v>
       </c>
-      <c r="W85">
+      <c r="U85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61">
         <v>2.6</v>
       </c>
-      <c r="Z85">
+      <c r="X85" s="61"/>
+      <c r="Y85" s="61"/>
+      <c r="Z85" s="61">
         <v>67.376000000000005</v>
       </c>
     </row>
@@ -5606,31 +5658,35 @@
         <f t="shared" si="7"/>
         <v>240.06198837499997</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="61">
         <v>2024</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" s="61">
         <v>429</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="61">
         <f t="shared" si="10"/>
         <v>40.539622239999993</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="61">
         <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="61">
         <f t="shared" si="9"/>
         <v>2700</v>
       </c>
-      <c r="W86">
+      <c r="U86" s="61"/>
+      <c r="V86" s="61"/>
+      <c r="W86" s="61">
         <v>2.7</v>
       </c>
-      <c r="Z86">
+      <c r="X86" s="61"/>
+      <c r="Y86" s="61"/>
+      <c r="Z86" s="61">
         <v>67.319199999999995</v>
       </c>
     </row>
@@ -5655,31 +5711,35 @@
         <f t="shared" si="7"/>
         <v>238.67412742700003</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="61">
         <v>2024</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P87" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q87">
+      <c r="Q87" s="61">
         <v>429</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="61">
         <f t="shared" si="10"/>
         <v>40.479281799999995</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="61">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="T87">
+      <c r="T87" s="61">
         <f t="shared" si="9"/>
         <v>3000</v>
       </c>
-      <c r="W87">
+      <c r="U87" s="61"/>
+      <c r="V87" s="61"/>
+      <c r="W87" s="61">
         <v>3</v>
       </c>
-      <c r="Z87">
+      <c r="X87" s="61"/>
+      <c r="Y87" s="61"/>
+      <c r="Z87" s="61">
         <v>67.218999999999994</v>
       </c>
     </row>
@@ -5699,31 +5759,35 @@
       <c r="F88">
         <v>38.200000000000003</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="61">
         <v>2024</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P88" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q88">
+      <c r="Q88" s="61">
         <v>429</v>
       </c>
-      <c r="R88">
+      <c r="R88" s="61">
         <f t="shared" si="10"/>
         <v>40.422674999999998</v>
       </c>
-      <c r="S88">
+      <c r="S88" s="61">
         <f t="shared" si="8"/>
         <v>3.2</v>
       </c>
-      <c r="T88">
+      <c r="T88" s="61">
         <f t="shared" si="9"/>
         <v>3200</v>
       </c>
-      <c r="W88">
+      <c r="U88" s="61"/>
+      <c r="V88" s="61"/>
+      <c r="W88" s="61">
         <v>3.2</v>
       </c>
-      <c r="Z88">
+      <c r="X88" s="61"/>
+      <c r="Y88" s="61"/>
+      <c r="Z88" s="61">
         <v>67.125</v>
       </c>
     </row>
@@ -5746,31 +5810,35 @@
       <c r="F89">
         <v>34.71</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="61">
         <v>2024</v>
       </c>
-      <c r="P89" t="s">
+      <c r="P89" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q89">
+      <c r="Q89" s="61">
         <v>429</v>
       </c>
-      <c r="R89">
+      <c r="R89" s="61">
         <f t="shared" si="10"/>
         <v>40.306450399999996</v>
       </c>
-      <c r="S89">
+      <c r="S89" s="61">
         <f t="shared" si="8"/>
         <v>3.7</v>
       </c>
-      <c r="T89">
+      <c r="T89" s="61">
         <f t="shared" si="9"/>
         <v>3700</v>
       </c>
-      <c r="W89">
+      <c r="U89" s="61"/>
+      <c r="V89" s="61"/>
+      <c r="W89" s="61">
         <v>3.7</v>
       </c>
-      <c r="Z89">
+      <c r="X89" s="61"/>
+      <c r="Y89" s="61"/>
+      <c r="Z89" s="61">
         <v>66.932000000000002</v>
       </c>
     </row>
@@ -5791,31 +5859,35 @@
       <c r="F90">
         <v>34.823</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="61">
         <v>2024</v>
       </c>
-      <c r="P90" t="s">
+      <c r="P90" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q90">
+      <c r="Q90" s="61">
         <v>429</v>
       </c>
-      <c r="R90">
+      <c r="R90" s="61">
         <f t="shared" si="10"/>
         <v>40.256467800000003</v>
       </c>
-      <c r="S90">
+      <c r="S90" s="61">
         <f t="shared" si="8"/>
         <v>3.9</v>
       </c>
-      <c r="T90">
+      <c r="T90" s="61">
         <f t="shared" si="9"/>
         <v>3900</v>
       </c>
-      <c r="W90">
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="61">
         <v>3.9</v>
       </c>
-      <c r="Z90">
+      <c r="X90" s="61"/>
+      <c r="Y90" s="61"/>
+      <c r="Z90" s="61">
         <v>66.849000000000004</v>
       </c>
     </row>
@@ -5835,31 +5907,35 @@
       <c r="F91">
         <v>35.15</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="61">
         <v>2024</v>
       </c>
-      <c r="P91" t="s">
+      <c r="P91" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q91">
+      <c r="Q91" s="61">
         <v>429</v>
       </c>
-      <c r="R91">
+      <c r="R91" s="61">
         <f t="shared" si="10"/>
         <v>40.163126800000001</v>
       </c>
-      <c r="S91">
+      <c r="S91" s="61">
         <f t="shared" si="8"/>
         <v>4.3</v>
       </c>
-      <c r="T91">
+      <c r="T91" s="61">
         <f t="shared" si="9"/>
         <v>4300</v>
       </c>
-      <c r="W91">
+      <c r="U91" s="61"/>
+      <c r="V91" s="61"/>
+      <c r="W91" s="61">
         <v>4.3</v>
       </c>
-      <c r="Z91">
+      <c r="X91" s="61"/>
+      <c r="Y91" s="61"/>
+      <c r="Z91" s="61">
         <v>66.694000000000003</v>
       </c>
     </row>
@@ -5879,31 +5955,35 @@
       <c r="F92">
         <v>35.558</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="61">
         <v>2024</v>
       </c>
-      <c r="P92" t="s">
+      <c r="P92" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" s="61">
         <v>429</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="61">
         <f t="shared" si="10"/>
         <v>40.104111199999998</v>
       </c>
-      <c r="S92">
+      <c r="S92" s="61">
         <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="T92">
+      <c r="T92" s="61">
         <f t="shared" si="9"/>
         <v>4600</v>
       </c>
-      <c r="W92">
+      <c r="U92" s="61"/>
+      <c r="V92" s="61"/>
+      <c r="W92" s="61">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z92">
+      <c r="X92" s="61"/>
+      <c r="Y92" s="61"/>
+      <c r="Z92" s="61">
         <v>66.596000000000004</v>
       </c>
     </row>
@@ -5920,31 +6000,35 @@
       <c r="F93">
         <v>35.950000000000003</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="61">
         <v>2024</v>
       </c>
-      <c r="P93" t="s">
+      <c r="P93" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" s="61">
         <v>429</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="61">
         <f t="shared" si="10"/>
         <v>40.004145999999999</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="61">
         <f t="shared" si="8"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="T93">
+      <c r="T93" s="61">
         <f t="shared" si="9"/>
         <v>5100</v>
       </c>
-      <c r="W93">
+      <c r="U93" s="61"/>
+      <c r="V93" s="61"/>
+      <c r="W93" s="61">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z93">
+      <c r="X93" s="61"/>
+      <c r="Y93" s="61"/>
+      <c r="Z93" s="61">
         <v>66.430000000000007</v>
       </c>
     </row>
@@ -5964,31 +6048,35 @@
       <c r="F94">
         <v>36.023000000000003</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="61">
         <v>2024</v>
       </c>
-      <c r="P94" t="s">
+      <c r="P94" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" s="61">
         <v>429</v>
       </c>
-      <c r="R94">
+      <c r="R94" s="61">
         <f t="shared" si="10"/>
         <v>39.937903999999996</v>
       </c>
-      <c r="S94">
+      <c r="S94" s="61">
         <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
-      <c r="T94">
+      <c r="T94" s="61">
         <f t="shared" si="9"/>
         <v>5400</v>
       </c>
-      <c r="W94">
+      <c r="U94" s="61"/>
+      <c r="V94" s="61"/>
+      <c r="W94" s="61">
         <v>5.4</v>
       </c>
-      <c r="Z94">
+      <c r="X94" s="61"/>
+      <c r="Y94" s="61"/>
+      <c r="Z94" s="61">
         <v>66.319999999999993</v>
       </c>
     </row>
@@ -6005,31 +6093,35 @@
       <c r="F95">
         <v>36.545000000000002</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="61">
         <v>2024</v>
       </c>
-      <c r="P95" t="s">
+      <c r="P95" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q95">
+      <c r="Q95" s="61">
         <v>429</v>
       </c>
-      <c r="R95">
+      <c r="R95" s="61">
         <f t="shared" si="10"/>
         <v>39.899363199999996</v>
       </c>
-      <c r="S95">
+      <c r="S95" s="61">
         <f t="shared" si="8"/>
         <v>5.6</v>
       </c>
-      <c r="T95">
+      <c r="T95" s="61">
         <f t="shared" si="9"/>
         <v>5600</v>
       </c>
-      <c r="W95">
+      <c r="U95" s="61"/>
+      <c r="V95" s="61"/>
+      <c r="W95" s="61">
         <v>5.6</v>
       </c>
-      <c r="Z95">
+      <c r="X95" s="61"/>
+      <c r="Y95" s="61"/>
+      <c r="Z95" s="61">
         <v>66.256</v>
       </c>
     </row>
@@ -6054,31 +6146,35 @@
         <f>I96^3</f>
         <v>256.04787499999998</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="61">
         <v>2024</v>
       </c>
-      <c r="P96" t="s">
+      <c r="P96" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q96">
+      <c r="Q96" s="61">
         <v>429</v>
       </c>
-      <c r="R96">
+      <c r="R96" s="61">
         <f t="shared" si="10"/>
         <v>39.840347600000001</v>
       </c>
-      <c r="S96">
+      <c r="S96" s="61">
         <f t="shared" si="8"/>
         <v>5.8</v>
       </c>
-      <c r="T96">
+      <c r="T96" s="61">
         <f t="shared" si="9"/>
         <v>5800</v>
       </c>
-      <c r="W96">
+      <c r="U96" s="61"/>
+      <c r="V96" s="61"/>
+      <c r="W96" s="61">
         <v>5.8</v>
       </c>
-      <c r="Z96">
+      <c r="X96" s="61"/>
+      <c r="Y96" s="61"/>
+      <c r="Z96" s="61">
         <v>66.158000000000001</v>
       </c>
     </row>
@@ -6103,31 +6199,35 @@
         <f t="shared" ref="J97:J103" si="12">I97^3</f>
         <v>253.63613699999999</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="61">
         <v>2024</v>
       </c>
-      <c r="P97" t="s">
+      <c r="P97" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" s="61">
         <v>429</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="61">
         <f t="shared" si="10"/>
         <v>39.803613399999996</v>
       </c>
-      <c r="S97">
+      <c r="S97" s="61">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="T97">
+      <c r="T97" s="61">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-      <c r="W97">
+      <c r="U97" s="61"/>
+      <c r="V97" s="61"/>
+      <c r="W97" s="61">
         <v>6</v>
       </c>
-      <c r="Z97">
+      <c r="X97" s="61"/>
+      <c r="Y97" s="61"/>
+      <c r="Z97" s="61">
         <v>66.096999999999994</v>
       </c>
     </row>
@@ -6152,31 +6252,35 @@
         <f t="shared" si="12"/>
         <v>253.63613699999999</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="61">
         <v>2024</v>
       </c>
-      <c r="P98" t="s">
+      <c r="P98" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" s="61">
         <v>429</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="61">
         <f t="shared" si="10"/>
         <v>39.78374079999999</v>
       </c>
-      <c r="S98">
+      <c r="S98" s="61">
         <f t="shared" si="8"/>
         <v>6.1</v>
       </c>
-      <c r="T98">
+      <c r="T98" s="61">
         <f t="shared" si="9"/>
         <v>6100</v>
       </c>
-      <c r="W98">
+      <c r="U98" s="61"/>
+      <c r="V98" s="61"/>
+      <c r="W98" s="61">
         <v>6.1</v>
       </c>
-      <c r="Z98">
+      <c r="X98" s="61"/>
+      <c r="Y98" s="61"/>
+      <c r="Z98" s="61">
         <v>66.063999999999993</v>
       </c>
     </row>
@@ -6201,31 +6305,35 @@
         <f t="shared" si="12"/>
         <v>252.43596800000006</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="61">
         <v>2024</v>
       </c>
-      <c r="P99" t="s">
+      <c r="P99" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" s="61">
         <v>429</v>
       </c>
-      <c r="R99">
+      <c r="R99" s="61">
         <f t="shared" si="10"/>
         <v>39.763928419999992</v>
       </c>
-      <c r="S99">
+      <c r="S99" s="61">
         <f t="shared" si="8"/>
         <v>6.2</v>
       </c>
-      <c r="T99">
+      <c r="T99" s="61">
         <f t="shared" si="9"/>
         <v>6200</v>
       </c>
-      <c r="W99">
+      <c r="U99" s="61"/>
+      <c r="V99" s="61"/>
+      <c r="W99" s="61">
         <v>6.2</v>
       </c>
-      <c r="Z99">
+      <c r="X99" s="61"/>
+      <c r="Y99" s="61"/>
+      <c r="Z99" s="61">
         <v>66.031099999999995</v>
       </c>
     </row>
@@ -6250,31 +6358,35 @@
         <f t="shared" si="12"/>
         <v>251.23959099999993</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="61">
         <v>2024</v>
       </c>
-      <c r="P100" t="s">
+      <c r="P100" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q100">
+      <c r="Q100" s="61">
         <v>429</v>
       </c>
-      <c r="R100">
+      <c r="R100" s="61">
         <f t="shared" si="10"/>
         <v>39.673538199999996</v>
       </c>
-      <c r="S100">
+      <c r="S100" s="61">
         <f t="shared" si="8"/>
         <v>6.6</v>
       </c>
-      <c r="T100">
+      <c r="T100" s="61">
         <f t="shared" si="9"/>
         <v>6600</v>
       </c>
-      <c r="W100">
+      <c r="U100" s="61"/>
+      <c r="V100" s="61"/>
+      <c r="W100" s="61">
         <v>6.6</v>
       </c>
-      <c r="Z100">
+      <c r="X100" s="61"/>
+      <c r="Y100" s="61"/>
+      <c r="Z100" s="61">
         <v>65.881</v>
       </c>
     </row>
@@ -6299,31 +6411,35 @@
         <f t="shared" si="12"/>
         <v>250.04699999999997</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="61">
         <v>2024</v>
       </c>
-      <c r="P101" t="s">
+      <c r="P101" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q101">
+      <c r="Q101" s="61">
         <v>429</v>
       </c>
-      <c r="R101">
+      <c r="R101" s="61">
         <f t="shared" si="10"/>
         <v>39.626566599999997</v>
       </c>
-      <c r="S101">
+      <c r="S101" s="61">
         <f t="shared" si="8"/>
         <v>6.9</v>
       </c>
-      <c r="T101">
+      <c r="T101" s="61">
         <f t="shared" si="9"/>
         <v>6900</v>
       </c>
-      <c r="W101">
+      <c r="U101" s="61"/>
+      <c r="V101" s="61"/>
+      <c r="W101" s="61">
         <v>6.9</v>
       </c>
-      <c r="Z101">
+      <c r="X101" s="61"/>
+      <c r="Y101" s="61"/>
+      <c r="Z101" s="61">
         <v>65.802999999999997</v>
       </c>
     </row>
@@ -6348,31 +6464,35 @@
         <f t="shared" si="12"/>
         <v>250.04699999999997</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="61">
         <v>2024</v>
       </c>
-      <c r="P102" t="s">
+      <c r="P102" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q102">
+      <c r="Q102" s="61">
         <v>429</v>
       </c>
-      <c r="R102">
+      <c r="R102" s="61">
         <f t="shared" si="10"/>
         <v>39.563335599999995</v>
       </c>
-      <c r="S102">
+      <c r="S102" s="61">
         <f t="shared" si="8"/>
         <v>7.2</v>
       </c>
-      <c r="T102">
+      <c r="T102" s="61">
         <f t="shared" si="9"/>
         <v>7200</v>
       </c>
-      <c r="W102">
+      <c r="U102" s="61"/>
+      <c r="V102" s="61"/>
+      <c r="W102" s="61">
         <v>7.2</v>
       </c>
-      <c r="Z102">
+      <c r="X102" s="61"/>
+      <c r="Y102" s="61"/>
+      <c r="Z102" s="61">
         <v>65.697999999999993</v>
       </c>
     </row>
@@ -6400,31 +6520,35 @@
         <f t="shared" si="12"/>
         <v>248.85818900000001</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="61">
         <v>2024</v>
       </c>
-      <c r="P103" t="s">
+      <c r="P103" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q103">
+      <c r="Q103" s="61">
         <v>429</v>
       </c>
-      <c r="R103">
+      <c r="R103" s="61">
         <f t="shared" si="10"/>
         <v>39.506126599999995</v>
       </c>
-      <c r="S103">
+      <c r="S103" s="61">
         <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
-      <c r="T103">
+      <c r="T103" s="61">
         <f t="shared" si="9"/>
         <v>7500</v>
       </c>
-      <c r="W103">
+      <c r="U103" s="61"/>
+      <c r="V103" s="61"/>
+      <c r="W103" s="61">
         <v>7.5</v>
       </c>
-      <c r="Z103">
+      <c r="X103" s="61"/>
+      <c r="Y103" s="61"/>
+      <c r="Z103" s="61">
         <v>65.602999999999994</v>
       </c>
     </row>
@@ -6442,31 +6566,35 @@
         <f>(J114*10^-30)*$K$2*(1*10^6)/4</f>
         <v>38.585344252723971</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="61">
         <v>2024</v>
       </c>
-      <c r="P104" t="s">
+      <c r="P104" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q104">
+      <c r="Q104" s="61">
         <v>429</v>
       </c>
-      <c r="R104">
+      <c r="R104" s="61">
         <f t="shared" si="10"/>
         <v>39.437475800000001</v>
       </c>
-      <c r="S104">
+      <c r="S104" s="61">
         <f t="shared" si="8"/>
         <v>7.8</v>
       </c>
-      <c r="T104">
+      <c r="T104" s="61">
         <f t="shared" si="9"/>
         <v>7800</v>
       </c>
-      <c r="W104">
+      <c r="U104" s="61"/>
+      <c r="V104" s="61"/>
+      <c r="W104" s="61">
         <v>7.8</v>
       </c>
-      <c r="Z104">
+      <c r="X104" s="61"/>
+      <c r="Y104" s="61"/>
+      <c r="Z104" s="61">
         <v>65.489000000000004</v>
       </c>
     </row>
@@ -6484,31 +6612,35 @@
         <f t="shared" ref="F105:F136" si="13">(J115*10^-30)*$K$2*(1*10^6)/4</f>
         <v>38.548908613722112</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="61">
         <v>2024</v>
       </c>
-      <c r="P105" t="s">
+      <c r="P105" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q105">
+      <c r="Q105" s="61">
         <v>568</v>
       </c>
-      <c r="R105">
+      <c r="R105" s="61">
         <f t="shared" si="10"/>
         <v>40.881611620000001</v>
       </c>
-      <c r="S105">
+      <c r="S105" s="61">
         <f t="shared" si="8"/>
         <v>2.3109999999999999</v>
       </c>
-      <c r="T105">
+      <c r="T105" s="61">
         <f t="shared" si="9"/>
         <v>2311</v>
       </c>
-      <c r="W105">
+      <c r="U105" s="61"/>
+      <c r="V105" s="61"/>
+      <c r="W105" s="61">
         <v>2.3109999999999999</v>
       </c>
-      <c r="Z105">
+      <c r="X105" s="61"/>
+      <c r="Y105" s="61"/>
+      <c r="Z105" s="61">
         <v>67.887100000000004</v>
       </c>
     </row>
@@ -6526,31 +6658,35 @@
         <f t="shared" si="13"/>
         <v>38.185812970916096</v>
       </c>
-      <c r="O106">
+      <c r="O106" s="61">
         <v>2024</v>
       </c>
-      <c r="P106" t="s">
+      <c r="P106" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q106">
+      <c r="Q106" s="61">
         <v>568</v>
       </c>
-      <c r="R106">
+      <c r="R106" s="61">
         <f t="shared" si="10"/>
         <v>40.880106120000001</v>
       </c>
-      <c r="S106">
+      <c r="S106" s="61">
         <f t="shared" si="8"/>
         <v>2.3210000000000002</v>
       </c>
-      <c r="T106">
+      <c r="T106" s="61">
         <f t="shared" si="9"/>
         <v>2321</v>
       </c>
-      <c r="W106">
+      <c r="U106" s="61"/>
+      <c r="V106" s="61"/>
+      <c r="W106" s="61">
         <v>2.3210000000000002</v>
       </c>
-      <c r="Z106">
+      <c r="X106" s="61"/>
+      <c r="Y106" s="61"/>
+      <c r="Z106" s="61">
         <v>67.884600000000006</v>
       </c>
     </row>
@@ -6568,31 +6704,35 @@
         <f t="shared" si="13"/>
         <v>37.82500453717072</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="61">
         <v>2024</v>
       </c>
-      <c r="P107" t="s">
+      <c r="P107" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q107">
+      <c r="Q107" s="61">
         <v>568</v>
       </c>
-      <c r="R107">
+      <c r="R107" s="61">
         <f t="shared" si="10"/>
         <v>40.865291999999997</v>
       </c>
-      <c r="S107">
+      <c r="S107" s="61">
         <f t="shared" si="8"/>
         <v>2.3820000000000001</v>
       </c>
-      <c r="T107">
+      <c r="T107" s="61">
         <f t="shared" si="9"/>
         <v>2382</v>
       </c>
-      <c r="W107">
+      <c r="U107" s="61"/>
+      <c r="V107" s="61"/>
+      <c r="W107" s="61">
         <v>2.3820000000000001</v>
       </c>
-      <c r="Z107">
+      <c r="X107" s="61"/>
+      <c r="Y107" s="61"/>
+      <c r="Z107" s="61">
         <v>67.86</v>
       </c>
     </row>
@@ -6610,31 +6750,35 @@
         <f t="shared" si="13"/>
         <v>37.484348470455764</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="61">
         <v>2024</v>
       </c>
-      <c r="P108" t="s">
+      <c r="P108" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q108">
+      <c r="Q108" s="61">
         <v>568</v>
       </c>
-      <c r="R108">
+      <c r="R108" s="61">
         <f t="shared" si="10"/>
         <v>40.862461659999994</v>
       </c>
-      <c r="S108">
+      <c r="S108" s="61">
         <f t="shared" si="8"/>
         <v>2.3919999999999999</v>
       </c>
-      <c r="T108">
+      <c r="T108" s="61">
         <f t="shared" si="9"/>
         <v>2392</v>
       </c>
-      <c r="W108">
+      <c r="U108" s="61"/>
+      <c r="V108" s="61"/>
+      <c r="W108" s="61">
         <v>2.3919999999999999</v>
       </c>
-      <c r="Z108">
+      <c r="X108" s="61"/>
+      <c r="Y108" s="61"/>
+      <c r="Z108" s="61">
         <v>67.8553</v>
       </c>
     </row>
@@ -6652,31 +6796,35 @@
         <f t="shared" si="13"/>
         <v>37.145743892060047</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="61">
         <v>2024</v>
       </c>
-      <c r="P109" t="s">
+      <c r="P109" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q109">
+      <c r="Q109" s="61">
         <v>568</v>
       </c>
-      <c r="R109">
+      <c r="R109" s="61">
         <f t="shared" si="10"/>
         <v>40.852043599999995</v>
       </c>
-      <c r="S109">
+      <c r="S109" s="61">
         <f t="shared" si="8"/>
         <v>2.4319999999999999</v>
       </c>
-      <c r="T109">
+      <c r="T109" s="61">
         <f t="shared" si="9"/>
         <v>2432</v>
       </c>
-      <c r="W109">
+      <c r="U109" s="61"/>
+      <c r="V109" s="61"/>
+      <c r="W109" s="61">
         <v>2.4319999999999999</v>
       </c>
-      <c r="Z109">
+      <c r="X109" s="61"/>
+      <c r="Y109" s="61"/>
+      <c r="Z109" s="61">
         <v>67.837999999999994</v>
       </c>
     </row>
@@ -6694,31 +6842,35 @@
         <f t="shared" si="13"/>
         <v>36.862189823801138</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="61">
         <v>2024</v>
       </c>
-      <c r="P110" t="s">
+      <c r="P110" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q110">
+      <c r="Q110" s="61">
         <v>568</v>
       </c>
-      <c r="R110">
+      <c r="R110" s="61">
         <f t="shared" si="10"/>
         <v>40.814104999999998</v>
       </c>
-      <c r="S110">
+      <c r="S110" s="61">
         <f t="shared" si="8"/>
         <v>2.58</v>
       </c>
-      <c r="T110">
+      <c r="T110" s="61">
         <f t="shared" si="9"/>
         <v>2580</v>
       </c>
-      <c r="W110">
+      <c r="U110" s="61"/>
+      <c r="V110" s="61"/>
+      <c r="W110" s="61">
         <v>2.58</v>
       </c>
-      <c r="Z110">
+      <c r="X110" s="61"/>
+      <c r="Y110" s="61"/>
+      <c r="Z110" s="61">
         <v>67.775000000000006</v>
       </c>
     </row>
@@ -6736,31 +6888,35 @@
         <f t="shared" si="13"/>
         <v>36.580082456825849</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="61">
         <v>2024</v>
       </c>
-      <c r="P111" t="s">
+      <c r="P111" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q111">
+      <c r="Q111" s="61">
         <v>568</v>
       </c>
-      <c r="R111">
+      <c r="R111" s="61">
         <f t="shared" si="10"/>
         <v>40.807480799999993</v>
       </c>
-      <c r="S111">
+      <c r="S111" s="61">
         <f t="shared" si="8"/>
         <v>2.613</v>
       </c>
-      <c r="T111">
+      <c r="T111" s="61">
         <f t="shared" si="9"/>
         <v>2613</v>
       </c>
-      <c r="W111">
+      <c r="U111" s="61"/>
+      <c r="V111" s="61"/>
+      <c r="W111" s="61">
         <v>2.613</v>
       </c>
-      <c r="Z111">
+      <c r="X111" s="61"/>
+      <c r="Y111" s="61"/>
+      <c r="Z111" s="61">
         <v>67.763999999999996</v>
       </c>
     </row>
@@ -6778,31 +6934,35 @@
         <f t="shared" si="13"/>
         <v>36.316917408566098</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="61">
         <v>2024</v>
       </c>
-      <c r="P112" t="s">
+      <c r="P112" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q112">
+      <c r="Q112" s="61">
         <v>568</v>
       </c>
-      <c r="R112">
+      <c r="R112" s="61">
         <f t="shared" si="10"/>
         <v>40.790016999999999</v>
       </c>
-      <c r="S112">
+      <c r="S112" s="61">
         <f t="shared" si="8"/>
         <v>2.6829999999999998</v>
       </c>
-      <c r="T112">
+      <c r="T112" s="61">
         <f t="shared" si="9"/>
         <v>2683</v>
       </c>
-      <c r="W112">
+      <c r="U112" s="61"/>
+      <c r="V112" s="61"/>
+      <c r="W112" s="61">
         <v>2.6829999999999998</v>
       </c>
-      <c r="Z112">
+      <c r="X112" s="61"/>
+      <c r="Y112" s="61"/>
+      <c r="Z112" s="61">
         <v>67.734999999999999</v>
       </c>
     </row>
@@ -6820,31 +6980,35 @@
         <f t="shared" si="13"/>
         <v>36.037602496216948</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="61">
         <v>2024</v>
       </c>
-      <c r="P113" t="s">
+      <c r="P113" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q113">
+      <c r="Q113" s="61">
         <v>568</v>
       </c>
-      <c r="R113">
+      <c r="R113" s="61">
         <f t="shared" si="10"/>
         <v>40.774961999999995</v>
       </c>
-      <c r="S113">
+      <c r="S113" s="61">
         <f t="shared" si="8"/>
         <v>2.7440000000000002</v>
       </c>
-      <c r="T113">
+      <c r="T113" s="61">
         <f t="shared" si="9"/>
         <v>2744</v>
       </c>
-      <c r="W113">
+      <c r="U113" s="61"/>
+      <c r="V113" s="61"/>
+      <c r="W113" s="61">
         <v>2.7440000000000002</v>
       </c>
-      <c r="Z113">
+      <c r="X113" s="61"/>
+      <c r="Y113" s="61"/>
+      <c r="Z113" s="61">
         <v>67.709999999999994</v>
       </c>
     </row>
@@ -6869,31 +7033,35 @@
         <f>I114^3</f>
         <v>256.28988620800004</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="61">
         <v>2024</v>
       </c>
-      <c r="P114" t="s">
+      <c r="P114" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q114">
+      <c r="Q114" s="61">
         <v>568</v>
       </c>
-      <c r="R114">
+      <c r="R114" s="61">
         <f t="shared" si="10"/>
         <v>40.758702599999999</v>
       </c>
-      <c r="S114">
+      <c r="S114" s="61">
         <f t="shared" si="8"/>
         <v>2.8140000000000001</v>
       </c>
-      <c r="T114">
+      <c r="T114" s="61">
         <f t="shared" si="9"/>
         <v>2814</v>
       </c>
-      <c r="W114">
+      <c r="U114" s="61"/>
+      <c r="V114" s="61"/>
+      <c r="W114" s="61">
         <v>2.8140000000000001</v>
       </c>
-      <c r="Z114">
+      <c r="X114" s="61"/>
+      <c r="Y114" s="61"/>
+      <c r="Z114" s="61">
         <v>67.683000000000007</v>
       </c>
     </row>
@@ -6918,31 +7086,35 @@
         <f t="shared" ref="J115:J146" si="14">I115^3</f>
         <v>256.04787499999998</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="61">
         <v>2024</v>
       </c>
-      <c r="P115" t="s">
+      <c r="P115" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q115">
+      <c r="Q115" s="61">
         <v>568</v>
       </c>
-      <c r="R115">
+      <c r="R115" s="61">
         <f t="shared" si="10"/>
         <v>40.659941799999999</v>
       </c>
-      <c r="S115">
+      <c r="S115" s="61">
         <f t="shared" si="8"/>
         <v>3.2</v>
       </c>
-      <c r="T115">
+      <c r="T115" s="61">
         <f t="shared" si="9"/>
         <v>3200</v>
       </c>
-      <c r="W115">
+      <c r="U115" s="61"/>
+      <c r="V115" s="61"/>
+      <c r="W115" s="61">
         <v>3.2</v>
       </c>
-      <c r="Z115">
+      <c r="X115" s="61"/>
+      <c r="Y115" s="61"/>
+      <c r="Z115" s="61">
         <v>67.519000000000005</v>
       </c>
     </row>
@@ -6967,31 +7139,35 @@
         <f t="shared" si="14"/>
         <v>253.63613699999999</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="61">
         <v>2024</v>
       </c>
-      <c r="P116" t="s">
+      <c r="P116" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q116">
+      <c r="Q116" s="61">
         <v>568</v>
       </c>
-      <c r="R116">
+      <c r="R116" s="61">
         <f t="shared" si="10"/>
         <v>40.597915199999996</v>
       </c>
-      <c r="S116">
+      <c r="S116" s="61">
         <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
-      <c r="T116">
+      <c r="T116" s="61">
         <f t="shared" si="9"/>
         <v>3500</v>
       </c>
-      <c r="W116">
+      <c r="U116" s="61"/>
+      <c r="V116" s="61"/>
+      <c r="W116" s="61">
         <v>3.5</v>
       </c>
-      <c r="Z116">
+      <c r="X116" s="61"/>
+      <c r="Y116" s="61"/>
+      <c r="Z116" s="61">
         <v>67.415999999999997</v>
       </c>
     </row>
@@ -7016,31 +7192,35 @@
         <f t="shared" si="14"/>
         <v>251.23959099999993</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="61">
         <v>2024</v>
       </c>
-      <c r="P117" t="s">
+      <c r="P117" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q117">
+      <c r="Q117" s="61">
         <v>568</v>
       </c>
-      <c r="R117">
+      <c r="R117" s="61">
         <f t="shared" si="10"/>
         <v>40.569611799999997</v>
       </c>
-      <c r="S117">
+      <c r="S117" s="61">
         <f t="shared" si="8"/>
         <v>3.5920000000000001</v>
       </c>
-      <c r="T117">
+      <c r="T117" s="61">
         <f t="shared" si="9"/>
         <v>3592</v>
       </c>
-      <c r="W117">
+      <c r="U117" s="61"/>
+      <c r="V117" s="61"/>
+      <c r="W117" s="61">
         <v>3.5920000000000001</v>
       </c>
-      <c r="Z117">
+      <c r="X117" s="61"/>
+      <c r="Y117" s="61"/>
+      <c r="Z117" s="61">
         <v>67.369</v>
       </c>
     </row>
@@ -7065,31 +7245,35 @@
         <f t="shared" si="14"/>
         <v>248.97690017100007</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="61">
         <v>2024</v>
       </c>
-      <c r="P118" t="s">
+      <c r="P118" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q118">
+      <c r="Q118" s="61">
         <v>568</v>
       </c>
-      <c r="R118">
+      <c r="R118" s="61">
         <f t="shared" si="10"/>
         <v>40.570214</v>
       </c>
-      <c r="S118">
+      <c r="S118" s="61">
         <f t="shared" si="8"/>
         <v>3.5840000000000001</v>
       </c>
-      <c r="T118">
+      <c r="T118" s="61">
         <f t="shared" si="9"/>
         <v>3584</v>
       </c>
-      <c r="W118">
+      <c r="U118" s="61"/>
+      <c r="V118" s="61"/>
+      <c r="W118" s="61">
         <v>3.5840000000000001</v>
       </c>
-      <c r="Z118">
+      <c r="X118" s="61"/>
+      <c r="Y118" s="61"/>
+      <c r="Z118" s="61">
         <v>67.37</v>
       </c>
     </row>
@@ -7114,31 +7298,35 @@
         <f t="shared" si="14"/>
         <v>246.72783564800005</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="61">
         <v>2024</v>
       </c>
-      <c r="P119" t="s">
+      <c r="P119" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q119">
+      <c r="Q119" s="61">
         <v>568</v>
       </c>
-      <c r="R119">
+      <c r="R119" s="61">
         <f t="shared" si="10"/>
         <v>40.546125999999994</v>
       </c>
-      <c r="S119">
+      <c r="S119" s="61">
         <f t="shared" si="8"/>
         <v>3.7</v>
       </c>
-      <c r="T119">
+      <c r="T119" s="61">
         <f t="shared" si="9"/>
         <v>3700</v>
       </c>
-      <c r="W119">
+      <c r="U119" s="61"/>
+      <c r="V119" s="61"/>
+      <c r="W119" s="61">
         <v>3.7</v>
       </c>
-      <c r="Z119">
+      <c r="X119" s="61"/>
+      <c r="Y119" s="61"/>
+      <c r="Z119" s="61">
         <v>67.33</v>
       </c>
     </row>
@@ -7163,31 +7351,35 @@
         <f t="shared" si="14"/>
         <v>244.84442521600005</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="61">
         <v>2024</v>
       </c>
-      <c r="P120" t="s">
+      <c r="P120" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q120">
+      <c r="Q120" s="61">
         <v>568</v>
       </c>
-      <c r="R120">
+      <c r="R120" s="61">
         <f t="shared" si="10"/>
         <v>40.513607199999996</v>
       </c>
-      <c r="S120">
+      <c r="S120" s="61">
         <f t="shared" si="8"/>
         <v>3.8</v>
       </c>
-      <c r="T120">
+      <c r="T120" s="61">
         <f t="shared" si="9"/>
         <v>3800</v>
       </c>
-      <c r="W120">
+      <c r="U120" s="61"/>
+      <c r="V120" s="61"/>
+      <c r="W120" s="61">
         <v>3.8</v>
       </c>
-      <c r="Z120">
+      <c r="X120" s="61"/>
+      <c r="Y120" s="61"/>
+      <c r="Z120" s="61">
         <v>67.275999999999996</v>
       </c>
     </row>
@@ -7212,31 +7404,35 @@
         <f t="shared" si="14"/>
         <v>242.97062400000002</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="61">
         <v>2024</v>
       </c>
-      <c r="P121" t="s">
+      <c r="P121" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q121">
+      <c r="Q121" s="61">
         <v>568</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="61">
         <f t="shared" si="10"/>
         <v>40.325720799999999</v>
       </c>
-      <c r="S121">
+      <c r="S121" s="61">
         <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="T121">
+      <c r="T121" s="61">
         <f t="shared" si="9"/>
         <v>4600</v>
       </c>
-      <c r="W121">
+      <c r="U121" s="61"/>
+      <c r="V121" s="61"/>
+      <c r="W121" s="61">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z121">
+      <c r="X121" s="61"/>
+      <c r="Y121" s="61"/>
+      <c r="Z121" s="61">
         <v>66.963999999999999</v>
       </c>
     </row>
@@ -7261,31 +7457,35 @@
         <f t="shared" si="14"/>
         <v>241.22264062499994</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="61">
         <v>2024</v>
       </c>
-      <c r="P122" t="s">
+      <c r="P122" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q122">
+      <c r="Q122" s="61">
         <v>568</v>
       </c>
-      <c r="R122">
+      <c r="R122" s="61">
         <f t="shared" si="10"/>
         <v>40.164933399999995</v>
       </c>
-      <c r="S122">
+      <c r="S122" s="61">
         <f t="shared" si="8"/>
         <v>5.3</v>
       </c>
-      <c r="T122">
+      <c r="T122" s="61">
         <f t="shared" si="9"/>
         <v>5300</v>
       </c>
-      <c r="W122">
+      <c r="U122" s="61"/>
+      <c r="V122" s="61"/>
+      <c r="W122" s="61">
         <v>5.3</v>
       </c>
-      <c r="Z122">
+      <c r="X122" s="61"/>
+      <c r="Y122" s="61"/>
+      <c r="Z122" s="61">
         <v>66.697000000000003</v>
       </c>
     </row>
@@ -7310,31 +7510,35 @@
         <f t="shared" si="14"/>
         <v>239.36738732899997</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="61">
         <v>2024</v>
       </c>
-      <c r="P123" t="s">
+      <c r="P123" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q123">
+      <c r="Q123" s="61">
         <v>568</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="61">
         <f t="shared" si="10"/>
         <v>40.067979199999996</v>
       </c>
-      <c r="S123">
+      <c r="S123" s="61">
         <f t="shared" si="8"/>
         <v>5.8</v>
       </c>
-      <c r="T123">
+      <c r="T123" s="61">
         <f t="shared" si="9"/>
         <v>5800</v>
       </c>
-      <c r="W123">
+      <c r="U123" s="61"/>
+      <c r="V123" s="61"/>
+      <c r="W123" s="61">
         <v>5.8</v>
       </c>
-      <c r="Z123">
+      <c r="X123" s="61"/>
+      <c r="Y123" s="61"/>
+      <c r="Z123" s="61">
         <v>66.536000000000001</v>
       </c>
     </row>
@@ -7359,31 +7563,35 @@
         <f t="shared" si="14"/>
         <v>237.75186487500002</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="61">
         <v>2024</v>
       </c>
-      <c r="P124" t="s">
+      <c r="P124" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q124">
+      <c r="Q124" s="61">
         <v>568</v>
       </c>
-      <c r="R124">
+      <c r="R124" s="61">
         <f t="shared" si="10"/>
         <v>39.873468599999995</v>
       </c>
-      <c r="S124">
+      <c r="S124" s="61">
         <f t="shared" si="8"/>
         <v>6.7</v>
       </c>
-      <c r="T124">
+      <c r="T124" s="61">
         <f t="shared" si="9"/>
         <v>6700</v>
       </c>
-      <c r="W124">
+      <c r="U124" s="61"/>
+      <c r="V124" s="61"/>
+      <c r="W124" s="61">
         <v>6.7</v>
       </c>
-      <c r="Z124">
+      <c r="X124" s="61"/>
+      <c r="Y124" s="61"/>
+      <c r="Z124" s="61">
         <v>66.212999999999994</v>
       </c>
     </row>
@@ -7408,31 +7616,35 @@
         <f t="shared" si="14"/>
         <v>236.37293048699999</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="61">
         <v>2024</v>
       </c>
-      <c r="P125" t="s">
+      <c r="P125" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q125">
+      <c r="Q125" s="61">
         <v>568</v>
       </c>
-      <c r="R125">
+      <c r="R125" s="61">
         <f t="shared" si="10"/>
         <v>39.720509800000002</v>
       </c>
-      <c r="S125">
+      <c r="S125" s="61">
         <f t="shared" ref="S125:S188" si="15">W125</f>
         <v>7.4</v>
       </c>
-      <c r="T125">
+      <c r="T125" s="61">
         <f t="shared" ref="T125:T188" si="16">W125*1000</f>
         <v>7400</v>
       </c>
-      <c r="W125">
+      <c r="U125" s="61"/>
+      <c r="V125" s="61"/>
+      <c r="W125" s="61">
         <v>7.4</v>
       </c>
-      <c r="Z125">
+      <c r="X125" s="61"/>
+      <c r="Y125" s="61"/>
+      <c r="Z125" s="61">
         <v>65.959000000000003</v>
       </c>
     </row>
@@ -7457,31 +7669,35 @@
         <f t="shared" si="14"/>
         <v>234.99933821100004</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="61">
         <v>2024</v>
       </c>
-      <c r="P126" t="s">
+      <c r="P126" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q126">
+      <c r="Q126" s="61">
         <v>568</v>
       </c>
-      <c r="R126">
+      <c r="R126" s="61">
         <f t="shared" si="10"/>
         <v>39.463972599999998</v>
       </c>
-      <c r="S126">
+      <c r="S126" s="61">
         <f t="shared" si="15"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="T126">
+      <c r="T126" s="61">
         <f t="shared" si="16"/>
         <v>8700</v>
       </c>
-      <c r="W126">
+      <c r="U126" s="61"/>
+      <c r="V126" s="61"/>
+      <c r="W126" s="61">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Z126">
+      <c r="X126" s="61"/>
+      <c r="Y126" s="61"/>
+      <c r="Z126" s="61">
         <v>65.533000000000001</v>
       </c>
     </row>
@@ -7506,31 +7722,35 @@
         <f t="shared" si="14"/>
         <v>233.63107767899999</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="61">
         <v>2024</v>
       </c>
-      <c r="P127" t="s">
+      <c r="P127" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q127">
+      <c r="Q127" s="61">
         <v>568</v>
       </c>
-      <c r="R127">
+      <c r="R127" s="61">
         <f t="shared" si="10"/>
         <v>39.283914799999991</v>
       </c>
-      <c r="S127">
+      <c r="S127" s="61">
         <f t="shared" si="15"/>
         <v>9.6</v>
       </c>
-      <c r="T127">
+      <c r="T127" s="61">
         <f t="shared" si="16"/>
         <v>9600</v>
       </c>
-      <c r="W127">
+      <c r="U127" s="61"/>
+      <c r="V127" s="61"/>
+      <c r="W127" s="61">
         <v>9.6</v>
       </c>
-      <c r="Z127">
+      <c r="X127" s="61"/>
+      <c r="Y127" s="61"/>
+      <c r="Z127" s="61">
         <v>65.233999999999995</v>
       </c>
     </row>
@@ -7555,31 +7775,35 @@
         <f t="shared" si="14"/>
         <v>232.38151379199996</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="61">
         <v>2024</v>
       </c>
-      <c r="P128" t="s">
+      <c r="P128" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q128">
+      <c r="Q128" s="61">
         <v>568</v>
       </c>
-      <c r="R128">
+      <c r="R128" s="61">
         <f t="shared" si="10"/>
         <v>39.157452799999994</v>
       </c>
-      <c r="S128">
+      <c r="S128" s="61">
         <f t="shared" si="15"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="T128">
+      <c r="T128" s="61">
         <f t="shared" si="16"/>
         <v>10200</v>
       </c>
-      <c r="W128">
+      <c r="U128" s="61"/>
+      <c r="V128" s="61"/>
+      <c r="W128" s="61">
         <v>10.199999999999999</v>
       </c>
-      <c r="Z128">
+      <c r="X128" s="61"/>
+      <c r="Y128" s="61"/>
+      <c r="Z128" s="61">
         <v>65.024000000000001</v>
       </c>
     </row>
@@ -7604,31 +7828,35 @@
         <f t="shared" si="14"/>
         <v>231.36246361900004</v>
       </c>
-      <c r="O129">
+      <c r="O129" s="61">
         <v>2024</v>
       </c>
-      <c r="P129" t="s">
+      <c r="P129" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q129">
+      <c r="Q129" s="61">
         <v>568</v>
       </c>
-      <c r="R129">
+      <c r="R129" s="61">
         <f t="shared" si="10"/>
         <v>38.902722199999999</v>
       </c>
-      <c r="S129">
+      <c r="S129" s="61">
         <f t="shared" si="15"/>
         <v>11.6</v>
       </c>
-      <c r="T129">
+      <c r="T129" s="61">
         <f t="shared" si="16"/>
         <v>11600</v>
       </c>
-      <c r="W129">
+      <c r="U129" s="61"/>
+      <c r="V129" s="61"/>
+      <c r="W129" s="61">
         <v>11.6</v>
       </c>
-      <c r="Z129">
+      <c r="X129" s="61"/>
+      <c r="Y129" s="61"/>
+      <c r="Z129" s="61">
         <v>64.600999999999999</v>
       </c>
     </row>
@@ -7653,31 +7881,35 @@
         <f t="shared" si="14"/>
         <v>230.91051037499997</v>
       </c>
-      <c r="O130">
+      <c r="O130" s="61">
         <v>2024</v>
       </c>
-      <c r="P130" t="s">
+      <c r="P130" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q130">
+      <c r="Q130" s="61">
         <v>568</v>
       </c>
-      <c r="R130">
+      <c r="R130" s="61">
         <f t="shared" si="10"/>
         <v>38.495634999999993</v>
       </c>
-      <c r="S130">
+      <c r="S130" s="61">
         <f t="shared" si="15"/>
         <v>13.9</v>
       </c>
-      <c r="T130">
+      <c r="T130" s="61">
         <f t="shared" si="16"/>
         <v>13900</v>
       </c>
-      <c r="W130">
+      <c r="U130" s="61"/>
+      <c r="V130" s="61"/>
+      <c r="W130" s="61">
         <v>13.9</v>
       </c>
-      <c r="Z130">
+      <c r="X130" s="61"/>
+      <c r="Y130" s="61"/>
+      <c r="Z130" s="61">
         <v>63.924999999999997</v>
       </c>
     </row>
@@ -7702,31 +7934,35 @@
         <f t="shared" si="14"/>
         <v>230.79761410400002</v>
       </c>
-      <c r="O131">
+      <c r="O131" s="61">
         <v>2024</v>
       </c>
-      <c r="P131" t="s">
+      <c r="P131" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q131">
+      <c r="Q131" s="61">
         <v>568</v>
       </c>
-      <c r="R131">
+      <c r="R131" s="61">
         <f t="shared" si="10"/>
         <v>38.443243599999995</v>
       </c>
-      <c r="S131">
+      <c r="S131" s="61">
         <f t="shared" si="15"/>
         <v>14.2</v>
       </c>
-      <c r="T131">
+      <c r="T131" s="61">
         <f t="shared" si="16"/>
         <v>14200</v>
       </c>
-      <c r="W131">
+      <c r="U131" s="61"/>
+      <c r="V131" s="61"/>
+      <c r="W131" s="61">
         <v>14.2</v>
       </c>
-      <c r="Z131">
+      <c r="X131" s="61"/>
+      <c r="Y131" s="61"/>
+      <c r="Z131" s="61">
         <v>63.838000000000001</v>
       </c>
     </row>
@@ -7751,31 +7987,35 @@
         <f t="shared" si="14"/>
         <v>230.57193196799994</v>
       </c>
-      <c r="O132">
+      <c r="O132" s="61">
         <v>2024</v>
       </c>
-      <c r="P132" t="s">
+      <c r="P132" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q132">
+      <c r="Q132" s="61">
         <v>568</v>
       </c>
-      <c r="R132">
+      <c r="R132" s="61">
         <f t="shared" si="10"/>
         <v>38.396874199999999</v>
       </c>
-      <c r="S132">
+      <c r="S132" s="61">
         <f t="shared" si="15"/>
         <v>14.5</v>
       </c>
-      <c r="T132">
+      <c r="T132" s="61">
         <f t="shared" si="16"/>
         <v>14500</v>
       </c>
-      <c r="W132">
+      <c r="U132" s="61"/>
+      <c r="V132" s="61"/>
+      <c r="W132" s="61">
         <v>14.5</v>
       </c>
-      <c r="Z132">
+      <c r="X132" s="61"/>
+      <c r="Y132" s="61"/>
+      <c r="Z132" s="61">
         <v>63.761000000000003</v>
       </c>
     </row>
@@ -7800,31 +8040,35 @@
         <f t="shared" si="14"/>
         <v>230.57193196799994</v>
       </c>
-      <c r="O133">
+      <c r="O133" s="61">
         <v>2024</v>
       </c>
-      <c r="P133" t="s">
+      <c r="P133" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q133">
+      <c r="Q133" s="61">
         <v>568</v>
       </c>
-      <c r="R133">
+      <c r="R133" s="61">
         <f t="shared" si="10"/>
         <v>38.286069399999995</v>
       </c>
-      <c r="S133">
+      <c r="S133" s="61">
         <f t="shared" si="15"/>
         <v>15.2</v>
       </c>
-      <c r="T133">
+      <c r="T133" s="61">
         <f t="shared" si="16"/>
         <v>15200</v>
       </c>
-      <c r="W133">
+      <c r="U133" s="61"/>
+      <c r="V133" s="61"/>
+      <c r="W133" s="61">
         <v>15.2</v>
       </c>
-      <c r="Z133">
+      <c r="X133" s="61"/>
+      <c r="Y133" s="61"/>
+      <c r="Z133" s="61">
         <v>63.576999999999998</v>
       </c>
     </row>
@@ -7849,31 +8093,35 @@
         <f t="shared" si="14"/>
         <v>230.79761410400002</v>
       </c>
-      <c r="O134">
+      <c r="O134" s="61">
         <v>2024</v>
       </c>
-      <c r="P134" t="s">
+      <c r="P134" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q134">
+      <c r="Q134" s="61">
         <v>568</v>
       </c>
-      <c r="R134">
+      <c r="R134" s="61">
         <f t="shared" si="10"/>
         <v>38.201761399999995</v>
       </c>
-      <c r="S134">
+      <c r="S134" s="61">
         <f t="shared" si="15"/>
         <v>15.7</v>
       </c>
-      <c r="T134">
+      <c r="T134" s="61">
         <f t="shared" si="16"/>
         <v>15700</v>
       </c>
-      <c r="W134">
+      <c r="U134" s="61"/>
+      <c r="V134" s="61"/>
+      <c r="W134" s="61">
         <v>15.7</v>
       </c>
-      <c r="Z134">
+      <c r="X134" s="61"/>
+      <c r="Y134" s="61"/>
+      <c r="Z134" s="61">
         <v>63.436999999999998</v>
       </c>
     </row>
@@ -7898,31 +8146,35 @@
         <f t="shared" si="14"/>
         <v>231.588661221</v>
       </c>
-      <c r="O135">
+      <c r="O135" s="61">
         <v>2024</v>
       </c>
-      <c r="P135" t="s">
+      <c r="P135" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q135">
+      <c r="Q135" s="61">
         <v>568</v>
       </c>
-      <c r="R135">
+      <c r="R135" s="61">
         <f t="shared" si="10"/>
         <v>38.118657799999994</v>
       </c>
-      <c r="S135">
+      <c r="S135" s="61">
         <f t="shared" si="15"/>
         <v>16.2</v>
       </c>
-      <c r="T135">
+      <c r="T135" s="61">
         <f t="shared" si="16"/>
         <v>16200</v>
       </c>
-      <c r="W135">
+      <c r="U135" s="61"/>
+      <c r="V135" s="61"/>
+      <c r="W135" s="61">
         <v>16.2</v>
       </c>
-      <c r="Z135">
+      <c r="X135" s="61"/>
+      <c r="Y135" s="61"/>
+      <c r="Z135" s="61">
         <v>63.298999999999999</v>
       </c>
     </row>
@@ -7947,31 +8199,35 @@
         <f t="shared" si="14"/>
         <v>232.60837500000005</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="61">
         <v>2024</v>
       </c>
-      <c r="P136" t="s">
+      <c r="P136" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q136">
+      <c r="Q136" s="61">
         <v>568</v>
       </c>
-      <c r="R136">
+      <c r="R136" s="61">
         <f t="shared" ref="R136:R199" si="17">Z136*0.6022</f>
         <v>37.925953799999995</v>
       </c>
-      <c r="S136">
+      <c r="S136" s="61">
         <f t="shared" si="15"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="T136">
+      <c r="T136" s="61">
         <f t="shared" si="16"/>
         <v>17400</v>
       </c>
-      <c r="W136">
+      <c r="U136" s="61"/>
+      <c r="V136" s="61"/>
+      <c r="W136" s="61">
         <v>17.399999999999999</v>
       </c>
-      <c r="Z136">
+      <c r="X136" s="61"/>
+      <c r="Y136" s="61"/>
+      <c r="Z136" s="61">
         <v>62.978999999999999</v>
       </c>
     </row>
@@ -7995,31 +8251,35 @@
         <f t="shared" si="14"/>
         <v>234.08657274700005</v>
       </c>
-      <c r="O137">
+      <c r="O137" s="61">
         <v>2024</v>
       </c>
-      <c r="P137" t="s">
+      <c r="P137" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q137">
+      <c r="Q137" s="61">
         <v>568</v>
       </c>
-      <c r="R137">
+      <c r="R137" s="61">
         <f t="shared" si="17"/>
         <v>37.757939999999998</v>
       </c>
-      <c r="S137">
+      <c r="S137" s="61">
         <f t="shared" si="15"/>
         <v>18.5</v>
       </c>
-      <c r="T137">
+      <c r="T137" s="61">
         <f t="shared" si="16"/>
         <v>18500</v>
       </c>
-      <c r="W137">
+      <c r="U137" s="61"/>
+      <c r="V137" s="61"/>
+      <c r="W137" s="61">
         <v>18.5</v>
       </c>
-      <c r="Z137">
+      <c r="X137" s="61"/>
+      <c r="Y137" s="61"/>
+      <c r="Z137" s="61">
         <v>62.7</v>
       </c>
     </row>
@@ -8043,31 +8303,35 @@
         <f t="shared" si="14"/>
         <v>235.68546723299994</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="61">
         <v>2024</v>
       </c>
-      <c r="P138" t="s">
+      <c r="P138" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q138">
+      <c r="Q138" s="61">
         <v>568</v>
       </c>
-      <c r="R138">
+      <c r="R138" s="61">
         <f t="shared" si="17"/>
         <v>37.547772199999997</v>
       </c>
-      <c r="S138">
+      <c r="S138" s="61">
         <f t="shared" si="15"/>
         <v>19.899999999999999</v>
       </c>
-      <c r="T138">
+      <c r="T138" s="61">
         <f t="shared" si="16"/>
         <v>19900</v>
       </c>
-      <c r="W138">
+      <c r="U138" s="61"/>
+      <c r="V138" s="61"/>
+      <c r="W138" s="61">
         <v>19.899999999999999</v>
       </c>
-      <c r="Z138">
+      <c r="X138" s="61"/>
+      <c r="Y138" s="61"/>
+      <c r="Z138" s="61">
         <v>62.350999999999999</v>
       </c>
     </row>
@@ -8091,31 +8355,35 @@
         <f t="shared" si="14"/>
         <v>237.06172926900001</v>
       </c>
-      <c r="O139">
+      <c r="O139" s="61">
         <v>2024</v>
       </c>
-      <c r="P139" t="s">
+      <c r="P139" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q139">
+      <c r="Q139" s="61">
         <v>568</v>
       </c>
-      <c r="R139">
+      <c r="R139" s="61">
         <f t="shared" si="17"/>
         <v>37.197893999999998</v>
       </c>
-      <c r="S139">
+      <c r="S139" s="61">
         <f t="shared" si="15"/>
         <v>22.3</v>
       </c>
-      <c r="T139">
+      <c r="T139" s="61">
         <f t="shared" si="16"/>
         <v>22300</v>
       </c>
-      <c r="W139">
+      <c r="U139" s="61"/>
+      <c r="V139" s="61"/>
+      <c r="W139" s="61">
         <v>22.3</v>
       </c>
-      <c r="Z139">
+      <c r="X139" s="61"/>
+      <c r="Y139" s="61"/>
+      <c r="Z139" s="61">
         <v>61.77</v>
       </c>
     </row>
@@ -8139,31 +8407,35 @@
         <f t="shared" si="14"/>
         <v>238.67412742700003</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="61">
         <v>2024</v>
       </c>
-      <c r="P140" t="s">
+      <c r="P140" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" s="61">
         <v>568</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="61">
         <f t="shared" si="17"/>
         <v>37.0840782</v>
       </c>
-      <c r="S140">
+      <c r="S140" s="61">
         <f t="shared" si="15"/>
         <v>23.2</v>
       </c>
-      <c r="T140">
+      <c r="T140" s="61">
         <f t="shared" si="16"/>
         <v>23200</v>
       </c>
-      <c r="W140">
+      <c r="U140" s="61"/>
+      <c r="V140" s="61"/>
+      <c r="W140" s="61">
         <v>23.2</v>
       </c>
-      <c r="Z140">
+      <c r="X140" s="61"/>
+      <c r="Y140" s="61"/>
+      <c r="Z140" s="61">
         <v>61.581000000000003</v>
       </c>
     </row>
@@ -8187,31 +8459,35 @@
         <f t="shared" si="14"/>
         <v>240.52580145900001</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="61">
         <v>2024</v>
       </c>
-      <c r="P141" t="s">
+      <c r="P141" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" s="61">
         <v>568</v>
       </c>
-      <c r="R141">
+      <c r="R141" s="61">
         <f t="shared" si="17"/>
         <v>36.981101999999993</v>
       </c>
-      <c r="S141">
+      <c r="S141" s="61">
         <f t="shared" si="15"/>
         <v>23.9</v>
       </c>
-      <c r="T141">
+      <c r="T141" s="61">
         <f t="shared" si="16"/>
         <v>23900</v>
       </c>
-      <c r="W141">
+      <c r="U141" s="61"/>
+      <c r="V141" s="61"/>
+      <c r="W141" s="61">
         <v>23.9</v>
       </c>
-      <c r="Z141">
+      <c r="X141" s="61"/>
+      <c r="Y141" s="61"/>
+      <c r="Z141" s="61">
         <v>61.41</v>
       </c>
     </row>
@@ -8223,31 +8499,35 @@
         <f t="shared" si="14"/>
         <v>242.03731916800004</v>
       </c>
-      <c r="O142">
+      <c r="O142" s="61">
         <v>2024</v>
       </c>
-      <c r="P142" t="s">
+      <c r="P142" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q142">
+      <c r="Q142" s="61">
         <v>568</v>
       </c>
-      <c r="R142">
+      <c r="R142" s="61">
         <f t="shared" si="17"/>
         <v>36.9154622</v>
       </c>
-      <c r="S142">
+      <c r="S142" s="61">
         <f t="shared" si="15"/>
         <v>24.4</v>
       </c>
-      <c r="T142">
+      <c r="T142" s="61">
         <f t="shared" si="16"/>
         <v>24400</v>
       </c>
-      <c r="W142">
+      <c r="U142" s="61"/>
+      <c r="V142" s="61"/>
+      <c r="W142" s="61">
         <v>24.4</v>
       </c>
-      <c r="Z142">
+      <c r="X142" s="61"/>
+      <c r="Y142" s="61"/>
+      <c r="Z142" s="61">
         <v>61.301000000000002</v>
       </c>
     </row>
@@ -8259,31 +8539,35 @@
         <f t="shared" si="14"/>
         <v>243.78923122299997</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="61">
         <v>2024</v>
       </c>
-      <c r="P143" t="s">
+      <c r="P143" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q143">
+      <c r="Q143" s="61">
         <v>568</v>
       </c>
-      <c r="R143">
+      <c r="R143" s="61">
         <f t="shared" si="17"/>
         <v>36.801044199999993</v>
       </c>
-      <c r="S143">
+      <c r="S143" s="61">
         <f t="shared" si="15"/>
         <v>25.3</v>
       </c>
-      <c r="T143">
+      <c r="T143" s="61">
         <f t="shared" si="16"/>
         <v>25300</v>
       </c>
-      <c r="W143">
+      <c r="U143" s="61"/>
+      <c r="V143" s="61"/>
+      <c r="W143" s="61">
         <v>25.3</v>
       </c>
-      <c r="Z143">
+      <c r="X143" s="61"/>
+      <c r="Y143" s="61"/>
+      <c r="Z143" s="61">
         <v>61.110999999999997</v>
       </c>
     </row>
@@ -8295,31 +8579,35 @@
         <f t="shared" si="14"/>
         <v>245.31437599999998</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="61">
         <v>2024</v>
       </c>
-      <c r="P144" t="s">
+      <c r="P144" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q144">
+      <c r="Q144" s="61">
         <v>568</v>
       </c>
-      <c r="R144">
+      <c r="R144" s="61">
         <f t="shared" si="17"/>
         <v>36.634234800000002</v>
       </c>
-      <c r="S144">
+      <c r="S144" s="61">
         <f t="shared" si="15"/>
         <v>26.6</v>
       </c>
-      <c r="T144">
+      <c r="T144" s="61">
         <f t="shared" si="16"/>
         <v>26600</v>
       </c>
-      <c r="W144">
+      <c r="U144" s="61"/>
+      <c r="V144" s="61"/>
+      <c r="W144" s="61">
         <v>26.6</v>
       </c>
-      <c r="Z144">
+      <c r="X144" s="61"/>
+      <c r="Y144" s="61"/>
+      <c r="Z144" s="61">
         <v>60.834000000000003</v>
       </c>
     </row>
@@ -8331,31 +8619,35 @@
         <f t="shared" si="14"/>
         <v>246.963938824</v>
       </c>
-      <c r="O145">
+      <c r="O145" s="61">
         <v>2024</v>
       </c>
-      <c r="P145" t="s">
+      <c r="P145" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q145">
+      <c r="Q145" s="61">
         <v>568</v>
       </c>
-      <c r="R145">
+      <c r="R145" s="61">
         <f t="shared" si="17"/>
         <v>36.460198999999996</v>
       </c>
-      <c r="S145">
+      <c r="S145" s="61">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="T145">
+      <c r="T145" s="61">
         <f t="shared" si="16"/>
         <v>28000</v>
       </c>
-      <c r="W145">
+      <c r="U145" s="61"/>
+      <c r="V145" s="61"/>
+      <c r="W145" s="61">
         <v>28</v>
       </c>
-      <c r="Z145">
+      <c r="X145" s="61"/>
+      <c r="Y145" s="61"/>
+      <c r="Z145" s="61">
         <v>60.545000000000002</v>
       </c>
     </row>
@@ -8367,1975 +8659,2247 @@
         <f t="shared" si="14"/>
         <v>248.62087987200002</v>
       </c>
-      <c r="O146">
+      <c r="O146" s="61">
         <v>2024</v>
       </c>
-      <c r="P146" t="s">
+      <c r="P146" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q146">
+      <c r="Q146" s="61">
         <v>568</v>
       </c>
-      <c r="R146">
+      <c r="R146" s="61">
         <f t="shared" si="17"/>
         <v>36.334339199999995</v>
       </c>
-      <c r="S146">
+      <c r="S146" s="61">
         <f t="shared" si="15"/>
         <v>29</v>
       </c>
-      <c r="T146">
+      <c r="T146" s="61">
         <f t="shared" si="16"/>
         <v>29000</v>
       </c>
-      <c r="W146">
+      <c r="U146" s="61"/>
+      <c r="V146" s="61"/>
+      <c r="W146" s="61">
         <v>29</v>
       </c>
-      <c r="Z146">
+      <c r="X146" s="61"/>
+      <c r="Y146" s="61"/>
+      <c r="Z146" s="61">
         <v>60.335999999999999</v>
       </c>
     </row>
     <row r="147" spans="9:26">
-      <c r="O147">
+      <c r="O147" s="61">
         <v>2024</v>
       </c>
-      <c r="P147" t="s">
+      <c r="P147" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q147">
+      <c r="Q147" s="61">
         <v>568</v>
       </c>
-      <c r="R147">
+      <c r="R147" s="61">
         <f t="shared" si="17"/>
         <v>36.25244</v>
       </c>
-      <c r="S147">
+      <c r="S147" s="61">
         <f t="shared" si="15"/>
         <v>29.7</v>
       </c>
-      <c r="T147">
+      <c r="T147" s="61">
         <f t="shared" si="16"/>
         <v>29700</v>
       </c>
-      <c r="W147">
+      <c r="U147" s="61"/>
+      <c r="V147" s="61"/>
+      <c r="W147" s="61">
         <v>29.7</v>
       </c>
-      <c r="Z147">
+      <c r="X147" s="61"/>
+      <c r="Y147" s="61"/>
+      <c r="Z147" s="61">
         <v>60.2</v>
       </c>
     </row>
     <row r="148" spans="9:26">
-      <c r="O148">
+      <c r="O148" s="61">
         <v>2024</v>
       </c>
-      <c r="P148" t="s">
+      <c r="P148" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q148">
+      <c r="Q148" s="61">
         <v>568</v>
       </c>
-      <c r="R148">
+      <c r="R148" s="61">
         <f t="shared" si="17"/>
         <v>36.132602199999994</v>
       </c>
-      <c r="S148">
+      <c r="S148" s="61">
         <f t="shared" si="15"/>
         <v>30.7</v>
       </c>
-      <c r="T148">
+      <c r="T148" s="61">
         <f t="shared" si="16"/>
         <v>30700</v>
       </c>
-      <c r="W148">
+      <c r="U148" s="61"/>
+      <c r="V148" s="61"/>
+      <c r="W148" s="61">
         <v>30.7</v>
       </c>
-      <c r="Z148">
+      <c r="X148" s="61"/>
+      <c r="Y148" s="61"/>
+      <c r="Z148" s="61">
         <v>60.000999999999998</v>
       </c>
     </row>
     <row r="149" spans="9:26">
-      <c r="O149">
+      <c r="O149" s="61">
         <v>2024</v>
       </c>
-      <c r="P149" t="s">
+      <c r="P149" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q149">
+      <c r="Q149" s="61">
         <v>568</v>
       </c>
-      <c r="R149">
+      <c r="R149" s="61">
         <f t="shared" si="17"/>
         <v>36.110320799999997</v>
       </c>
-      <c r="S149">
+      <c r="S149" s="61">
         <f t="shared" si="15"/>
         <v>30.9</v>
       </c>
-      <c r="T149">
+      <c r="T149" s="61">
         <f t="shared" si="16"/>
         <v>30900</v>
       </c>
-      <c r="W149">
+      <c r="U149" s="61"/>
+      <c r="V149" s="61"/>
+      <c r="W149" s="61">
         <v>30.9</v>
       </c>
-      <c r="Z149">
+      <c r="X149" s="61"/>
+      <c r="Y149" s="61"/>
+      <c r="Z149" s="61">
         <v>59.963999999999999</v>
       </c>
     </row>
     <row r="150" spans="9:26">
-      <c r="O150">
+      <c r="O150" s="61">
         <v>2024</v>
       </c>
-      <c r="P150" t="s">
+      <c r="P150" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q150">
+      <c r="Q150" s="61">
         <v>568</v>
       </c>
-      <c r="R150">
+      <c r="R150" s="61">
         <f t="shared" si="17"/>
         <v>35.907981599999999</v>
       </c>
-      <c r="S150">
+      <c r="S150" s="61">
         <f t="shared" si="15"/>
         <v>32.700000000000003</v>
       </c>
-      <c r="T150">
+      <c r="T150" s="61">
         <f t="shared" si="16"/>
         <v>32700.000000000004</v>
       </c>
-      <c r="W150">
+      <c r="U150" s="61"/>
+      <c r="V150" s="61"/>
+      <c r="W150" s="61">
         <v>32.700000000000003</v>
       </c>
-      <c r="Z150">
+      <c r="X150" s="61"/>
+      <c r="Y150" s="61"/>
+      <c r="Z150" s="61">
         <v>59.628</v>
       </c>
     </row>
     <row r="151" spans="9:26">
-      <c r="O151">
+      <c r="O151" s="61">
         <v>2024</v>
       </c>
-      <c r="P151" t="s">
+      <c r="P151" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q151">
+      <c r="Q151" s="61">
         <v>568</v>
       </c>
-      <c r="R151">
+      <c r="R151" s="61">
         <f t="shared" si="17"/>
         <v>35.827888999999999</v>
       </c>
-      <c r="S151">
+      <c r="S151" s="61">
         <f t="shared" si="15"/>
         <v>33.4</v>
       </c>
-      <c r="T151">
+      <c r="T151" s="61">
         <f t="shared" si="16"/>
         <v>33400</v>
       </c>
-      <c r="W151">
+      <c r="U151" s="61"/>
+      <c r="V151" s="61"/>
+      <c r="W151" s="61">
         <v>33.4</v>
       </c>
-      <c r="Z151">
+      <c r="X151" s="61"/>
+      <c r="Y151" s="61"/>
+      <c r="Z151" s="61">
         <v>59.494999999999997</v>
       </c>
     </row>
     <row r="152" spans="9:26">
-      <c r="O152">
+      <c r="O152" s="61">
         <v>2024</v>
       </c>
-      <c r="P152" t="s">
+      <c r="P152" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q152">
+      <c r="Q152" s="61">
         <v>568</v>
       </c>
-      <c r="R152">
+      <c r="R152" s="61">
         <f t="shared" si="17"/>
         <v>35.7038358</v>
       </c>
-      <c r="S152">
+      <c r="S152" s="61">
         <f t="shared" si="15"/>
         <v>34.5</v>
       </c>
-      <c r="T152">
+      <c r="T152" s="61">
         <f t="shared" si="16"/>
         <v>34500</v>
       </c>
-      <c r="W152">
+      <c r="U152" s="61"/>
+      <c r="V152" s="61"/>
+      <c r="W152" s="61">
         <v>34.5</v>
       </c>
-      <c r="Z152">
+      <c r="X152" s="61"/>
+      <c r="Y152" s="61"/>
+      <c r="Z152" s="61">
         <v>59.289000000000001</v>
       </c>
     </row>
     <row r="153" spans="9:26">
-      <c r="O153">
+      <c r="O153" s="61">
         <v>2024</v>
       </c>
-      <c r="P153" t="s">
+      <c r="P153" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q153">
+      <c r="Q153" s="61">
         <v>568</v>
       </c>
-      <c r="R153">
+      <c r="R153" s="61">
         <f t="shared" si="17"/>
         <v>35.457535999999998</v>
       </c>
-      <c r="S153">
+      <c r="S153" s="61">
         <f t="shared" si="15"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="T153">
+      <c r="T153" s="61">
         <f t="shared" si="16"/>
         <v>36800</v>
       </c>
-      <c r="W153">
+      <c r="U153" s="61"/>
+      <c r="V153" s="61"/>
+      <c r="W153" s="61">
         <v>36.799999999999997</v>
       </c>
-      <c r="Z153">
+      <c r="X153" s="61"/>
+      <c r="Y153" s="61"/>
+      <c r="Z153" s="61">
         <v>58.88</v>
       </c>
     </row>
     <row r="154" spans="9:26">
-      <c r="O154">
+      <c r="O154" s="61">
         <v>2024</v>
       </c>
-      <c r="P154" t="s">
+      <c r="P154" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q154">
+      <c r="Q154" s="61">
         <v>568</v>
       </c>
-      <c r="R154">
+      <c r="R154" s="61">
         <f t="shared" si="17"/>
         <v>35.199192199999999</v>
       </c>
-      <c r="S154">
+      <c r="S154" s="61">
         <f t="shared" si="15"/>
         <v>39.299999999999997</v>
       </c>
-      <c r="T154">
+      <c r="T154" s="61">
         <f t="shared" si="16"/>
         <v>39300</v>
       </c>
-      <c r="W154">
+      <c r="U154" s="61"/>
+      <c r="V154" s="61"/>
+      <c r="W154" s="61">
         <v>39.299999999999997</v>
       </c>
-      <c r="Z154">
+      <c r="X154" s="61"/>
+      <c r="Y154" s="61"/>
+      <c r="Z154" s="61">
         <v>58.451000000000001</v>
       </c>
     </row>
     <row r="155" spans="9:26">
-      <c r="O155">
+      <c r="O155" s="61">
         <v>2024</v>
       </c>
-      <c r="P155" t="s">
+      <c r="P155" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q155">
+      <c r="Q155" s="61">
         <v>568</v>
       </c>
-      <c r="R155">
+      <c r="R155" s="61">
         <f t="shared" si="17"/>
         <v>34.992035399999999</v>
       </c>
-      <c r="S155">
+      <c r="S155" s="61">
         <f t="shared" si="15"/>
         <v>41.4</v>
       </c>
-      <c r="T155">
+      <c r="T155" s="61">
         <f t="shared" si="16"/>
         <v>41400</v>
       </c>
-      <c r="W155">
+      <c r="U155" s="61"/>
+      <c r="V155" s="61"/>
+      <c r="W155" s="61">
         <v>41.4</v>
       </c>
-      <c r="Z155">
+      <c r="X155" s="61"/>
+      <c r="Y155" s="61"/>
+      <c r="Z155" s="61">
         <v>58.106999999999999</v>
       </c>
     </row>
     <row r="156" spans="9:26">
-      <c r="O156">
+      <c r="O156" s="61">
         <v>2024</v>
       </c>
-      <c r="P156" t="s">
+      <c r="P156" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q156">
+      <c r="Q156" s="61">
         <v>568</v>
       </c>
-      <c r="R156">
+      <c r="R156" s="61">
         <f t="shared" si="17"/>
         <v>34.743326799999998</v>
       </c>
-      <c r="S156">
+      <c r="S156" s="61">
         <f t="shared" si="15"/>
         <v>44</v>
       </c>
-      <c r="T156">
+      <c r="T156" s="61">
         <f t="shared" si="16"/>
         <v>44000</v>
       </c>
-      <c r="W156">
+      <c r="U156" s="61"/>
+      <c r="V156" s="61"/>
+      <c r="W156" s="61">
         <v>44</v>
       </c>
-      <c r="Z156">
+      <c r="X156" s="61"/>
+      <c r="Y156" s="61"/>
+      <c r="Z156" s="61">
         <v>57.694000000000003</v>
       </c>
     </row>
     <row r="157" spans="9:26">
-      <c r="O157">
+      <c r="O157" s="61">
         <v>2024</v>
       </c>
-      <c r="P157" t="s">
+      <c r="P157" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q157">
+      <c r="Q157" s="61">
         <v>568</v>
       </c>
-      <c r="R157">
+      <c r="R157" s="61">
         <f t="shared" si="17"/>
         <v>34.680095799999997</v>
       </c>
-      <c r="S157">
+      <c r="S157" s="61">
         <f t="shared" si="15"/>
         <v>44.7</v>
       </c>
-      <c r="T157">
+      <c r="T157" s="61">
         <f t="shared" si="16"/>
         <v>44700</v>
       </c>
-      <c r="W157">
+      <c r="U157" s="61"/>
+      <c r="V157" s="61"/>
+      <c r="W157" s="61">
         <v>44.7</v>
       </c>
-      <c r="Z157">
+      <c r="X157" s="61"/>
+      <c r="Y157" s="61"/>
+      <c r="Z157" s="61">
         <v>57.588999999999999</v>
       </c>
     </row>
     <row r="158" spans="9:26">
-      <c r="O158">
+      <c r="O158" s="61">
         <v>2024</v>
       </c>
-      <c r="P158" t="s">
+      <c r="P158" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q158">
+      <c r="Q158" s="61">
         <v>568</v>
       </c>
-      <c r="R158">
+      <c r="R158" s="61">
         <f t="shared" si="17"/>
         <v>34.612047199999999</v>
       </c>
-      <c r="S158">
+      <c r="S158" s="61">
         <f t="shared" si="15"/>
         <v>45.4</v>
       </c>
-      <c r="T158">
+      <c r="T158" s="61">
         <f t="shared" si="16"/>
         <v>45400</v>
       </c>
-      <c r="W158">
+      <c r="U158" s="61"/>
+      <c r="V158" s="61"/>
+      <c r="W158" s="61">
         <v>45.4</v>
       </c>
-      <c r="Z158">
+      <c r="X158" s="61"/>
+      <c r="Y158" s="61"/>
+      <c r="Z158" s="61">
         <v>57.475999999999999</v>
       </c>
     </row>
     <row r="159" spans="9:26">
-      <c r="O159">
+      <c r="O159" s="61">
         <v>2024</v>
       </c>
-      <c r="P159" t="s">
+      <c r="P159" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q159">
+      <c r="Q159" s="61">
         <v>568</v>
       </c>
-      <c r="R159">
+      <c r="R159" s="61">
         <f t="shared" si="17"/>
         <v>34.447044399999996</v>
       </c>
-      <c r="S159">
+      <c r="S159" s="61">
         <f t="shared" si="15"/>
         <v>47.3</v>
       </c>
-      <c r="T159">
+      <c r="T159" s="61">
         <f t="shared" si="16"/>
         <v>47300</v>
       </c>
-      <c r="W159">
+      <c r="U159" s="61"/>
+      <c r="V159" s="61"/>
+      <c r="W159" s="61">
         <v>47.3</v>
       </c>
-      <c r="Z159">
+      <c r="X159" s="61"/>
+      <c r="Y159" s="61"/>
+      <c r="Z159" s="61">
         <v>57.201999999999998</v>
       </c>
     </row>
     <row r="160" spans="9:26">
-      <c r="O160">
+      <c r="O160" s="61">
         <v>2024</v>
       </c>
-      <c r="P160" t="s">
+      <c r="P160" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q160">
+      <c r="Q160" s="61">
         <v>568</v>
       </c>
-      <c r="R160">
+      <c r="R160" s="61">
         <f t="shared" si="17"/>
         <v>34.296494399999993</v>
       </c>
-      <c r="S160">
+      <c r="S160" s="61">
         <f t="shared" si="15"/>
         <v>49</v>
       </c>
-      <c r="T160">
+      <c r="T160" s="61">
         <f t="shared" si="16"/>
         <v>49000</v>
       </c>
-      <c r="W160">
+      <c r="U160" s="61"/>
+      <c r="V160" s="61"/>
+      <c r="W160" s="61">
         <v>49</v>
       </c>
-      <c r="Z160">
+      <c r="X160" s="61"/>
+      <c r="Y160" s="61"/>
+      <c r="Z160" s="61">
         <v>56.951999999999998</v>
       </c>
     </row>
     <row r="161" spans="15:26">
-      <c r="O161">
+      <c r="O161" s="61">
         <v>2024</v>
       </c>
-      <c r="P161" t="s">
+      <c r="P161" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q161">
+      <c r="Q161" s="61">
         <v>568</v>
       </c>
-      <c r="R161">
+      <c r="R161" s="61">
         <f t="shared" si="17"/>
         <v>34.127878399999993</v>
       </c>
-      <c r="S161">
+      <c r="S161" s="61">
         <f t="shared" si="15"/>
         <v>51</v>
       </c>
-      <c r="T161">
+      <c r="T161" s="61">
         <f t="shared" si="16"/>
         <v>51000</v>
       </c>
-      <c r="W161">
+      <c r="U161" s="61"/>
+      <c r="V161" s="61"/>
+      <c r="W161" s="61">
         <v>51</v>
       </c>
-      <c r="Z161">
+      <c r="X161" s="61"/>
+      <c r="Y161" s="61"/>
+      <c r="Z161" s="61">
         <v>56.671999999999997</v>
       </c>
     </row>
     <row r="162" spans="15:26">
-      <c r="O162">
+      <c r="O162" s="61">
         <v>2024</v>
       </c>
-      <c r="P162" t="s">
+      <c r="P162" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q162">
+      <c r="Q162" s="61">
         <v>568</v>
       </c>
-      <c r="R162">
+      <c r="R162" s="61">
         <f t="shared" si="17"/>
         <v>34.030924200000001</v>
       </c>
-      <c r="S162">
+      <c r="S162" s="61">
         <f t="shared" si="15"/>
         <v>52</v>
       </c>
-      <c r="T162">
+      <c r="T162" s="61">
         <f t="shared" si="16"/>
         <v>52000</v>
       </c>
-      <c r="W162">
+      <c r="U162" s="61"/>
+      <c r="V162" s="61"/>
+      <c r="W162" s="61">
         <v>52</v>
       </c>
-      <c r="Z162">
+      <c r="X162" s="61"/>
+      <c r="Y162" s="61"/>
+      <c r="Z162" s="61">
         <v>56.511000000000003</v>
       </c>
     </row>
     <row r="163" spans="15:26">
-      <c r="O163">
+      <c r="O163" s="61">
         <v>2024</v>
       </c>
-      <c r="P163" t="s">
+      <c r="P163" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q163">
+      <c r="Q163" s="61">
         <v>568</v>
       </c>
-      <c r="R163">
+      <c r="R163" s="61">
         <f t="shared" si="17"/>
         <v>33.948422799999996</v>
       </c>
-      <c r="S163">
+      <c r="S163" s="61">
         <f t="shared" si="15"/>
         <v>53</v>
       </c>
-      <c r="T163">
+      <c r="T163" s="61">
         <f t="shared" si="16"/>
         <v>53000</v>
       </c>
-      <c r="W163">
+      <c r="U163" s="61"/>
+      <c r="V163" s="61"/>
+      <c r="W163" s="61">
         <v>53</v>
       </c>
-      <c r="Z163">
+      <c r="X163" s="61"/>
+      <c r="Y163" s="61"/>
+      <c r="Z163" s="61">
         <v>56.374000000000002</v>
       </c>
     </row>
     <row r="164" spans="15:26">
-      <c r="O164">
+      <c r="O164" s="61">
         <v>2024</v>
       </c>
-      <c r="P164" t="s">
+      <c r="P164" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q164">
+      <c r="Q164" s="61">
         <v>568</v>
       </c>
-      <c r="R164">
+      <c r="R164" s="61">
         <f t="shared" si="17"/>
         <v>33.8520708</v>
       </c>
-      <c r="S164">
+      <c r="S164" s="61">
         <f t="shared" si="15"/>
         <v>54</v>
       </c>
-      <c r="T164">
+      <c r="T164" s="61">
         <f t="shared" si="16"/>
         <v>54000</v>
       </c>
-      <c r="W164">
+      <c r="U164" s="61"/>
+      <c r="V164" s="61"/>
+      <c r="W164" s="61">
         <v>54</v>
       </c>
-      <c r="Z164">
+      <c r="X164" s="61"/>
+      <c r="Y164" s="61"/>
+      <c r="Z164" s="61">
         <v>56.213999999999999</v>
       </c>
     </row>
     <row r="165" spans="15:26">
-      <c r="O165">
+      <c r="O165" s="61">
         <v>2024</v>
       </c>
-      <c r="P165" t="s">
+      <c r="P165" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q165">
+      <c r="Q165" s="61">
         <v>568</v>
       </c>
-      <c r="R165">
+      <c r="R165" s="61">
         <f t="shared" si="17"/>
         <v>33.743072599999998</v>
       </c>
-      <c r="S165">
+      <c r="S165" s="61">
         <f t="shared" si="15"/>
         <v>56</v>
       </c>
-      <c r="T165">
+      <c r="T165" s="61">
         <f t="shared" si="16"/>
         <v>56000</v>
       </c>
-      <c r="W165">
+      <c r="U165" s="61"/>
+      <c r="V165" s="61"/>
+      <c r="W165" s="61">
         <v>56</v>
       </c>
-      <c r="Z165">
+      <c r="X165" s="61"/>
+      <c r="Y165" s="61"/>
+      <c r="Z165" s="61">
         <v>56.033000000000001</v>
       </c>
     </row>
     <row r="166" spans="15:26">
-      <c r="O166">
+      <c r="O166" s="61">
         <v>2024</v>
       </c>
-      <c r="P166" t="s">
+      <c r="P166" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q166">
+      <c r="Q166" s="61">
         <v>568</v>
       </c>
-      <c r="R166">
+      <c r="R166" s="61">
         <f t="shared" si="17"/>
         <v>33.598544599999997</v>
       </c>
-      <c r="S166">
+      <c r="S166" s="61">
         <f t="shared" si="15"/>
         <v>58</v>
       </c>
-      <c r="T166">
+      <c r="T166" s="61">
         <f t="shared" si="16"/>
         <v>58000</v>
       </c>
-      <c r="W166">
+      <c r="U166" s="61"/>
+      <c r="V166" s="61"/>
+      <c r="W166" s="61">
         <v>58</v>
       </c>
-      <c r="Z166">
+      <c r="X166" s="61"/>
+      <c r="Y166" s="61"/>
+      <c r="Z166" s="61">
         <v>55.792999999999999</v>
       </c>
     </row>
     <row r="167" spans="15:26">
-      <c r="O167">
+      <c r="O167" s="61">
         <v>2024</v>
       </c>
-      <c r="P167" t="s">
+      <c r="P167" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q167">
+      <c r="Q167" s="61">
         <v>568</v>
       </c>
-      <c r="R167">
+      <c r="R167" s="61">
         <f t="shared" si="17"/>
         <v>33.513032199999998</v>
       </c>
-      <c r="S167">
+      <c r="S167" s="61">
         <f t="shared" si="15"/>
         <v>59</v>
       </c>
-      <c r="T167">
+      <c r="T167" s="61">
         <f t="shared" si="16"/>
         <v>59000</v>
       </c>
-      <c r="W167">
+      <c r="U167" s="61"/>
+      <c r="V167" s="61"/>
+      <c r="W167" s="61">
         <v>59</v>
       </c>
-      <c r="Z167">
+      <c r="X167" s="61"/>
+      <c r="Y167" s="61"/>
+      <c r="Z167" s="61">
         <v>55.651000000000003</v>
       </c>
     </row>
     <row r="168" spans="15:26">
-      <c r="O168">
+      <c r="O168" s="61">
         <v>2024</v>
       </c>
-      <c r="P168" t="s">
+      <c r="P168" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q168">
+      <c r="Q168" s="61">
         <v>728</v>
       </c>
-      <c r="R168">
+      <c r="R168" s="61">
         <f t="shared" si="17"/>
         <v>40.959235200000002</v>
       </c>
-      <c r="S168">
+      <c r="S168" s="61">
         <f t="shared" si="15"/>
         <v>3.22</v>
       </c>
-      <c r="T168">
+      <c r="T168" s="61">
         <f t="shared" si="16"/>
         <v>3220</v>
       </c>
-      <c r="W168">
+      <c r="U168" s="61"/>
+      <c r="V168" s="61"/>
+      <c r="W168" s="61">
         <v>3.22</v>
       </c>
-      <c r="Z168">
+      <c r="X168" s="61"/>
+      <c r="Y168" s="61"/>
+      <c r="Z168" s="61">
         <v>68.016000000000005</v>
       </c>
     </row>
     <row r="169" spans="15:26">
-      <c r="O169">
+      <c r="O169" s="61">
         <v>2024</v>
       </c>
-      <c r="P169" t="s">
+      <c r="P169" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q169">
+      <c r="Q169" s="61">
         <v>728</v>
       </c>
-      <c r="R169">
+      <c r="R169" s="61">
         <f t="shared" si="17"/>
         <v>40.954417599999992</v>
       </c>
-      <c r="S169">
+      <c r="S169" s="61">
         <f t="shared" si="15"/>
         <v>3.24</v>
       </c>
-      <c r="T169">
+      <c r="T169" s="61">
         <f t="shared" si="16"/>
         <v>3240</v>
       </c>
-      <c r="W169">
+      <c r="U169" s="61"/>
+      <c r="V169" s="61"/>
+      <c r="W169" s="61">
         <v>3.24</v>
       </c>
-      <c r="Z169">
+      <c r="X169" s="61"/>
+      <c r="Y169" s="61"/>
+      <c r="Z169" s="61">
         <v>68.007999999999996</v>
       </c>
     </row>
     <row r="170" spans="15:26">
-      <c r="O170">
+      <c r="O170" s="61">
         <v>2024</v>
       </c>
-      <c r="P170" t="s">
+      <c r="P170" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q170">
+      <c r="Q170" s="61">
         <v>728</v>
       </c>
-      <c r="R170">
+      <c r="R170" s="61">
         <f t="shared" si="17"/>
         <v>40.909854799999998</v>
       </c>
-      <c r="S170">
+      <c r="S170" s="61">
         <f t="shared" si="15"/>
         <v>3.42</v>
       </c>
-      <c r="T170">
+      <c r="T170" s="61">
         <f t="shared" si="16"/>
         <v>3420</v>
       </c>
-      <c r="W170">
+      <c r="U170" s="61"/>
+      <c r="V170" s="61"/>
+      <c r="W170" s="61">
         <v>3.42</v>
       </c>
-      <c r="Z170">
+      <c r="X170" s="61"/>
+      <c r="Y170" s="61"/>
+      <c r="Z170" s="61">
         <v>67.933999999999997</v>
       </c>
     </row>
     <row r="171" spans="15:26">
-      <c r="O171">
+      <c r="O171" s="61">
         <v>2024</v>
       </c>
-      <c r="P171" t="s">
+      <c r="P171" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q171">
+      <c r="Q171" s="61">
         <v>728</v>
       </c>
-      <c r="R171">
+      <c r="R171" s="61">
         <f t="shared" si="17"/>
         <v>40.883960199999997</v>
       </c>
-      <c r="S171">
+      <c r="S171" s="61">
         <f t="shared" si="15"/>
         <v>3.5</v>
       </c>
-      <c r="T171">
+      <c r="T171" s="61">
         <f t="shared" si="16"/>
         <v>3500</v>
       </c>
-      <c r="W171">
+      <c r="U171" s="61"/>
+      <c r="V171" s="61"/>
+      <c r="W171" s="61">
         <v>3.5</v>
       </c>
-      <c r="Z171">
+      <c r="X171" s="61"/>
+      <c r="Y171" s="61"/>
+      <c r="Z171" s="61">
         <v>67.891000000000005</v>
       </c>
     </row>
     <row r="172" spans="15:26">
-      <c r="O172">
+      <c r="O172" s="61">
         <v>2024</v>
       </c>
-      <c r="P172" t="s">
+      <c r="P172" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q172">
+      <c r="Q172" s="61">
         <v>728</v>
       </c>
-      <c r="R172">
+      <c r="R172" s="61">
         <f t="shared" si="17"/>
         <v>40.818922600000001</v>
       </c>
-      <c r="S172">
+      <c r="S172" s="61">
         <f t="shared" si="15"/>
         <v>3.77</v>
       </c>
-      <c r="T172">
+      <c r="T172" s="61">
         <f t="shared" si="16"/>
         <v>3770</v>
       </c>
-      <c r="W172">
+      <c r="U172" s="61"/>
+      <c r="V172" s="61"/>
+      <c r="W172" s="61">
         <v>3.77</v>
       </c>
-      <c r="Z172">
+      <c r="X172" s="61"/>
+      <c r="Y172" s="61"/>
+      <c r="Z172" s="61">
         <v>67.783000000000001</v>
       </c>
     </row>
     <row r="173" spans="15:26">
-      <c r="O173">
+      <c r="O173" s="61">
         <v>2024</v>
       </c>
-      <c r="P173" t="s">
+      <c r="P173" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q173">
+      <c r="Q173" s="61">
         <v>728</v>
       </c>
-      <c r="R173">
+      <c r="R173" s="61">
         <f t="shared" si="17"/>
         <v>40.746658599999996</v>
       </c>
-      <c r="S173">
+      <c r="S173" s="61">
         <f t="shared" si="15"/>
         <v>4.0599999999999996</v>
       </c>
-      <c r="T173">
+      <c r="T173" s="61">
         <f t="shared" si="16"/>
         <v>4059.9999999999995</v>
       </c>
-      <c r="W173">
+      <c r="U173" s="61"/>
+      <c r="V173" s="61"/>
+      <c r="W173" s="61">
         <v>4.0599999999999996</v>
       </c>
-      <c r="Z173">
+      <c r="X173" s="61"/>
+      <c r="Y173" s="61"/>
+      <c r="Z173" s="61">
         <v>67.662999999999997</v>
       </c>
     </row>
     <row r="174" spans="15:26">
-      <c r="O174">
+      <c r="O174" s="61">
         <v>2024</v>
       </c>
-      <c r="P174" t="s">
+      <c r="P174" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q174">
+      <c r="Q174" s="61">
         <v>728</v>
       </c>
-      <c r="R174">
+      <c r="R174" s="61">
         <f t="shared" si="17"/>
         <v>40.668974800000001</v>
       </c>
-      <c r="S174">
+      <c r="S174" s="61">
         <f t="shared" si="15"/>
         <v>4.38</v>
       </c>
-      <c r="T174">
+      <c r="T174" s="61">
         <f t="shared" si="16"/>
         <v>4380</v>
       </c>
-      <c r="W174">
+      <c r="U174" s="61"/>
+      <c r="V174" s="61"/>
+      <c r="W174" s="61">
         <v>4.38</v>
       </c>
-      <c r="Z174">
+      <c r="X174" s="61"/>
+      <c r="Y174" s="61"/>
+      <c r="Z174" s="61">
         <v>67.534000000000006</v>
       </c>
     </row>
     <row r="175" spans="15:26">
-      <c r="O175">
+      <c r="O175" s="61">
         <v>2024</v>
       </c>
-      <c r="P175" t="s">
+      <c r="P175" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q175">
+      <c r="Q175" s="61">
         <v>728</v>
       </c>
-      <c r="R175">
+      <c r="R175" s="61">
         <f t="shared" si="17"/>
         <v>40.587075599999991</v>
       </c>
-      <c r="S175">
+      <c r="S175" s="61">
         <f t="shared" si="15"/>
         <v>4.72</v>
       </c>
-      <c r="T175">
+      <c r="T175" s="61">
         <f t="shared" si="16"/>
         <v>4720</v>
       </c>
-      <c r="W175">
+      <c r="U175" s="61"/>
+      <c r="V175" s="61"/>
+      <c r="W175" s="61">
         <v>4.72</v>
       </c>
-      <c r="Z175">
+      <c r="X175" s="61"/>
+      <c r="Y175" s="61"/>
+      <c r="Z175" s="61">
         <v>67.397999999999996</v>
       </c>
     </row>
     <row r="176" spans="15:26">
-      <c r="O176">
+      <c r="O176" s="61">
         <v>2024</v>
       </c>
-      <c r="P176" t="s">
+      <c r="P176" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q176">
+      <c r="Q176" s="61">
         <v>728</v>
       </c>
-      <c r="R176">
+      <c r="R176" s="61">
         <f t="shared" si="17"/>
         <v>40.385940799999993</v>
       </c>
-      <c r="S176">
+      <c r="S176" s="61">
         <f t="shared" si="15"/>
         <v>5.56</v>
       </c>
-      <c r="T176">
+      <c r="T176" s="61">
         <f t="shared" si="16"/>
         <v>5560</v>
       </c>
-      <c r="W176">
+      <c r="U176" s="61"/>
+      <c r="V176" s="61"/>
+      <c r="W176" s="61">
         <v>5.56</v>
       </c>
-      <c r="Z176">
+      <c r="X176" s="61"/>
+      <c r="Y176" s="61"/>
+      <c r="Z176" s="61">
         <v>67.063999999999993</v>
       </c>
     </row>
     <row r="177" spans="15:26">
-      <c r="O177">
+      <c r="O177" s="61">
         <v>2024</v>
       </c>
-      <c r="P177" t="s">
+      <c r="P177" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q177">
+      <c r="Q177" s="61">
         <v>728</v>
       </c>
-      <c r="R177">
+      <c r="R177" s="61">
         <f t="shared" si="17"/>
         <v>40.277544799999994</v>
       </c>
-      <c r="S177">
+      <c r="S177" s="61">
         <f t="shared" si="15"/>
         <v>6.03</v>
       </c>
-      <c r="T177">
+      <c r="T177" s="61">
         <f t="shared" si="16"/>
         <v>6030</v>
       </c>
-      <c r="W177">
+      <c r="U177" s="61"/>
+      <c r="V177" s="61"/>
+      <c r="W177" s="61">
         <v>6.03</v>
       </c>
-      <c r="Z177">
+      <c r="X177" s="61"/>
+      <c r="Y177" s="61"/>
+      <c r="Z177" s="61">
         <v>66.884</v>
       </c>
     </row>
     <row r="178" spans="15:26">
-      <c r="O178">
+      <c r="O178" s="61">
         <v>2024</v>
       </c>
-      <c r="P178" t="s">
+      <c r="P178" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q178">
+      <c r="Q178" s="61">
         <v>728</v>
       </c>
-      <c r="R178">
+      <c r="R178" s="61">
         <f t="shared" si="17"/>
         <v>40.216120399999994</v>
       </c>
-      <c r="S178">
+      <c r="S178" s="61">
         <f t="shared" si="15"/>
         <v>6.29</v>
       </c>
-      <c r="T178">
+      <c r="T178" s="61">
         <f t="shared" si="16"/>
         <v>6290</v>
       </c>
-      <c r="W178">
+      <c r="U178" s="61"/>
+      <c r="V178" s="61"/>
+      <c r="W178" s="61">
         <v>6.29</v>
       </c>
-      <c r="Z178">
+      <c r="X178" s="61"/>
+      <c r="Y178" s="61"/>
+      <c r="Z178" s="61">
         <v>66.781999999999996</v>
       </c>
     </row>
     <row r="179" spans="15:26">
-      <c r="O179">
+      <c r="O179" s="61">
         <v>2024</v>
       </c>
-      <c r="P179" t="s">
+      <c r="P179" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q179">
+      <c r="Q179" s="61">
         <v>728</v>
       </c>
-      <c r="R179">
+      <c r="R179" s="61">
         <f t="shared" si="17"/>
         <v>40.151082800000005</v>
       </c>
-      <c r="S179">
+      <c r="S179" s="61">
         <f t="shared" si="15"/>
         <v>6.58</v>
       </c>
-      <c r="T179">
+      <c r="T179" s="61">
         <f t="shared" si="16"/>
         <v>6580</v>
       </c>
-      <c r="W179">
+      <c r="U179" s="61"/>
+      <c r="V179" s="61"/>
+      <c r="W179" s="61">
         <v>6.58</v>
       </c>
-      <c r="Z179">
+      <c r="X179" s="61"/>
+      <c r="Y179" s="61"/>
+      <c r="Z179" s="61">
         <v>66.674000000000007</v>
       </c>
     </row>
     <row r="180" spans="15:26">
-      <c r="O180">
+      <c r="O180" s="61">
         <v>2024</v>
       </c>
-      <c r="P180" t="s">
+      <c r="P180" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q180">
+      <c r="Q180" s="61">
         <v>728</v>
       </c>
-      <c r="R180">
+      <c r="R180" s="61">
         <f t="shared" si="17"/>
         <v>39.922307019999998</v>
       </c>
-      <c r="S180">
+      <c r="S180" s="61">
         <f t="shared" si="15"/>
         <v>7.62</v>
       </c>
-      <c r="T180">
+      <c r="T180" s="61">
         <f t="shared" si="16"/>
         <v>7620</v>
       </c>
-      <c r="W180">
+      <c r="U180" s="61"/>
+      <c r="V180" s="61"/>
+      <c r="W180" s="61">
         <v>7.62</v>
       </c>
-      <c r="Z180">
+      <c r="X180" s="61"/>
+      <c r="Y180" s="61"/>
+      <c r="Z180" s="61">
         <v>66.2941</v>
       </c>
     </row>
     <row r="181" spans="15:26">
-      <c r="O181">
+      <c r="O181" s="61">
         <v>2024</v>
       </c>
-      <c r="P181" t="s">
+      <c r="P181" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q181">
+      <c r="Q181" s="61">
         <v>728</v>
       </c>
-      <c r="R181">
+      <c r="R181" s="61">
         <f t="shared" si="17"/>
         <v>39.758508619999994</v>
       </c>
-      <c r="S181">
+      <c r="S181" s="61">
         <f t="shared" si="15"/>
         <v>8.3800000000000008</v>
       </c>
-      <c r="T181">
+      <c r="T181" s="61">
         <f t="shared" si="16"/>
         <v>8380</v>
       </c>
-      <c r="W181">
+      <c r="U181" s="61"/>
+      <c r="V181" s="61"/>
+      <c r="W181" s="61">
         <v>8.3800000000000008</v>
       </c>
-      <c r="Z181">
+      <c r="X181" s="61"/>
+      <c r="Y181" s="61"/>
+      <c r="Z181" s="61">
         <v>66.022099999999995</v>
       </c>
     </row>
     <row r="182" spans="15:26">
-      <c r="O182">
+      <c r="O182" s="61">
         <v>2024</v>
       </c>
-      <c r="P182" t="s">
+      <c r="P182" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q182">
+      <c r="Q182" s="61">
         <v>728</v>
       </c>
-      <c r="R182">
+      <c r="R182" s="61">
         <f t="shared" si="17"/>
         <v>39.73261402</v>
       </c>
-      <c r="S182">
+      <c r="S182" s="61">
         <f t="shared" si="15"/>
         <v>8.5</v>
       </c>
-      <c r="T182">
+      <c r="T182" s="61">
         <f t="shared" si="16"/>
         <v>8500</v>
       </c>
-      <c r="W182">
+      <c r="U182" s="61"/>
+      <c r="V182" s="61"/>
+      <c r="W182" s="61">
         <v>8.5</v>
       </c>
-      <c r="Z182">
+      <c r="X182" s="61"/>
+      <c r="Y182" s="61"/>
+      <c r="Z182" s="61">
         <v>65.979100000000003</v>
       </c>
     </row>
     <row r="183" spans="15:26">
-      <c r="O183">
+      <c r="O183" s="61">
         <v>2024</v>
       </c>
-      <c r="P183" t="s">
+      <c r="P183" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q183">
+      <c r="Q183" s="61">
         <v>728</v>
       </c>
-      <c r="R183">
+      <c r="R183" s="61">
         <f t="shared" si="17"/>
         <v>39.501007899999998</v>
       </c>
-      <c r="S183">
+      <c r="S183" s="61">
         <f t="shared" si="15"/>
         <v>9.6</v>
       </c>
-      <c r="T183">
+      <c r="T183" s="61">
         <f t="shared" si="16"/>
         <v>9600</v>
       </c>
-      <c r="W183">
+      <c r="U183" s="61"/>
+      <c r="V183" s="61"/>
+      <c r="W183" s="61">
         <v>9.6</v>
       </c>
-      <c r="Z183">
+      <c r="X183" s="61"/>
+      <c r="Y183" s="61"/>
+      <c r="Z183" s="61">
         <v>65.594499999999996</v>
       </c>
     </row>
     <row r="184" spans="15:26">
-      <c r="O184">
+      <c r="O184" s="61">
         <v>2024</v>
       </c>
-      <c r="P184" t="s">
+      <c r="P184" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q184">
+      <c r="Q184" s="61">
         <v>728</v>
       </c>
-      <c r="R184">
+      <c r="R184" s="61">
         <f t="shared" si="17"/>
         <v>39.330886399999997</v>
       </c>
-      <c r="S184">
+      <c r="S184" s="61">
         <f t="shared" si="15"/>
         <v>10.5</v>
       </c>
-      <c r="T184">
+      <c r="T184" s="61">
         <f t="shared" si="16"/>
         <v>10500</v>
       </c>
-      <c r="W184">
+      <c r="U184" s="61"/>
+      <c r="V184" s="61"/>
+      <c r="W184" s="61">
         <v>10.5</v>
       </c>
-      <c r="Z184">
+      <c r="X184" s="61"/>
+      <c r="Y184" s="61"/>
+      <c r="Z184" s="61">
         <v>65.311999999999998</v>
       </c>
     </row>
     <row r="185" spans="15:26">
-      <c r="O185">
+      <c r="O185" s="61">
         <v>2024</v>
       </c>
-      <c r="P185" t="s">
+      <c r="P185" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q185">
+      <c r="Q185" s="61">
         <v>728</v>
       </c>
-      <c r="R185">
+      <c r="R185" s="61">
         <f t="shared" si="17"/>
         <v>38.942106079999995</v>
       </c>
-      <c r="S185">
+      <c r="S185" s="61">
         <f t="shared" si="15"/>
         <v>12.5</v>
       </c>
-      <c r="T185">
+      <c r="T185" s="61">
         <f t="shared" si="16"/>
         <v>12500</v>
       </c>
-      <c r="W185">
+      <c r="U185" s="61"/>
+      <c r="V185" s="61"/>
+      <c r="W185" s="61">
         <v>12.5</v>
       </c>
-      <c r="Z185">
+      <c r="X185" s="61"/>
+      <c r="Y185" s="61"/>
+      <c r="Z185" s="61">
         <v>64.666399999999996</v>
       </c>
     </row>
     <row r="186" spans="15:26">
-      <c r="O186">
+      <c r="O186" s="61">
         <v>2024</v>
       </c>
-      <c r="P186" t="s">
+      <c r="P186" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q186">
+      <c r="Q186" s="61">
         <v>728</v>
       </c>
-      <c r="R186">
+      <c r="R186" s="61">
         <f t="shared" si="17"/>
         <v>38.887787639999999</v>
       </c>
-      <c r="S186">
+      <c r="S186" s="61">
         <f t="shared" si="15"/>
         <v>12.8</v>
       </c>
-      <c r="T186">
+      <c r="T186" s="61">
         <f t="shared" si="16"/>
         <v>12800</v>
       </c>
-      <c r="W186">
+      <c r="U186" s="61"/>
+      <c r="V186" s="61"/>
+      <c r="W186" s="61">
         <v>12.8</v>
       </c>
-      <c r="Z186">
+      <c r="X186" s="61"/>
+      <c r="Y186" s="61"/>
+      <c r="Z186" s="61">
         <v>64.5762</v>
       </c>
     </row>
     <row r="187" spans="15:26">
-      <c r="O187">
+      <c r="O187" s="61">
         <v>2024</v>
       </c>
-      <c r="P187" t="s">
+      <c r="P187" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q187">
+      <c r="Q187" s="61">
         <v>728</v>
       </c>
-      <c r="R187">
+      <c r="R187" s="61">
         <f t="shared" si="17"/>
         <v>38.812331980000003</v>
       </c>
-      <c r="S187">
+      <c r="S187" s="61">
         <f t="shared" si="15"/>
         <v>13.2</v>
       </c>
-      <c r="T187">
+      <c r="T187" s="61">
         <f t="shared" si="16"/>
         <v>13200</v>
       </c>
-      <c r="W187">
+      <c r="U187" s="61"/>
+      <c r="V187" s="61"/>
+      <c r="W187" s="61">
         <v>13.2</v>
       </c>
-      <c r="Z187">
+      <c r="X187" s="61"/>
+      <c r="Y187" s="61"/>
+      <c r="Z187" s="61">
         <v>64.450900000000004</v>
       </c>
     </row>
     <row r="188" spans="15:26">
-      <c r="O188">
+      <c r="O188" s="61">
         <v>2024</v>
       </c>
-      <c r="P188" t="s">
+      <c r="P188" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q188">
+      <c r="Q188" s="61">
         <v>728</v>
       </c>
-      <c r="R188">
+      <c r="R188" s="61">
         <f t="shared" si="17"/>
         <v>38.677981160000002</v>
       </c>
-      <c r="S188">
+      <c r="S188" s="61">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="T188">
+      <c r="T188" s="61">
         <f t="shared" si="16"/>
         <v>14000</v>
       </c>
-      <c r="W188">
+      <c r="U188" s="61"/>
+      <c r="V188" s="61"/>
+      <c r="W188" s="61">
         <v>14</v>
       </c>
-      <c r="Z188">
+      <c r="X188" s="61"/>
+      <c r="Y188" s="61"/>
+      <c r="Z188" s="61">
         <v>64.227800000000002</v>
       </c>
     </row>
     <row r="189" spans="15:26">
-      <c r="O189">
+      <c r="O189" s="61">
         <v>2024</v>
       </c>
-      <c r="P189" t="s">
+      <c r="P189" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q189">
+      <c r="Q189" s="61">
         <v>728</v>
       </c>
-      <c r="R189">
+      <c r="R189" s="61">
         <f t="shared" si="17"/>
         <v>38.474618219999996</v>
       </c>
-      <c r="S189">
+      <c r="S189" s="61">
         <f t="shared" ref="S189:S252" si="18">W189</f>
         <v>15.1</v>
       </c>
-      <c r="T189">
+      <c r="T189" s="61">
         <f t="shared" ref="T189:T213" si="19">W189*1000</f>
         <v>15100</v>
       </c>
-      <c r="W189">
+      <c r="U189" s="61"/>
+      <c r="V189" s="61"/>
+      <c r="W189" s="61">
         <v>15.1</v>
       </c>
-      <c r="Z189">
+      <c r="X189" s="61"/>
+      <c r="Y189" s="61"/>
+      <c r="Z189" s="61">
         <v>63.890099999999997</v>
       </c>
     </row>
     <row r="190" spans="15:26">
-      <c r="O190">
+      <c r="O190" s="61">
         <v>2024</v>
       </c>
-      <c r="P190" t="s">
+      <c r="P190" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q190">
+      <c r="Q190" s="61">
         <v>728</v>
       </c>
-      <c r="R190">
+      <c r="R190" s="61">
         <f t="shared" si="17"/>
         <v>38.381337439999996</v>
       </c>
-      <c r="S190">
+      <c r="S190" s="61">
         <f t="shared" si="18"/>
         <v>15.7</v>
       </c>
-      <c r="T190">
+      <c r="T190" s="61">
         <f t="shared" si="19"/>
         <v>15700</v>
       </c>
-      <c r="W190">
+      <c r="U190" s="61"/>
+      <c r="V190" s="61"/>
+      <c r="W190" s="61">
         <v>15.7</v>
       </c>
-      <c r="Z190">
+      <c r="X190" s="61"/>
+      <c r="Y190" s="61"/>
+      <c r="Z190" s="61">
         <v>63.735199999999999</v>
       </c>
     </row>
     <row r="191" spans="15:26">
-      <c r="O191">
+      <c r="O191" s="61">
         <v>2024</v>
       </c>
-      <c r="P191" t="s">
+      <c r="P191" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q191">
+      <c r="Q191" s="61">
         <v>728</v>
       </c>
-      <c r="R191">
+      <c r="R191" s="61">
         <f t="shared" si="17"/>
         <v>38.066748159999996</v>
       </c>
-      <c r="S191">
+      <c r="S191" s="61">
         <f t="shared" si="18"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="T191">
+      <c r="T191" s="61">
         <f t="shared" si="19"/>
         <v>17600</v>
       </c>
-      <c r="W191">
+      <c r="U191" s="61"/>
+      <c r="V191" s="61"/>
+      <c r="W191" s="61">
         <v>17.600000000000001</v>
       </c>
-      <c r="Z191">
+      <c r="X191" s="61"/>
+      <c r="Y191" s="61"/>
+      <c r="Z191" s="61">
         <v>63.212800000000001</v>
       </c>
     </row>
     <row r="192" spans="15:26">
-      <c r="O192">
+      <c r="O192" s="61">
         <v>2024</v>
       </c>
-      <c r="P192" t="s">
+      <c r="P192" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q192">
+      <c r="Q192" s="61">
         <v>728</v>
       </c>
-      <c r="R192">
+      <c r="R192" s="61">
         <f t="shared" si="17"/>
         <v>37.868865239999998</v>
       </c>
-      <c r="S192">
+      <c r="S192" s="61">
         <f t="shared" si="18"/>
         <v>18.8</v>
       </c>
-      <c r="T192">
+      <c r="T192" s="61">
         <f t="shared" si="19"/>
         <v>18800</v>
       </c>
-      <c r="W192">
+      <c r="U192" s="61"/>
+      <c r="V192" s="61"/>
+      <c r="W192" s="61">
         <v>18.8</v>
       </c>
-      <c r="Z192">
+      <c r="X192" s="61"/>
+      <c r="Y192" s="61"/>
+      <c r="Z192" s="61">
         <v>62.8842</v>
       </c>
     </row>
     <row r="193" spans="3:26">
-      <c r="O193">
+      <c r="O193" s="61">
         <v>2024</v>
       </c>
-      <c r="P193" t="s">
+      <c r="P193" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q193">
+      <c r="Q193" s="61">
         <v>728</v>
       </c>
-      <c r="R193">
+      <c r="R193" s="61">
         <f t="shared" si="17"/>
         <v>37.548374399999993</v>
       </c>
-      <c r="S193">
+      <c r="S193" s="61">
         <f t="shared" si="18"/>
         <v>20.9</v>
       </c>
-      <c r="T193">
+      <c r="T193" s="61">
         <f t="shared" si="19"/>
         <v>20900</v>
       </c>
-      <c r="W193">
+      <c r="U193" s="61"/>
+      <c r="V193" s="61"/>
+      <c r="W193" s="61">
         <v>20.9</v>
       </c>
-      <c r="Z193">
+      <c r="X193" s="61"/>
+      <c r="Y193" s="61"/>
+      <c r="Z193" s="61">
         <v>62.351999999999997</v>
       </c>
     </row>
     <row r="194" spans="3:26">
-      <c r="O194">
+      <c r="O194" s="61">
         <v>2024</v>
       </c>
-      <c r="P194" t="s">
+      <c r="P194" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q194">
+      <c r="Q194" s="61">
         <v>728</v>
       </c>
-      <c r="R194">
+      <c r="R194" s="61">
         <f t="shared" si="17"/>
         <v>37.389032280000002</v>
       </c>
-      <c r="S194">
+      <c r="S194" s="61">
         <f t="shared" si="18"/>
         <v>22</v>
       </c>
-      <c r="T194">
+      <c r="T194" s="61">
         <f t="shared" si="19"/>
         <v>22000</v>
       </c>
-      <c r="W194">
+      <c r="U194" s="61"/>
+      <c r="V194" s="61"/>
+      <c r="W194" s="61">
         <v>22</v>
       </c>
-      <c r="Z194">
+      <c r="X194" s="61"/>
+      <c r="Y194" s="61"/>
+      <c r="Z194" s="61">
         <v>62.087400000000002</v>
       </c>
     </row>
     <row r="195" spans="3:26">
-      <c r="O195">
+      <c r="O195" s="61">
         <v>2024</v>
       </c>
-      <c r="P195" t="s">
+      <c r="P195" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q195">
+      <c r="Q195" s="61">
         <v>728</v>
       </c>
-      <c r="R195">
+      <c r="R195" s="61">
         <f t="shared" si="17"/>
         <v>37.255885859999999</v>
       </c>
-      <c r="S195">
+      <c r="S195" s="61">
         <f t="shared" si="18"/>
         <v>23</v>
       </c>
-      <c r="T195">
+      <c r="T195" s="61">
         <f t="shared" si="19"/>
         <v>23000</v>
       </c>
-      <c r="W195">
+      <c r="U195" s="61"/>
+      <c r="V195" s="61"/>
+      <c r="W195" s="61">
         <v>23</v>
       </c>
-      <c r="Z195">
+      <c r="X195" s="61"/>
+      <c r="Y195" s="61"/>
+      <c r="Z195" s="61">
         <v>61.866300000000003</v>
       </c>
     </row>
     <row r="196" spans="3:26">
-      <c r="O196">
+      <c r="O196" s="61">
         <v>2024</v>
       </c>
-      <c r="P196" t="s">
+      <c r="P196" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q196">
+      <c r="Q196" s="61">
         <v>728</v>
       </c>
-      <c r="R196">
+      <c r="R196" s="61">
         <f t="shared" si="17"/>
         <v>37.071432000000001</v>
       </c>
-      <c r="S196">
+      <c r="S196" s="61">
         <f t="shared" si="18"/>
         <v>24.3</v>
       </c>
-      <c r="T196">
+      <c r="T196" s="61">
         <f t="shared" si="19"/>
         <v>24300</v>
       </c>
-      <c r="W196">
+      <c r="U196" s="61"/>
+      <c r="V196" s="61"/>
+      <c r="W196" s="61">
         <v>24.3</v>
       </c>
-      <c r="Z196">
+      <c r="X196" s="61"/>
+      <c r="Y196" s="61"/>
+      <c r="Z196" s="61">
         <v>61.56</v>
       </c>
     </row>
     <row r="197" spans="3:26">
       <c r="C197" s="35"/>
-      <c r="O197">
+      <c r="O197" s="61">
         <v>2024</v>
       </c>
-      <c r="P197" t="s">
+      <c r="P197" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q197">
+      <c r="Q197" s="61">
         <v>728</v>
       </c>
-      <c r="R197">
+      <c r="R197" s="61">
         <f t="shared" si="17"/>
         <v>36.723541059999995</v>
       </c>
-      <c r="S197">
+      <c r="S197" s="61">
         <f t="shared" si="18"/>
         <v>26.9</v>
       </c>
-      <c r="T197">
+      <c r="T197" s="61">
         <f t="shared" si="19"/>
         <v>26900</v>
       </c>
-      <c r="W197">
+      <c r="U197" s="61"/>
+      <c r="V197" s="61"/>
+      <c r="W197" s="61">
         <v>26.9</v>
       </c>
-      <c r="Z197">
+      <c r="X197" s="61"/>
+      <c r="Y197" s="61"/>
+      <c r="Z197" s="61">
         <v>60.982300000000002</v>
       </c>
     </row>
     <row r="198" spans="3:26">
-      <c r="O198">
+      <c r="O198" s="61">
         <v>2024</v>
       </c>
-      <c r="P198" t="s">
+      <c r="P198" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q198">
+      <c r="Q198" s="61">
         <v>728</v>
       </c>
-      <c r="R198">
+      <c r="R198" s="61">
         <f t="shared" si="17"/>
         <v>36.558417819999995</v>
       </c>
-      <c r="S198">
+      <c r="S198" s="61">
         <f t="shared" si="18"/>
         <v>28.2</v>
       </c>
-      <c r="T198">
+      <c r="T198" s="61">
         <f t="shared" si="19"/>
         <v>28200</v>
       </c>
-      <c r="W198">
+      <c r="U198" s="61"/>
+      <c r="V198" s="61"/>
+      <c r="W198" s="61">
         <v>28.2</v>
       </c>
-      <c r="Z198">
+      <c r="X198" s="61"/>
+      <c r="Y198" s="61"/>
+      <c r="Z198" s="61">
         <v>60.708100000000002</v>
       </c>
     </row>
     <row r="199" spans="3:26">
-      <c r="O199">
+      <c r="O199" s="61">
         <v>2024</v>
       </c>
-      <c r="P199" t="s">
+      <c r="P199" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q199">
+      <c r="Q199" s="61">
         <v>728</v>
       </c>
-      <c r="R199">
+      <c r="R199" s="61">
         <f t="shared" si="17"/>
         <v>36.415274879999998</v>
       </c>
-      <c r="S199">
+      <c r="S199" s="61">
         <f t="shared" si="18"/>
         <v>29.3</v>
       </c>
-      <c r="T199">
+      <c r="T199" s="61">
         <f t="shared" si="19"/>
         <v>29300</v>
       </c>
-      <c r="W199">
+      <c r="U199" s="61"/>
+      <c r="V199" s="61"/>
+      <c r="W199" s="61">
         <v>29.3</v>
       </c>
-      <c r="Z199">
+      <c r="X199" s="61"/>
+      <c r="Y199" s="61"/>
+      <c r="Z199" s="61">
         <v>60.470399999999998</v>
       </c>
     </row>
     <row r="200" spans="3:26">
-      <c r="O200">
+      <c r="O200" s="61">
         <v>2024</v>
       </c>
-      <c r="P200" t="s">
+      <c r="P200" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q200">
+      <c r="Q200" s="61">
         <v>728</v>
       </c>
-      <c r="R200">
+      <c r="R200" s="61">
         <f t="shared" ref="R200:R213" si="20">Z200*0.6022</f>
         <v>36.1837892</v>
       </c>
-      <c r="S200">
+      <c r="S200" s="61">
         <f t="shared" si="18"/>
         <v>31.2</v>
       </c>
-      <c r="T200">
+      <c r="T200" s="61">
         <f t="shared" si="19"/>
         <v>31200</v>
       </c>
-      <c r="W200">
+      <c r="U200" s="61"/>
+      <c r="V200" s="61"/>
+      <c r="W200" s="61">
         <v>31.2</v>
       </c>
-      <c r="Z200">
+      <c r="X200" s="61"/>
+      <c r="Y200" s="61"/>
+      <c r="Z200" s="61">
         <v>60.085999999999999</v>
       </c>
     </row>
     <row r="201" spans="3:26">
-      <c r="O201">
+      <c r="O201" s="61">
         <v>2024</v>
       </c>
-      <c r="P201" t="s">
+      <c r="P201" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q201">
+      <c r="Q201" s="61">
         <v>728</v>
       </c>
-      <c r="R201">
+      <c r="R201" s="61">
         <f t="shared" si="20"/>
         <v>35.9266498</v>
       </c>
-      <c r="S201">
+      <c r="S201" s="61">
         <f t="shared" si="18"/>
         <v>33.5</v>
       </c>
-      <c r="T201">
+      <c r="T201" s="61">
         <f t="shared" si="19"/>
         <v>33500</v>
       </c>
-      <c r="W201">
+      <c r="U201" s="61"/>
+      <c r="V201" s="61"/>
+      <c r="W201" s="61">
         <v>33.5</v>
       </c>
-      <c r="Z201">
+      <c r="X201" s="61"/>
+      <c r="Y201" s="61"/>
+      <c r="Z201" s="61">
         <v>59.658999999999999</v>
       </c>
     </row>
     <row r="202" spans="3:26">
-      <c r="O202">
+      <c r="O202" s="61">
         <v>2024</v>
       </c>
-      <c r="P202" t="s">
+      <c r="P202" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q202">
+      <c r="Q202" s="61">
         <v>728</v>
       </c>
-      <c r="R202">
+      <c r="R202" s="61">
         <f t="shared" si="20"/>
         <v>35.8652254</v>
       </c>
-      <c r="S202">
+      <c r="S202" s="61">
         <f t="shared" si="18"/>
         <v>34</v>
       </c>
-      <c r="T202">
+      <c r="T202" s="61">
         <f t="shared" si="19"/>
         <v>34000</v>
       </c>
-      <c r="W202">
+      <c r="U202" s="61"/>
+      <c r="V202" s="61"/>
+      <c r="W202" s="61">
         <v>34</v>
       </c>
-      <c r="Z202">
+      <c r="X202" s="61"/>
+      <c r="Y202" s="61"/>
+      <c r="Z202" s="61">
         <v>59.557000000000002</v>
       </c>
     </row>
     <row r="203" spans="3:26">
-      <c r="O203">
+      <c r="O203" s="61">
         <v>2024</v>
       </c>
-      <c r="P203" t="s">
+      <c r="P203" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q203">
+      <c r="Q203" s="61">
         <v>728</v>
       </c>
-      <c r="R203">
+      <c r="R203" s="61">
         <f t="shared" si="20"/>
         <v>35.70606394</v>
       </c>
-      <c r="S203">
+      <c r="S203" s="61">
         <f t="shared" si="18"/>
         <v>35.4</v>
       </c>
-      <c r="T203">
+      <c r="T203" s="61">
         <f t="shared" si="19"/>
         <v>35400</v>
       </c>
-      <c r="W203">
+      <c r="U203" s="61"/>
+      <c r="V203" s="61"/>
+      <c r="W203" s="61">
         <v>35.4</v>
       </c>
-      <c r="Z203">
+      <c r="X203" s="61"/>
+      <c r="Y203" s="61"/>
+      <c r="Z203" s="61">
         <v>59.292700000000004</v>
       </c>
     </row>
     <row r="204" spans="3:26">
-      <c r="O204">
+      <c r="O204" s="61">
         <v>2024</v>
       </c>
-      <c r="P204" t="s">
+      <c r="P204" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q204">
+      <c r="Q204" s="61">
         <v>728</v>
       </c>
-      <c r="R204">
+      <c r="R204" s="61">
         <f t="shared" si="20"/>
         <v>35.465364600000001</v>
       </c>
-      <c r="S204">
+      <c r="S204" s="61">
         <f t="shared" si="18"/>
         <v>37.700000000000003</v>
       </c>
-      <c r="T204">
+      <c r="T204" s="61">
         <f t="shared" si="19"/>
         <v>37700</v>
       </c>
-      <c r="W204">
+      <c r="U204" s="61"/>
+      <c r="V204" s="61"/>
+      <c r="W204" s="61">
         <v>37.700000000000003</v>
       </c>
-      <c r="Z204">
+      <c r="X204" s="61"/>
+      <c r="Y204" s="61"/>
+      <c r="Z204" s="61">
         <v>58.893000000000001</v>
       </c>
     </row>
     <row r="205" spans="3:26">
-      <c r="O205">
+      <c r="O205" s="61">
         <v>2024</v>
       </c>
-      <c r="P205" t="s">
+      <c r="P205" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q205">
+      <c r="Q205" s="61">
         <v>728</v>
       </c>
-      <c r="R205">
+      <c r="R205" s="61">
         <f t="shared" si="20"/>
         <v>35.240322460000002</v>
       </c>
-      <c r="S205">
+      <c r="S205" s="61">
         <f t="shared" si="18"/>
         <v>39.799999999999997</v>
       </c>
-      <c r="T205">
+      <c r="T205" s="61">
         <f t="shared" si="19"/>
         <v>39800</v>
       </c>
-      <c r="W205">
+      <c r="U205" s="61"/>
+      <c r="V205" s="61"/>
+      <c r="W205" s="61">
         <v>39.799999999999997</v>
       </c>
-      <c r="Z205">
+      <c r="X205" s="61"/>
+      <c r="Y205" s="61"/>
+      <c r="Z205" s="61">
         <v>58.519300000000001</v>
       </c>
     </row>
     <row r="206" spans="3:26">
-      <c r="O206">
+      <c r="O206" s="61">
         <v>2024</v>
       </c>
-      <c r="P206" t="s">
+      <c r="P206" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q206">
+      <c r="Q206" s="61">
         <v>728</v>
       </c>
-      <c r="R206">
+      <c r="R206" s="61">
         <f t="shared" si="20"/>
         <v>34.909172679999998</v>
       </c>
-      <c r="S206">
+      <c r="S206" s="61">
         <f t="shared" si="18"/>
         <v>43.2</v>
       </c>
-      <c r="T206">
+      <c r="T206" s="61">
         <f t="shared" si="19"/>
         <v>43200</v>
       </c>
-      <c r="W206">
+      <c r="U206" s="61"/>
+      <c r="V206" s="61"/>
+      <c r="W206" s="61">
         <v>43.2</v>
       </c>
-      <c r="Z206">
+      <c r="X206" s="61"/>
+      <c r="Y206" s="61"/>
+      <c r="Z206" s="61">
         <v>57.9694</v>
       </c>
     </row>
     <row r="207" spans="3:26">
-      <c r="O207">
+      <c r="O207" s="61">
         <v>2024</v>
       </c>
-      <c r="P207" t="s">
+      <c r="P207" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q207">
+      <c r="Q207" s="61">
         <v>728</v>
       </c>
-      <c r="R207">
+      <c r="R207" s="61">
         <f t="shared" si="20"/>
         <v>34.792948080000002</v>
       </c>
-      <c r="S207">
+      <c r="S207" s="61">
         <f t="shared" si="18"/>
         <v>44.4</v>
       </c>
-      <c r="T207">
+      <c r="T207" s="61">
         <f t="shared" si="19"/>
         <v>44400</v>
       </c>
-      <c r="W207">
+      <c r="U207" s="61"/>
+      <c r="V207" s="61"/>
+      <c r="W207" s="61">
         <v>44.4</v>
       </c>
-      <c r="Z207">
+      <c r="X207" s="61"/>
+      <c r="Y207" s="61"/>
+      <c r="Z207" s="61">
         <v>57.776400000000002</v>
       </c>
     </row>
     <row r="208" spans="3:26">
-      <c r="O208">
+      <c r="O208" s="61">
         <v>2024</v>
       </c>
-      <c r="P208" t="s">
+      <c r="P208" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q208">
+      <c r="Q208" s="61">
         <v>728</v>
       </c>
-      <c r="R208">
+      <c r="R208" s="61">
         <f t="shared" si="20"/>
         <v>34.55562106</v>
       </c>
-      <c r="S208">
+      <c r="S208" s="61">
         <f t="shared" si="18"/>
         <v>47</v>
       </c>
-      <c r="T208">
+      <c r="T208" s="61">
         <f t="shared" si="19"/>
         <v>47000</v>
       </c>
-      <c r="W208">
+      <c r="U208" s="61"/>
+      <c r="V208" s="61"/>
+      <c r="W208" s="61">
         <v>47</v>
       </c>
-      <c r="Z208">
+      <c r="X208" s="61"/>
+      <c r="Y208" s="61"/>
+      <c r="Z208" s="61">
         <v>57.382300000000001</v>
       </c>
     </row>
     <row r="209" spans="13:26">
-      <c r="O209">
+      <c r="O209" s="61">
         <v>2024</v>
       </c>
-      <c r="P209" t="s">
+      <c r="P209" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q209">
+      <c r="Q209" s="61">
         <v>728</v>
       </c>
-      <c r="R209">
+      <c r="R209" s="61">
         <f t="shared" si="20"/>
         <v>34.474444499999997</v>
       </c>
-      <c r="S209">
+      <c r="S209" s="61">
         <f t="shared" si="18"/>
         <v>47.9</v>
       </c>
-      <c r="T209">
+      <c r="T209" s="61">
         <f t="shared" si="19"/>
         <v>47900</v>
       </c>
-      <c r="W209">
+      <c r="U209" s="61"/>
+      <c r="V209" s="61"/>
+      <c r="W209" s="61">
         <v>47.9</v>
       </c>
-      <c r="Z209">
+      <c r="X209" s="61"/>
+      <c r="Y209" s="61"/>
+      <c r="Z209" s="61">
         <v>57.247500000000002</v>
       </c>
     </row>
     <row r="210" spans="13:26">
-      <c r="O210">
+      <c r="O210" s="61">
         <v>2024</v>
       </c>
-      <c r="P210" t="s">
+      <c r="P210" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q210">
+      <c r="Q210" s="61">
         <v>728</v>
       </c>
-      <c r="R210">
+      <c r="R210" s="61">
         <f t="shared" si="20"/>
         <v>34.348283599999995</v>
       </c>
-      <c r="S210">
+      <c r="S210" s="61">
         <f t="shared" si="18"/>
         <v>49.3</v>
       </c>
-      <c r="T210">
+      <c r="T210" s="61">
         <f t="shared" si="19"/>
         <v>49300</v>
       </c>
-      <c r="W210">
+      <c r="U210" s="61"/>
+      <c r="V210" s="61"/>
+      <c r="W210" s="61">
         <v>49.3</v>
       </c>
-      <c r="Z210">
+      <c r="X210" s="61"/>
+      <c r="Y210" s="61"/>
+      <c r="Z210" s="61">
         <v>57.037999999999997</v>
       </c>
     </row>
     <row r="211" spans="13:26">
-      <c r="O211">
+      <c r="O211" s="61">
         <v>2024</v>
       </c>
-      <c r="P211" t="s">
+      <c r="P211" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q211">
+      <c r="Q211" s="61">
         <v>728</v>
       </c>
-      <c r="R211">
+      <c r="R211" s="61">
         <f t="shared" si="20"/>
         <v>34.150220019999999</v>
       </c>
-      <c r="S211">
+      <c r="S211" s="61">
         <f t="shared" si="18"/>
         <v>51.6</v>
       </c>
-      <c r="T211">
+      <c r="T211" s="61">
         <f t="shared" si="19"/>
         <v>51600</v>
       </c>
-      <c r="W211">
+      <c r="U211" s="61"/>
+      <c r="V211" s="61"/>
+      <c r="W211" s="61">
         <v>51.6</v>
       </c>
-      <c r="Z211">
+      <c r="X211" s="61"/>
+      <c r="Y211" s="61"/>
+      <c r="Z211" s="61">
         <v>56.709099999999999</v>
       </c>
     </row>
     <row r="212" spans="13:26">
-      <c r="O212">
+      <c r="O212" s="61">
         <v>2024</v>
       </c>
-      <c r="P212" t="s">
+      <c r="P212" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q212">
+      <c r="Q212" s="61">
         <v>728</v>
       </c>
-      <c r="R212">
+      <c r="R212" s="61">
         <f t="shared" si="20"/>
         <v>34.030502659999996</v>
       </c>
-      <c r="S212">
+      <c r="S212" s="61">
         <f t="shared" si="18"/>
         <v>53</v>
       </c>
-      <c r="T212">
+      <c r="T212" s="61">
         <f t="shared" si="19"/>
         <v>53000</v>
       </c>
-      <c r="W212">
+      <c r="U212" s="61"/>
+      <c r="V212" s="61"/>
+      <c r="W212" s="61">
         <v>53</v>
       </c>
-      <c r="Z212">
+      <c r="X212" s="61"/>
+      <c r="Y212" s="61"/>
+      <c r="Z212" s="61">
         <v>56.510300000000001</v>
       </c>
     </row>
     <row r="213" spans="13:26">
-      <c r="O213">
+      <c r="O213" s="61">
         <v>2024</v>
       </c>
-      <c r="P213" t="s">
+      <c r="P213" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q213">
+      <c r="Q213" s="61">
         <v>728</v>
       </c>
-      <c r="R213">
+      <c r="R213" s="61">
         <f t="shared" si="20"/>
         <v>33.975280919999996</v>
       </c>
-      <c r="S213">
+      <c r="S213" s="61">
         <f t="shared" si="18"/>
         <v>53.6</v>
       </c>
-      <c r="T213">
+      <c r="T213" s="61">
         <f t="shared" si="19"/>
         <v>53600</v>
       </c>
-      <c r="W213">
+      <c r="U213" s="61"/>
+      <c r="V213" s="61"/>
+      <c r="W213" s="61">
         <v>53.6</v>
       </c>
-      <c r="Z213">
+      <c r="X213" s="61"/>
+      <c r="Y213" s="61"/>
+      <c r="Z213" s="61">
         <v>56.418599999999998</v>
       </c>
     </row>
@@ -15773,14 +16337,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="Y3:Z3"/>
@@ -15795,6 +16351,14 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{C197F492-C155-453C-9706-9BEC01725253}"/>
@@ -15848,16 +16412,16 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="81" t="s">
@@ -15873,7 +16437,7 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
@@ -15894,7 +16458,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="74"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -15904,19 +16468,19 @@
       <c r="F5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="74" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
@@ -17118,7 +17682,7 @@
       <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
@@ -17161,7 +17725,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -17186,10 +17750,10 @@
       <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -17205,9 +17769,9 @@
       <c r="I5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18367,17 +18931,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10">
@@ -18395,7 +18959,7 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="74"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
@@ -18417,26 +18981,26 @@
       <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="74"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -18449,8 +19013,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="25" t="s">
@@ -25659,7 +26223,7 @@
       <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
@@ -25691,7 +26255,7 @@
       <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -25721,10 +26285,10 @@
       <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -25737,9 +26301,9 @@
       <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -28118,6 +28682,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:H3"/>
@@ -28126,12 +28696,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -28159,17 +28723,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11">
@@ -28187,7 +28751,7 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="74"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
@@ -28213,26 +28777,26 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="74"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -28245,8 +28809,8 @@
       <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="6" t="s">
         <v>160</v>
       </c>
@@ -31277,7 +31841,7 @@
       <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
@@ -31304,7 +31868,7 @@
       <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -31331,10 +31895,10 @@
       <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31350,9 +31914,9 @@
       <c r="I5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
@@ -31742,6 +32306,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -31749,11 +32318,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -31813,7 +32377,7 @@
       <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
@@ -31836,7 +32400,7 @@
       <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -31855,10 +32419,10 @@
       <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -31874,9 +32438,9 @@
       <c r="I5" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -32100,17 +32664,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
